--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06383055784136893</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01383055784136892</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009401486342168633</v>
+        <v>0.007790283882355921</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0007930869438094665</v>
+        <v>0.001667015641823331</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007515308491348505</v>
+        <v>0.0007727204323518017</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001735627226978759</v>
+        <v>0.004927558937799226</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007169084784382942</v>
+        <v>0.0007664730998068436</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005779541372119057</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007672712631998022</v>
+        <v>0.0004229629629629633</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008721487144977946</v>
+        <v>0.001667015641823331</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007658794302660246</v>
+        <v>0.0007727204323518017</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002497341417357656</v>
+        <v>0.00340082971974863</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001503061698269701</v>
+        <v>0.001545440864703603</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003261795687431797</v>
+        <v>0.01099999999999998</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001433816956876588</v>
+        <v>0.001710511982570803</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01160045926340669</v>
+        <v>0.01245930297735659</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001534542526399604</v>
+        <v>0.001534590110353192</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01697333970661358</v>
+        <v>0.00340082971974863</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001531758860532049</v>
+        <v>0.001545440864703603</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00304918158157954</v>
+        <v>0.005017866851364142</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002254592547404552</v>
+        <v>0.002318161297055405</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004811762902294126</v>
+        <v>0.01352664911754536</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002150725435314883</v>
+        <v>0.00229941929942053</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01576939434303518</v>
+        <v>0.01857585093991443</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002301813789599406</v>
+        <v>0.002301885165529788</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02335631802683602</v>
+        <v>0.005017866851364142</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002297638290798074</v>
+        <v>0.002318161297055405</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003133828780722877</v>
+        <v>0.002854999999999999</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
+        <v>0.01683816765765692</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.003065892399227374</v>
+      </c>
+      <c r="L69" s="172" t="n">
+        <v>0.02431981935129446</v>
+      </c>
+      <c r="M69" s="170" t="n">
+        <v>0.003069180220706384</v>
+      </c>
+      <c r="N69" s="171" t="n">
         <v>0.005999999999999998</v>
       </c>
-      <c r="K69" s="171" t="n">
+      <c r="O69" s="172" t="n">
         <v>0.002854999999999999</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.01799999999999999</v>
-      </c>
-      <c r="M69" s="170" t="n">
-        <v>0.002771844660194172</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.02800000000000002</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.002896376811594205</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003133828780722877</v>
+        <v>0.002854999999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007513070194125018</v>
+        <v>0.007247874020760992</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003757654245674253</v>
+        <v>0.003863602161759008</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007038148005337246</v>
+        <v>0.02018389658968059</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003584542392191471</v>
+        <v>0.003832365499034218</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02116281567021203</v>
+        <v>0.02956415209991986</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00383635631599901</v>
+        <v>0.003836475275882979</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03246872811718526</v>
+        <v>0.007247874020760992</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003829397151330124</v>
+        <v>0.003863602161759008</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008545518438925738</v>
+        <v>0.008267301440110522</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004509185094809103</v>
+        <v>0.00463632259411081</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007767345748710582</v>
+        <v>0.02277262784281081</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004301450870629765</v>
+        <v>0.004598838598841061</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02300289898058813</v>
+        <v>0.0340817930742135</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004603627579198813</v>
+        <v>0.004603770331059576</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0351566598154856</v>
+        <v>0.008267301440110522</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004595276581596149</v>
+        <v>0.00463632259411081</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007497073112386503</v>
+        <v>0.009190844672780855</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005260715943943953</v>
+        <v>0.005409043026462612</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008614297289588721</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005018359349068059</v>
+        <v>0.005628824551290239</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.03744568616259886</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005574175769238877</v>
+        <v>0.005371065386236171</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03790983371607592</v>
+        <v>0.009190844672780855</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005361156011862172</v>
+        <v>0.005409043026462612</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008379792954143699</v>
+        <v>0.0102022139153102</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006012246793078804</v>
+        <v>0.006181763458814413</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009586887562729199</v>
+        <v>0.02583448727980794</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005735267827506354</v>
+        <v>0.006131784798454749</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02602290019466627</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006138170105598417</v>
+        <v>0.005924027193675628</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.0102022139153102</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005795243993813115</v>
+        <v>0.006181763458814413</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009205736703833713</v>
+        <v>0.01068511936423679</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006763777642213655</v>
+        <v>0.006954483891166215</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01009300150288956</v>
+        <v>0.02657507232957734</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006452176305944648</v>
+        <v>0.006898257898261592</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02735323423281616</v>
+        <v>0.04133351344347613</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006905441368798219</v>
+        <v>0.006905655496589364</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04172416306381083</v>
+        <v>0.01068511936423679</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006892914872394223</v>
+        <v>0.006954483891166215</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009986963101092899</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007515308491348505</v>
+        <v>0.007790283882355921</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01084052404482735</v>
+        <v>0.02759168975973175</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007169084784382942</v>
+        <v>0.007664730998068436</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02887037645658186</v>
+        <v>0.04254391111625211</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007672712631998021</v>
+        <v>0.007672950551765959</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04343838638609476</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007658794302660248</v>
+        <v>0.007790283882355921</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01173553088555766</v>
+        <v>0.01186821981118859</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008266839340483357</v>
+        <v>0.008499924755869819</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.02878443936906724</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007790283882355921</v>
+        <v>0.00843120409787528</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03027092665871634</v>
+        <v>0.04451581523533005</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008439983895197824</v>
+        <v>0.008440245606942554</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04543425622828345</v>
+        <v>0.01186821981118859</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008424673732926272</v>
+        <v>0.008499924755869819</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01146349879686436</v>
+        <v>0.01220607739718631</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009018370189618206</v>
+        <v>0.00927264518822162</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01212150832041498</v>
+        <v>0.02985342095637994</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008602901741259531</v>
+        <v>0.009197677197682122</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03135148463197249</v>
+        <v>0.04564941192504901</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009207255158397626</v>
+        <v>0.009207540662119151</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04740600477677032</v>
+        <v>0.01220607739718631</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009190553163192297</v>
+        <v>0.00927264518822162</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01383055784136892</v>
+        <v>0.01253722081311272</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009401486342168633</v>
+        <v>0.01004536562057342</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01270948456452825</v>
+        <v>0.03049873432046604</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009319810219697824</v>
+        <v>0.009964150297488967</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03240865016910333</v>
+        <v>0.04724488730974846</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009974526421597428</v>
+        <v>0.009974835717295747</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04974786421794902</v>
+        <v>0.01253722081311272</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00995643259345832</v>
+        <v>0.01004536562057342</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01293025334360569</v>
+        <v>0.01316150880636462</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01052143188788791</v>
+        <v>0.01081808605292522</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01329931354584177</v>
+        <v>0.03172047926012159</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01003671869813612</v>
+        <v>0.01073062339729581</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03353902306286174</v>
+        <v>0.04900242751376777</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01074179768479723</v>
+        <v>0.01074213077247234</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05175406673821326</v>
+        <v>0.01316150880636462</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01072231202372434</v>
+        <v>0.01081808605292522</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0146942723686734</v>
+        <v>0.01357880012433868</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01127296273702276</v>
+        <v>0.01159080648527703</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01388859082377183</v>
+        <v>0.03241875557414273</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01075362717657441</v>
+        <v>0.01149709649710265</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0347392031060007</v>
+        <v>0.05002221866144602</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01150906894799703</v>
+        <v>0.01150942582764894</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05361884452395643</v>
+        <v>0.01357880012433868</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01148819145399037</v>
+        <v>0.01159080648527703</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01447277015150465</v>
+        <v>0.0138889535144317</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01202449358615761</v>
+        <v>0.01236352691762883</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01447491195773469</v>
+        <v>0.03319366306132565</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01147053565501271</v>
+        <v>0.0122635695969095</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0363057900912731</v>
+        <v>0.05150444687712252</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01227634021119683</v>
+        <v>0.01227672088282553</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05503642976157219</v>
+        <v>0.0138889535144317</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01225407088425639</v>
+        <v>0.01236352691762883</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01626019005158224</v>
+        <v>0.01429182772404038</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01277602443529246</v>
+        <v>0.01313624734998063</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01485587250714662</v>
+        <v>0.03404530152046636</v>
       </c>
       <c r="K82" t="n">
-        <v>0.012187444133451</v>
+        <v>0.01303004269671634</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03743538381143191</v>
+        <v>0.05284929828513668</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01304361147439664</v>
+        <v>0.01304401593800213</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05700105463745403</v>
+        <v>0.01429182772404038</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01301995031452242</v>
+        <v>0.01313624734998063</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01605097542838894</v>
+        <v>0.01478728150056152</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01352755528442731</v>
+        <v>0.01390896778233243</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01562906803142389</v>
+        <v>0.03517377075036107</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0129043526118893</v>
+        <v>0.01379651579652318</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03842458405923008</v>
+        <v>0.05375695900982785</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01381088273759644</v>
+        <v>0.01381131099317873</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05850695133799572</v>
+        <v>0.01478728150056152</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01378582974478845</v>
+        <v>0.01390896778233243</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01783956964140755</v>
+        <v>0.0149751735913918</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01427908613356216</v>
+        <v>0.01468168821468423</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01599209408998277</v>
+        <v>0.03597917054980587</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01362126109032759</v>
+        <v>0.01456298889633003</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03946999062742057</v>
+        <v>0.05522761517553498</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01457815400079624</v>
+        <v>0.01457860604835532</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06044835204959065</v>
+        <v>0.0149751735913918</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01455170917505447</v>
+        <v>0.01468168821468423</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01862041605012088</v>
+        <v>0.01555536274392802</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01503061698269701</v>
+        <v>0.01545440864703603</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01654254624223954</v>
+        <v>0.0367616007175969</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01433816956876588</v>
+        <v>0.01532946199613687</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04046820330875625</v>
+        <v>0.05666145290659763</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01534542526399604</v>
+        <v>0.01534590110353192</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06221948895863261</v>
+        <v>0.01555536274392802</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0153175886053205</v>
+        <v>0.01545440864703603</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01938795801401169</v>
+        <v>0.01592770770556688</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01578214783183186</v>
+        <v>0.01622712907938784</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01727802004761045</v>
+        <v>0.03732116105253025</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01505507804720418</v>
+        <v>0.01609593509594371</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04131582189599015</v>
+        <v>0.05785865832735509</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01611269652719585</v>
+        <v>0.01611319615870851</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06341459425151497</v>
+        <v>0.01592770770556688</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01608346803558652</v>
+        <v>0.01622712907938784</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02013663889256279</v>
+        <v>0.01619206722370516</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01653367868096671</v>
+        <v>0.01699984951173964</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01759611106551175</v>
+        <v>0.03795795135340208</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01577198652564247</v>
+        <v>0.01686240819575056</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04230944618187513</v>
+        <v>0.05901941756214657</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01687996779039565</v>
+        <v>0.01688049121388511</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06462790011463138</v>
+        <v>0.01619206722370516</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01684934746585254</v>
+        <v>0.01699984951173964</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01986090204525694</v>
+        <v>0.01664830004573956</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01728520953010156</v>
+        <v>0.01777256994409144</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01829441485535975</v>
+        <v>0.03897207141900849</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01648889500408077</v>
+        <v>0.0176288812955574</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04334567595916422</v>
+        <v>0.06044391673531135</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01764723905359545</v>
+        <v>0.01764778626906171</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06635363873437544</v>
+        <v>0.01664830004573956</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01761522689611857</v>
+        <v>0.01777256994409144</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02255519083157695</v>
+        <v>0.01689626491906687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01803674037923641</v>
+        <v>0.01854529037644324</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01857052697657069</v>
+        <v>0.03966362104814566</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01720580348251906</v>
+        <v>0.01839535439536424</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04372111102061024</v>
+        <v>0.06143234197118874</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01841451031679525</v>
+        <v>0.0184150813242383</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06708604229714071</v>
+        <v>0.01689626491906687</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01838110632638459</v>
+        <v>0.01854529037644324</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02221394861100562</v>
+        <v>0.01733582059108381</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01878827122837126</v>
+        <v>0.01931801080879504</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01922204298856087</v>
+        <v>0.04023270003960963</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01792271196095736</v>
+        <v>0.01916182749517109</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04463235115896627</v>
+        <v>0.062084879394118</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01918178157999505</v>
+        <v>0.0191823763794149</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06821934298932081</v>
+        <v>0.01733582059108381</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01914698575665062</v>
+        <v>0.01931801080879504</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02183161874302574</v>
+        <v>0.01766682580918712</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01953980207750611</v>
+        <v>0.02009073124114684</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0196465584507465</v>
+        <v>0.04087940819219657</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01863962043939565</v>
+        <v>0.01992830059497793</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04517599616698517</v>
+        <v>0.06340171512843851</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01994905284319486</v>
+        <v>0.01994967143459149</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06974777299730922</v>
+        <v>0.01766682580918712</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01991286518691664</v>
+        <v>0.02009073124114684</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02340264458712006</v>
+        <v>0.01798913932077356</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02029133292664096</v>
+        <v>0.02086345167349865</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01984166892254391</v>
+        <v>0.04150384530470258</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01935652891783395</v>
+        <v>0.02069477369478477</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04604864583741988</v>
+        <v>0.06438303529848938</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02071632410639466</v>
+        <v>0.02071696648976809</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07026556450749966</v>
+        <v>0.01798913932077356</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02067874461718266</v>
+        <v>0.02086345167349865</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02392146950277142</v>
+        <v>0.01830261987323985</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02104286377577581</v>
+        <v>0.02163617210585045</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02020496996336933</v>
+        <v>0.04230611117592381</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02007343739627224</v>
+        <v>0.02146124679459162</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04614689996302335</v>
+        <v>0.06532902602861002</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02148359536959446</v>
+        <v>0.02148426154494468</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07126694970628561</v>
+        <v>0.01830261987323985</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02144462404744869</v>
+        <v>0.02163617210585045</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02438253684946258</v>
+        <v>0.01850712621398275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02179439462491066</v>
+        <v>0.02240889253820225</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02073405713263907</v>
+        <v>0.04278630560465638</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02079034587471053</v>
+        <v>0.02222771989439846</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04646735833654855</v>
+        <v>0.06613987344313971</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02225086663279426</v>
+        <v>0.02225155660012128</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07194616078006061</v>
+        <v>0.01850712621398275</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02221050347771471</v>
+        <v>0.02240889253820225</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02578028998667632</v>
+        <v>0.01880251709039903</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02254592547404552</v>
+        <v>0.02318161297055405</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02082652598976933</v>
+        <v>0.04314452838969637</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02150725435314883</v>
+        <v>0.02299419299420531</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0473066207507484</v>
+        <v>0.06711576366641775</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02301813789599406</v>
+        <v>0.02301885165529788</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07239742991521841</v>
+        <v>0.01880251709039903</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02297638290798074</v>
+        <v>0.02318161297055405</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02610917227389546</v>
+        <v>0.01898865124988539</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02329745632318037</v>
+        <v>0.02395433340290585</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02107997209417643</v>
+        <v>0.04408087932983995</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02222416283158712</v>
+        <v>0.02376066609401215</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04716128699837585</v>
+        <v>0.06765688282278332</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02378540915919387</v>
+        <v>0.02378614671047448</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07271498929815251</v>
+        <v>0.01898865124988539</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02374226233824676</v>
+        <v>0.02395433340290585</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02636362707060279</v>
+        <v>0.01946538743983857</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02404898717231522</v>
+        <v>0.02472705383525765</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02149199100527663</v>
+        <v>0.04419545822388327</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02294107131002542</v>
+        <v>0.024527139193819</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04762795687218385</v>
+        <v>0.06836341703657584</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02455268042239367</v>
+        <v>0.02455344176565107</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07339307111525645</v>
+        <v>0.01946538743983857</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02450814176851279</v>
+        <v>0.02472705383525765</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02653809773628107</v>
+        <v>0.01973258440765537</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02480051802145007</v>
+        <v>0.02549977426760945</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02146017828248618</v>
+        <v>0.04498836487062241</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02365797978846371</v>
+        <v>0.02529361229362584</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04740323016492526</v>
+        <v>0.06903555243213455</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02531995168559347</v>
+        <v>0.02532073682082767</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07342590755292372</v>
+        <v>0.01973258440765537</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02527402119877882</v>
+        <v>0.02549977426760945</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02662702763041311</v>
+        <v>0.01989010090073247</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02555204887058492</v>
+        <v>0.02627249469996126</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02158212948522138</v>
+        <v>0.04555969906885346</v>
       </c>
       <c r="K99" t="n">
-        <v>0.024374888266902</v>
+        <v>0.02606008539343268</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04767809215665922</v>
+        <v>0.07027347513379872</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02608722294879327</v>
+        <v>0.02608803187600426</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07343743729162394</v>
+        <v>0.01989010090073247</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02603990062904484</v>
+        <v>0.02627249469996126</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02562564275674477</v>
+        <v>0.02013779566646665</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02630357971971977</v>
+        <v>0.02704521513231306</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02175544017289846</v>
+        <v>0.04560956061737259</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0250917967453403</v>
+        <v>0.02682655849323953</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04763958951053207</v>
+        <v>0.07097737126590764</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02685449421199308</v>
+        <v>0.02685532693118086</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07258510190481027</v>
+        <v>0.02013779566646665</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02680578005931086</v>
+        <v>0.02704521513231306</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02653915557696855</v>
+        <v>0.02027552745225464</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02705511056885462</v>
+        <v>0.02781793556466486</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02167777596408407</v>
+        <v>0.04623804931497597</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02580870522377859</v>
+        <v>0.02759303159304637</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04699684223219799</v>
+        <v>0.07154742695280053</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02762176547519288</v>
+        <v>0.02762262198635745</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07151507959109288</v>
+        <v>0.02027552745225464</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02757165948957689</v>
+        <v>0.02781793556466486</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02437874475372587</v>
+        <v>0.0206031550054932</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02780664141798947</v>
+        <v>0.02859065599701667</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02186139740330949</v>
+        <v>0.04684526496045963</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02652561370221689</v>
+        <v>0.02835950469285321</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04706019018422389</v>
+        <v>0.07248382831881683</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02838903673839268</v>
+        <v>0.02838991704153405</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07040266320722</v>
+        <v>0.0206031550054932</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02833753891984291</v>
+        <v>0.02859065599701667</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02615556550581601</v>
+        <v>0.02072053707357906</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02855817226712432</v>
+        <v>0.02936337642936846</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02161802370467433</v>
+        <v>0.04703130735261973</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02724252218065518</v>
+        <v>0.02912597779266006</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04633997322917663</v>
+        <v>0.0729867614882958</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02915630800159248</v>
+        <v>0.02915721209671064</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06892314560994028</v>
+        <v>0.02072053707357906</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02910341835010894</v>
+        <v>0.02936337642936846</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02388077305203826</v>
+        <v>0.02112753240390897</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02930970311625917</v>
+        <v>0.03013609686172026</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02164966279580699</v>
+        <v>0.04709627629025243</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02795943065909347</v>
+        <v>0.0298924508924669</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04584653122962304</v>
+        <v>0.07315641258557648</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02992357926479228</v>
+        <v>0.02992450715188724</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06695181965600211</v>
+        <v>0.02112753240390897</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02986929778037496</v>
+        <v>0.03013609686172026</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02356552261119191</v>
+        <v>0.02132399974387966</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03006123396539402</v>
+        <v>0.03090881729407207</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02165832260433576</v>
+        <v>0.04774027157215377</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02867633913753177</v>
+        <v>0.03065892399227374</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04539020404813007</v>
+        <v>0.07349296773499853</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03069085052799208</v>
+        <v>0.03069180220706384</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06546397820215383</v>
+        <v>0.02132399974387966</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03063517721064099</v>
+        <v>0.03090881729407207</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02522096940207627</v>
+        <v>0.0214097978408879</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03081276481452887</v>
+        <v>0.03168153772642387</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02134601105788898</v>
+        <v>0.04796339299711996</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02939324761597006</v>
+        <v>0.03142539709208059</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0445813315472646</v>
+        <v>0.07429661306090091</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03145812179119189</v>
+        <v>0.03145909726224044</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06363491410514399</v>
+        <v>0.0214097978408879</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03140105664090701</v>
+        <v>0.03168153772642387</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02285826864349064</v>
+        <v>0.02168478544233041</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03156429566366372</v>
+        <v>0.03245425815877567</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02131473608409505</v>
+        <v>0.04856574036394709</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03011015609440836</v>
+        <v>0.03219187019188743</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04393025358959352</v>
+        <v>0.07466753468762316</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03222539305439169</v>
+        <v>0.03222639231741703</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06143992022172096</v>
+        <v>0.02168478544233041</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03216693607117303</v>
+        <v>0.03245425815877567</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02248857555423429</v>
+        <v>0.02174882129560395</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03231582651279857</v>
+        <v>0.03322697859112747</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02116650561058224</v>
+        <v>0.04854741347143129</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03082706457284665</v>
+        <v>0.03295834329169427</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04334731003768375</v>
+        <v>0.07500591873950441</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03299266431759149</v>
+        <v>0.03299368737259362</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0593542894086333</v>
+        <v>0.02174882129560395</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03293281550143906</v>
+        <v>0.03322697859112747</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02312304535310654</v>
+        <v>0.02200176414810524</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03306735736193343</v>
+        <v>0.03399969902347928</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02090332756497892</v>
+        <v>0.04870851211836863</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03154397305128494</v>
+        <v>0.03372481639150112</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0429428407541021</v>
+        <v>0.07581195134088398</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03375993558079129</v>
+        <v>0.03376098242777022</v>
       </c>
       <c r="N109" t="n">
-        <v>0.05805331452262924</v>
+        <v>0.02200176414810524</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03369869493170509</v>
+        <v>0.03399969902347928</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02377283325890667</v>
+        <v>0.02204347274723106</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03381888821106827</v>
+        <v>0.03477241945583107</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02092720987491344</v>
+        <v>0.04904913610355535</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03226088152972324</v>
+        <v>0.03449128949130796</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04212718560141551</v>
+        <v>0.07598581861610121</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0345272068439911</v>
+        <v>0.03452827748294682</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0567122884204575</v>
+        <v>0.02204347274723106</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03446457436197111</v>
+        <v>0.03477241945583107</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02144909449043397</v>
+        <v>0.02217380584037812</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03457041906020313</v>
+        <v>0.03554513988818288</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02054016046801412</v>
+        <v>0.04916938522578745</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03297779000816153</v>
+        <v>0.03525776259111481</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04141068444219087</v>
+        <v>0.07672770668949525</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0352944781071909</v>
+        <v>0.03529557253812341</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05540650395886637</v>
+        <v>0.02217380584037812</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03523045379223713</v>
+        <v>0.03554513988818288</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02216298426648776</v>
+        <v>0.0222926221749432</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03532194990933797</v>
+        <v>0.03631786032053468</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0204441872719093</v>
+        <v>0.04946935928386115</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03369469848659983</v>
+        <v>0.03602423569092165</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04080367713899505</v>
+        <v>0.07693780168540554</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0360617493703907</v>
+        <v>0.0360628675933</v>
       </c>
       <c r="N112" t="n">
-        <v>0.05481125399460424</v>
+        <v>0.0222926221749432</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03599633322250315</v>
+        <v>0.03631786032053468</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02292565780586731</v>
+        <v>0.02239978049832299</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03607348075847282</v>
+        <v>0.03709058075288648</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02014129821422733</v>
+        <v>0.04984915807657248</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03441160696503812</v>
+        <v>0.03679070879072849</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04011650355439494</v>
+        <v>0.07681628972817128</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0368290206335905</v>
+        <v>0.03683016264847661</v>
       </c>
       <c r="N113" t="n">
-        <v>0.05478360908821323</v>
+        <v>0.02239978049832299</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03676221265276919</v>
+        <v>0.03709058075288648</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02174827032737192</v>
+        <v>0.02239513955791428</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03682501160760767</v>
+        <v>0.03786330118523829</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02003350122259655</v>
+        <v>0.04970888140271762</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03512851544347641</v>
+        <v>0.03755718189053533</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03895950355095745</v>
+        <v>0.07756335694213179</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03759629189679031</v>
+        <v>0.0375974577036532</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0546669929616882</v>
+        <v>0.02239513955791428</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03752809208303521</v>
+        <v>0.03786330118523829</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02264197704980089</v>
+        <v>0.0226785581011138</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03757654245674252</v>
+        <v>0.03863602161759008</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01972280422464529</v>
+        <v>0.04984862906109269</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03584542392191471</v>
+        <v>0.03832365499034218</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03834301699124945</v>
+        <v>0.07747918945162635</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03836356315999011</v>
+        <v>0.0383647527588298</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05505115731578009</v>
+        <v>0.0226785581011138</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03829397151330123</v>
+        <v>0.03863602161759008</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02261633370015308</v>
+        <v>0.0227498948753183</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03832807330587738</v>
+        <v>0.03940874204994189</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01951121514800189</v>
+        <v>0.05006850085049386</v>
       </c>
       <c r="K116" t="n">
-        <v>0.036562332400353</v>
+        <v>0.03909012809014902</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03787738373783783</v>
+        <v>0.07796397338099431</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03913083442318991</v>
+        <v>0.03913204781400639</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05513014713079983</v>
+        <v>0.0227498948753183</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03905985094356726</v>
+        <v>0.03940874204994189</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02163688598510879</v>
+        <v>0.02260900862792452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03907960415501223</v>
+        <v>0.04018146248229369</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01940074192029469</v>
+        <v>0.05046859656971717</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03727924087879129</v>
+        <v>0.03985660118995587</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03727294365328951</v>
+        <v>0.07801789485457483</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03989810568638971</v>
+        <v>0.03989934286918299</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05589800738705836</v>
+        <v>0.02260900862792452</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03982573037383328</v>
+        <v>0.04018146248229369</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02268431136300865</v>
+        <v>0.02275575810632918</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03983113500414708</v>
+        <v>0.04095418291464549</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01909339246915204</v>
+        <v>0.05014901601755875</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03799614935722959</v>
+        <v>0.04062307428976271</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03704003660017136</v>
+        <v>0.07784113999670728</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04066537694958951</v>
+        <v>0.04066663792435959</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05654878306486671</v>
+        <v>0.02275575810632918</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04059160980409931</v>
+        <v>0.04095418291464549</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02175681368540387</v>
+        <v>0.02289000205792906</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04058266585328193</v>
+        <v>0.04172690334699729</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01889117472220227</v>
+        <v>0.05040985899281478</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03871305783566789</v>
+        <v>0.04138954738956955</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03668900244105022</v>
+        <v>0.07783389493173082</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04143264821278932</v>
+        <v>0.04143393297953618</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05647651914453578</v>
+        <v>0.02289000205792906</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04135748923436533</v>
+        <v>0.04172690334699729</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02285259680384569</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04133419670241677</v>
+        <v>0.04249962377934909</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01879609660707372</v>
+        <v>0.05035122529428138</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03942996631410618</v>
+        <v>0.0421560204893764</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03643018103849308</v>
+        <v>0.07819634578398493</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04219991947598912</v>
+        <v>0.04220122803471277</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05747526060637642</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04212336866463136</v>
+        <v>0.04249962377934909</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02296986456988533</v>
+        <v>0.0228204083703014</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04208572755155163</v>
+        <v>0.0432723442117009</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01861016605139475</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04014687479254447</v>
+        <v>0.04292249358918324</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03647391225506671</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04296719073918892</v>
+        <v>0.04296852308988937</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0584390524306998</v>
+        <v>0.0228204083703014</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04288924809489738</v>
+        <v>0.0432723442117009</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02110682083507405</v>
+        <v>0.02271923266258295</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04283725840068647</v>
+        <v>0.04404506464405269</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01833539098279366</v>
+        <v>0.05057567275138522</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04086378327098277</v>
+        <v>0.04368896668899008</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03613071603028567</v>
+        <v>0.07843053751565499</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04373446200238872</v>
+        <v>0.04373581814506597</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0588619395978166</v>
+        <v>0.02271923266258295</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04365512752516341</v>
+        <v>0.04404506464405269</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02226166945096307</v>
+        <v>0.02281378376020457</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04358878924982133</v>
+        <v>0.04481778507640449</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01817377932889881</v>
+        <v>0.05065603795743948</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04158069174942106</v>
+        <v>0.04445543978879693</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03631843894790049</v>
+        <v>0.07769789600281091</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04450173326558853</v>
+        <v>0.04450311320024256</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05933796708803807</v>
+        <v>0.02281378376020457</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04442100695542943</v>
+        <v>0.04481778507640449</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02143261426910362</v>
+        <v>0.02270429076496304</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04434032009895618</v>
+        <v>0.0455905055087563</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01802733901733855</v>
+        <v>0.05061426212106143</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04229760022785935</v>
+        <v>0.04522191288860377</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03673560610290857</v>
+        <v>0.07803092614454132</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04526900452878833</v>
+        <v>0.04527040825541916</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06016117988167491</v>
+        <v>0.02270429076496304</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04518688638569546</v>
+        <v>0.0455905055087563</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02261785914104694</v>
+        <v>0.02289083635961925</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04509185094809103</v>
+        <v>0.0463632259411081</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01799807797574121</v>
+        <v>0.05025115579228848</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04301450870629765</v>
+        <v>0.04598838598841062</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03697058103008657</v>
+        <v>0.07773089666170646</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04603627579198813</v>
+        <v>0.04603770331059576</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06092562295903819</v>
+        <v>0.02289083635961925</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04595276581596148</v>
+        <v>0.0463632259411081</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02181560791834426</v>
+        <v>0.02287350322693403</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04584338179722588</v>
+        <v>0.04713594637345991</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01788800413173512</v>
+        <v>0.05036752952115797</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04373141718473595</v>
+        <v>0.04675485908821746</v>
       </c>
       <c r="L126" t="n">
-        <v>0.037111727264211</v>
+        <v>0.07739907627516612</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04680354705518793</v>
+        <v>0.04680499836577235</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0625253413004388</v>
+        <v>0.02287350322693403</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04671864524622751</v>
+        <v>0.04713594637345991</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02302406445254684</v>
+        <v>0.0227523740496683</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04659491264636073</v>
+        <v>0.0479086668058117</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01769912541294863</v>
+        <v>0.05036419385770718</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04444832566317424</v>
+        <v>0.0475213321880243</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03764740834005845</v>
+        <v>0.07763673370578023</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04757081831838773</v>
+        <v>0.04757229342094895</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06275437988618771</v>
+        <v>0.0227523740496683</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04748452467649353</v>
+        <v>0.0479086668058117</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02224143259520588</v>
+        <v>0.02272753151058288</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04734644349549558</v>
+        <v>0.04868138723816351</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01783344974701009</v>
+        <v>0.04974195935197359</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04516523414161253</v>
+        <v>0.04828780528783114</v>
       </c>
       <c r="L128" t="n">
-        <v>0.03856598779240553</v>
+        <v>0.07764513767440895</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04833808958158754</v>
+        <v>0.04833958847612554</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06370678369659599</v>
+        <v>0.02272753151058288</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04825040410675956</v>
+        <v>0.04868138723816351</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02246591619787262</v>
+        <v>0.02259905829243863</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04809797434463043</v>
+        <v>0.04945410767051531</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01779298506154782</v>
+        <v>0.05010163655399452</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04588214262005083</v>
+        <v>0.04905427838763799</v>
       </c>
       <c r="L129" t="n">
-        <v>0.03945582915602877</v>
+        <v>0.07692555690191205</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04910536084478734</v>
+        <v>0.04910688353130214</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06487659771197435</v>
+        <v>0.02259905829243863</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04901628353702558</v>
+        <v>0.04945410767051531</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02269571911209831</v>
+        <v>0.02266703707799646</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04884950519376528</v>
+        <v>0.0502268281028671</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01757975620649288</v>
+        <v>0.04974403601380728</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04659905109848912</v>
+        <v>0.04982075148744483</v>
       </c>
       <c r="L130" t="n">
-        <v>0.03980529596570478</v>
+        <v>0.07717926010914955</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04987263210798714</v>
+        <v>0.04987417858647874</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06615786691263398</v>
+        <v>0.02266703707799646</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0497821629672916</v>
+        <v>0.0502268281028671</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02392904518943419</v>
+        <v>0.02263155055001717</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04960103604290014</v>
+        <v>0.05099954853521891</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01770901553135351</v>
+        <v>0.04976996828144928</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04731595957692741</v>
+        <v>0.05058722458725168</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04070275175621016</v>
+        <v>0.07690751601698148</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05063990337118694</v>
+        <v>0.05064147364165533</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06674463627888566</v>
+        <v>0.02263155055001717</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05054804239755763</v>
+        <v>0.05099954853521891</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02316409828143146</v>
+        <v>0.02269268139126168</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05035256689203499</v>
+        <v>0.05177226896757071</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01788970858018418</v>
+        <v>0.04928024390695784</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04803286805536571</v>
+        <v>0.05135369768705852</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04153656006232148</v>
+        <v>0.07641159334626774</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05140717463438674</v>
+        <v>0.05140876869683193</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06823095079104047</v>
+        <v>0.02269268139126168</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05131392182782366</v>
+        <v>0.05177226896757071</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02539908223964138</v>
+        <v>0.02245051228449081</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05110409774116983</v>
+        <v>0.05254498939992252</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01781717200495329</v>
+        <v>0.04897567344037029</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04874977653380401</v>
+        <v>0.05212017078686536</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04229508441881527</v>
+        <v>0.07629276081786834</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05217444589758655</v>
+        <v>0.05217606375200852</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06921085542940919</v>
+        <v>0.02245051228449081</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05207980125808968</v>
+        <v>0.05254498939992252</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02363220091561517</v>
+        <v>0.02260512591246544</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05185562859030469</v>
+        <v>0.05331770983227432</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01798674245762925</v>
+        <v>0.04875706743172406</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0494666850122423</v>
+        <v>0.0528866438866722</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04316668836046816</v>
+        <v>0.07595228715264324</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05294171716078635</v>
+        <v>0.05294335880718512</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06967839517430291</v>
+        <v>0.02260512591246544</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0528456806883557</v>
+        <v>0.05331770983227432</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0238616581609041</v>
+        <v>0.02255660495794645</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05260715943943953</v>
+        <v>0.05409043026462612</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01819375659018047</v>
+        <v>0.04862523643105651</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0501835934906806</v>
+        <v>0.05365311698647905</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04393973542205673</v>
+        <v>0.07529144107145236</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05370898842398615</v>
+        <v>0.05371065386236171</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0711276150060326</v>
+        <v>0.02255660495794645</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05361156011862173</v>
+        <v>0.05409043026462612</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02508565782705936</v>
+        <v>0.02240503210369468</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05335869028857439</v>
+        <v>0.05486315069697791</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01853355105457534</v>
+        <v>0.04828099098840494</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05090050196911889</v>
+        <v>0.0544195900862859</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04530258913835752</v>
+        <v>0.07491149129515579</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05447625968718596</v>
+        <v>0.05447794891753831</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07155255990490911</v>
+        <v>0.02240503210369468</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05437743954888775</v>
+        <v>0.05486315069697791</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02530240376563221</v>
+        <v>0.022250490032471</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05411022113770924</v>
+        <v>0.05563587112932972</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01880146250278229</v>
+        <v>0.04842514165380674</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05161741044755718</v>
+        <v>0.05518606318609274</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04604361304414717</v>
+        <v>0.0742137065446134</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05524353095038576</v>
+        <v>0.05524524397271491</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07264727485124339</v>
+        <v>0.022250490032471</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05514331897915378</v>
+        <v>0.05563587112932972</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02651009982817387</v>
+        <v>0.02219306142703628</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05486175198684409</v>
+        <v>0.05640859156168152</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0191928275867697</v>
+        <v>0.04795849897729923</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05233431892599547</v>
+        <v>0.05595253628589959</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04695117067420218</v>
+        <v>0.07389935554068511</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05601080221358556</v>
+        <v>0.0560125390278915</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0733058048253466</v>
+        <v>0.02219306142703628</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0559091984094198</v>
+        <v>0.05640859156168152</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02470694986623559</v>
+        <v>0.02233282897015137</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05561328283597894</v>
+        <v>0.05718131199403333</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01930298295850599</v>
+        <v>0.04778187350891985</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05305122740443377</v>
+        <v>0.05671900938570642</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04751362556329919</v>
+        <v>0.07346970700423094</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05677807347678537</v>
+        <v>0.0567798340830681</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07452219480752936</v>
+        <v>0.02233282897015137</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05667507783968583</v>
+        <v>0.05718131199403333</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02489115773136859</v>
+        <v>0.02226987534457714</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05636481368511379</v>
+        <v>0.05795403242638512</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01962726526995959</v>
+        <v>0.04729607579870587</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05376813588287207</v>
+        <v>0.05748548248551327</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04821934124621477</v>
+        <v>0.07342602965611095</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05754534473998516</v>
+        <v>0.0575471291382447</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07539048977810286</v>
+        <v>0.02226987534457714</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05744095726995185</v>
+        <v>0.05795403242638512</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02506092727512411</v>
+        <v>0.02210428323307446</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05711634453424864</v>
+        <v>0.05872675285873693</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02006101117309886</v>
+        <v>0.04710191639669464</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05448504436131035</v>
+        <v>0.05825195558532012</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04875668125772548</v>
+        <v>0.0725695922171849</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05831261600318496</v>
+        <v>0.05831442419342129</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07620473471737793</v>
+        <v>0.02210428323307446</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05820683670021787</v>
+        <v>0.05872675285873693</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02721446234905339</v>
+        <v>0.02193613531840419</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05786787538338348</v>
+        <v>0.05949947329108873</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02039955731989225</v>
+        <v>0.04690020585292362</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05520195283974866</v>
+        <v>0.05901842868512695</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04951400913260789</v>
+        <v>0.07260166340831292</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05907988726638477</v>
+        <v>0.05908171924859788</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07645897460566559</v>
+        <v>0.02193613531840419</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0589727161304839</v>
+        <v>0.05949947329108873</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02634996680470765</v>
+        <v>0.0220655142833272</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05861940623251834</v>
+        <v>0.06027219372344052</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02063824036230812</v>
+        <v>0.04639175471743009</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05591886131818694</v>
+        <v>0.05978490178493381</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04977968840563859</v>
+        <v>0.07162351195035493</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05984715852958457</v>
+        <v>0.05984901430377448</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07714725442327675</v>
+        <v>0.0220655142833272</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05973859556074992</v>
+        <v>0.06027219372344052</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02746564449363814</v>
+        <v>0.02189250281060433</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05937093708165319</v>
+        <v>0.06104491415579233</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02117239695231495</v>
+        <v>0.04597737354025139</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05663576979662524</v>
+        <v>0.06055137488474064</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04994208261159422</v>
+        <v>0.07103640656417093</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06061442979278437</v>
+        <v>0.06061630935895108</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07746361915052241</v>
+        <v>0.02189250281060433</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06050447499101595</v>
+        <v>0.06104491415579233</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0275596992673961</v>
+        <v>0.02171718358299646</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06012246793078804</v>
+        <v>0.06181763458814413</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02139736374188106</v>
+        <v>0.04575787287142494</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05735267827506354</v>
+        <v>0.06131784798454749</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.07054161597062081</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06138170105598417</v>
+        <v>0.06138360441412767</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.02171718358299646</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06127035442128198</v>
+        <v>0.06181763458814413</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02563033497753273</v>
+        <v>0.02163963928326444</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06087399877992289</v>
+        <v>0.06259035502049594</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02170847738297492</v>
+        <v>0.04553406326098808</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05806958675350183</v>
+        <v>0.06208432108435433</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05078202263005072</v>
+        <v>0.07054040889056462</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06214897231918397</v>
+        <v>0.06215089946930426</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07829432511761247</v>
+        <v>0.02163963928326444</v>
       </c>
       <c r="O146" t="n">
-        <v>0.062036233851548</v>
+        <v>0.06259035502049594</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02766111568273784</v>
+        <v>0.02155995259416915</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06162552962905774</v>
+        <v>0.06336307545284774</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0220010745275649</v>
+        <v>0.04540675525897811</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05878649523194013</v>
+        <v>0.06285079418416117</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05107022604720293</v>
+        <v>0.07013405404486228</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06291624358238378</v>
+        <v>0.06291819452448087</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07918806190689748</v>
+        <v>0.02155995259416915</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06280211328181402</v>
+        <v>0.06336307545284774</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02771964979265389</v>
+        <v>0.02167820619847147</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06237706047819259</v>
+        <v>0.06413579588519953</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02217049182761942</v>
+        <v>0.04477675941543247</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05950340371037841</v>
+        <v>0.06361726728396802</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05075412531977619</v>
+        <v>0.06932382015437377</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06368351484558357</v>
+        <v>0.06368548957965746</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07908229548496049</v>
+        <v>0.02167820619847147</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06356799271208005</v>
+        <v>0.06413579588519953</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02776072026992078</v>
+        <v>0.02149448277893222</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06312859132732744</v>
+        <v>0.06490851631755135</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02251206593510689</v>
+        <v>0.04424488628038845</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06022031218881672</v>
+        <v>0.06438374038377485</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05133342072934066</v>
+        <v>0.06851097593995903</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06445078610878338</v>
+        <v>0.06445278463483406</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07947571723583158</v>
+        <v>0.02149448277893222</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06433387214234607</v>
+        <v>0.06490851631755135</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0268008731138878</v>
+        <v>0.02140886501831228</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06388012217646229</v>
+        <v>0.06568123674990314</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02282113350199573</v>
+        <v>0.04421194640388346</v>
       </c>
       <c r="K150" t="n">
-        <v>0.060937220667255</v>
+        <v>0.0651502134835817</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05150781255746656</v>
+        <v>0.06869679012247804</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06521805737198319</v>
+        <v>0.06522007969001066</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07986701854354106</v>
+        <v>0.02140886501831228</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06509975157261209</v>
+        <v>0.06568123674990314</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02684004550719395</v>
+        <v>0.02142143559937253</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06463165302559715</v>
+        <v>0.06645395718225494</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.04407875033595482</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0616541291456933</v>
+        <v>0.06591668658338855</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05177700108572408</v>
+        <v>0.06808253142279086</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06598532863518299</v>
+        <v>0.06598737474518725</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08005489079211914</v>
+        <v>0.02142143559937253</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06586563100287812</v>
+        <v>0.06645395718225494</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02787817463247821</v>
+        <v>0.02133227720487381</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06538318387473199</v>
+        <v>0.06722667761460675</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02296968378566967</v>
+        <v>0.04374610862663991</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0623710376241316</v>
+        <v>0.06668315968319539</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05184068659568355</v>
+        <v>0.06716946856175726</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06675259989838278</v>
+        <v>0.06675466980036385</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08093802536559602</v>
+        <v>0.02133227720487381</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06663151043314415</v>
+        <v>0.06722667761460675</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02691519767237963</v>
+        <v>0.02114147251757699</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06613471472386685</v>
+        <v>0.06799939804695855</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02324373094339797</v>
+        <v>0.04301483182597607</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06308794610256989</v>
+        <v>0.06744963278300224</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05209856936891508</v>
+        <v>0.06655887026023743</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06751987116158259</v>
+        <v>0.06752196485554043</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0810151136480019</v>
+        <v>0.02114147251757699</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06739738986341018</v>
+        <v>0.06799939804695855</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02695105180953716</v>
+        <v>0.02104910422024295</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06688624557300168</v>
+        <v>0.06877211847931035</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02351889484032918</v>
+        <v>0.04258573048400066</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06380485458100819</v>
+        <v>0.06821610588280907</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05205034968698899</v>
+        <v>0.06595200523909112</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06828714242478238</v>
+        <v>0.06828925991071703</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08148484702336711</v>
+        <v>0.02104910422024295</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06816326929367619</v>
+        <v>0.06877211847931035</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02698567422658986</v>
+        <v>0.02085525499563254</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06763777642213654</v>
+        <v>0.06954483891166215</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02359455073654436</v>
+        <v>0.04245961515075106</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06452176305944647</v>
+        <v>0.06898257898261592</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05199572783147546</v>
+        <v>0.06555014221917849</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06905441368798219</v>
+        <v>0.06905655496589364</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08214591687572187</v>
+        <v>0.02085525499563254</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06892914872394222</v>
+        <v>0.06954483891166215</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02701900210617666</v>
+        <v>0.02086000752650662</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06838930727127139</v>
+        <v>0.07031755934401396</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02387007389212464</v>
+        <v>0.04243729637626459</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06523867153788478</v>
+        <v>0.06974905208242277</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05223440408394472</v>
+        <v>0.06565454992135938</v>
       </c>
       <c r="M156" t="n">
-        <v>0.069821684951182</v>
+        <v>0.06982385002107022</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08249701458909636</v>
+        <v>0.02086000752650662</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06969502815420825</v>
+        <v>0.07031755934401396</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02605097263093663</v>
+        <v>0.02066344449562604</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06914083812040625</v>
+        <v>0.07109027977636576</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02394483956715113</v>
+        <v>0.04181854007373426</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06595558001632307</v>
+        <v>0.07051552518222962</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05246607872596698</v>
+        <v>0.06476649706649379</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0705889562143818</v>
+        <v>0.07059114507624682</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08283683154752075</v>
+        <v>0.02066344449562604</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07046090758447426</v>
+        <v>0.07109027977636576</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0280815229835087</v>
+        <v>0.02066564858575171</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0698923689695411</v>
+        <v>0.07186300020871755</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02401822302170489</v>
+        <v>0.0416912811179887</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06667248849476136</v>
+        <v>0.07128199828203645</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05249045203911254</v>
+        <v>0.06448725237544173</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07135622747758159</v>
+        <v>0.07135844013142342</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08296405913502536</v>
+        <v>0.02066564858575171</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07122678701474029</v>
+        <v>0.07186300020871755</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02711059034653195</v>
+        <v>0.02066670247964444</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07064389981867594</v>
+        <v>0.07263572064106937</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02428959951586708</v>
+        <v>0.04095213874509268</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06738939697319966</v>
+        <v>0.0720484713818433</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05290722430495148</v>
+        <v>0.06361808456906309</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0721234987407814</v>
+        <v>0.07212573518660001</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08327738873564033</v>
+        <v>0.02066670247964444</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07199266644500631</v>
+        <v>0.07263572064106937</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02713811190264534</v>
+        <v>0.02046486644447282</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0713954306678108</v>
+        <v>0.07340844107342116</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02435834430971875</v>
+        <v>0.04110146113926619</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06810630545163794</v>
+        <v>0.07281494448165014</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05291609580505419</v>
+        <v>0.06316026236821787</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0728907700039812</v>
+        <v>0.07289303024177661</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08377551173339604</v>
+        <v>0.02046486644447282</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07275854587527235</v>
+        <v>0.07340844107342116</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02716402483448788</v>
+        <v>0.02023914614897637</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07214696151694565</v>
+        <v>0.07418116150577296</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02452383266334104</v>
+        <v>0.04023959648472916</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06882321393007625</v>
+        <v>0.07358141758145698</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05281676682099079</v>
+        <v>0.06260926265339212</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07365804126718101</v>
+        <v>0.07366032529695321</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08415711951232258</v>
+        <v>0.02023914614897637</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07352442530553838</v>
+        <v>0.07418116150577296</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02818826632469856</v>
+        <v>0.02018526075599671</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07289849236608051</v>
+        <v>0.07495388193812476</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02488543983681503</v>
+        <v>0.04026689296570157</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06954012240851454</v>
+        <v>0.07434789068126384</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05310893763433153</v>
+        <v>0.06225499586685856</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07442531253038082</v>
+        <v>0.0744276203521298</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08372090345645028</v>
+        <v>0.02018526075599671</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07429030473580439</v>
+        <v>0.07495388193812476</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0262107735559164</v>
+        <v>0.02010539690736497</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07365002321521534</v>
+        <v>0.07572660237047657</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0248425410902218</v>
+        <v>0.0395836987664033</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07025703088695283</v>
+        <v>0.07511436378107067</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05329230852664663</v>
+        <v>0.06239700215271604</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07519258379358061</v>
+        <v>0.0751949154073064</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08446555494980923</v>
+        <v>0.02010539690736497</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07505618416607042</v>
+        <v>0.07572660237047657</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02823148371078038</v>
+        <v>0.01970174124491235</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0744015540643502</v>
+        <v>0.07649932280282837</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02519451168364249</v>
+        <v>0.03919036207105431</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07097393936539112</v>
+        <v>0.07588083688087752</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05296657977950636</v>
+        <v>0.06123503297479149</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07595985505678042</v>
+        <v>0.075962210462483</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08418976537642975</v>
+        <v>0.01970174124491235</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07582206359633643</v>
+        <v>0.07649932280282837</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02825033397192951</v>
+        <v>0.01947648041047004</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07515308491348505</v>
+        <v>0.07727204323518017</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0251407268771582</v>
+        <v>0.0390872310638746</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07169084784382942</v>
+        <v>0.07664730998068436</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05313145167448091</v>
+        <v>0.06076883979691167</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07672712631998022</v>
+        <v>0.0767295055176596</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08459222612034212</v>
+        <v>0.01947648041047004</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07658794302660246</v>
+        <v>0.07727204323518017</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02726726152200282</v>
+        <v>0.01923180104586918</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07590461576261991</v>
+        <v>0.07804476366753198</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02548056193085002</v>
+        <v>0.03857465392908399</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07240775632226772</v>
+        <v>0.0774137830804912</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05348662449314048</v>
+        <v>0.06039817408290366</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07749439758318001</v>
+        <v>0.07749680057283619</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08487162856557634</v>
+        <v>0.01923180104586918</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07735382245686849</v>
+        <v>0.07804476366753198</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02728220354363928</v>
+        <v>0.01916988979294093</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07665614661175475</v>
+        <v>0.07881748409988378</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02551339210479904</v>
+        <v>0.03835297885090255</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07312466480070601</v>
+        <v>0.07818025618029804</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05343179851705537</v>
+        <v>0.06042278729659439</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07826166884637982</v>
+        <v>0.07826409562801277</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08512666409616293</v>
+        <v>0.01916988979294093</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07811970188713452</v>
+        <v>0.07881748409988378</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02729509721947788</v>
+        <v>0.01889293329351653</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0774076774608896</v>
+        <v>0.07959020453223557</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02563859265908637</v>
+        <v>0.03742255401355016</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07384157327914431</v>
+        <v>0.07894672928010489</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05336667402779571</v>
+        <v>0.05944243090181073</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07902894010957963</v>
+        <v>0.07903139068318939</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08495602409613195</v>
+        <v>0.01889293329351653</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07888558131740055</v>
+        <v>0.07959020453223557</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02730587973215765</v>
+        <v>0.0186031181894271</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07815920831002446</v>
+        <v>0.08036292496458737</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02585553885379312</v>
+        <v>0.03708372760124676</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07455848175758259</v>
+        <v>0.07971320237991174</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05309095130693178</v>
+        <v>0.05955685636237956</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07979621137277942</v>
+        <v>0.07979868573836597</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08545839994951365</v>
+        <v>0.0186031181894271</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07965146074766656</v>
+        <v>0.08036292496458737</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02731448826431758</v>
+        <v>0.0182026311225038</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0789107391591593</v>
+        <v>0.08113564539693918</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02596360594900039</v>
+        <v>0.03673684779821229</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07527539023602089</v>
+        <v>0.08047967547971858</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05340433063603384</v>
+        <v>0.058565815142128</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08056348263597923</v>
+        <v>0.08056598079354256</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08503248304033834</v>
+        <v>0.0182026311225038</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08041734017793259</v>
+        <v>0.08113564539693918</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0283208599985967</v>
+        <v>0.01779365873457786</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07966227000829415</v>
+        <v>0.08190836582929098</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02596216920478925</v>
+        <v>0.03628226278866672</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07599229871445919</v>
+        <v>0.08124614857952542</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05330507127187853</v>
+        <v>0.05856905870488277</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08133075389917903</v>
+        <v>0.08133327584871917</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08547696475263611</v>
+        <v>0.01779365873457786</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08118321960819862</v>
+        <v>0.08190836582929098</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02832493211763397</v>
+        <v>0.01767838766748042</v>
       </c>
       <c r="G172" t="n">
-        <v>0.080413800857429</v>
+        <v>0.08268108626164278</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02615060388124085</v>
+        <v>0.03602032075682998</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07670920719289748</v>
+        <v>0.08201262167933226</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05317175966517521</v>
+        <v>0.05746633851447092</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08209802516237882</v>
+        <v>0.08210057090389576</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08519045064531444</v>
+        <v>0.01767838766748042</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08194909903846463</v>
+        <v>0.08268108626164278</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02632664180406839</v>
+        <v>0.01725900456304265</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08116533170656386</v>
+        <v>0.08345380669399459</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02602828523843626</v>
+        <v>0.03565136988692197</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07742611567133578</v>
+        <v>0.0827790947791391</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05299890847245209</v>
+        <v>0.05695740603471927</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08286529642557863</v>
+        <v>0.08286786595907236</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08565365279390585</v>
+        <v>0.01725900456304265</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08271497846873066</v>
+        <v>0.08345380669399459</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02732412030183388</v>
+        <v>0.01703769606309573</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0819168625556987</v>
+        <v>0.08422652712634637</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02609458853645659</v>
+        <v>0.03477575836316271</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07814302414977407</v>
+        <v>0.08354556787894596</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05318855067487055</v>
+        <v>0.05664201272945479</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08363256768877844</v>
+        <v>0.08363516101424896</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08535435876626402</v>
+        <v>0.01703769606309573</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08348085789899669</v>
+        <v>0.08422652712634637</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02731363421462411</v>
+        <v>0.0165166488094708</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08266839340483355</v>
+        <v>0.08499924755869818</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02614888903538293</v>
+        <v>0.0342938343697721</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07885993262821236</v>
+        <v>0.08431204097875279</v>
       </c>
       <c r="L175" t="n">
-        <v>0.052742719253592</v>
+        <v>0.05611991006250455</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08439983895197824</v>
+        <v>0.08440245606942555</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08489512704140051</v>
+        <v>0.0165166488094708</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08424673732926272</v>
+        <v>0.08499924755869818</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02729530374390692</v>
+        <v>0.01639804944399911</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08341992425396841</v>
+        <v>0.08577196799104998</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02629056199529643</v>
+        <v>0.03390594609097006</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07957684110665066</v>
+        <v>0.08507851407855964</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0528634471897779</v>
+        <v>0.05529084949769536</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08516711021517805</v>
+        <v>0.08516975112460215</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08477851609832698</v>
+        <v>0.01639804944399911</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08501261675952874</v>
+        <v>0.08577196799104998</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02626937697849584</v>
+        <v>0.01608408460851175</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08417145510310325</v>
+        <v>0.08654468842340179</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0262189826762781</v>
+        <v>0.03371244171097654</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08029374958508895</v>
+        <v>0.08584498717836649</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0524527674645896</v>
+        <v>0.05545458249885404</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08593438147837784</v>
+        <v>0.08593704617977874</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0844070844160551</v>
+        <v>0.01608408460851175</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08577849618979476</v>
+        <v>0.08654468842340179</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0262361020072045</v>
+        <v>0.01577694094483996</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08492298595223811</v>
+        <v>0.08731740885575359</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02633352633840914</v>
+        <v>0.03321366941401149</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08101065806352724</v>
+        <v>0.08661146027817332</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05261271305918866</v>
+        <v>0.05471086052980778</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08670165274157764</v>
+        <v>0.08670434123495534</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08458339047359648</v>
+        <v>0.01577694094483996</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08654437562006079</v>
+        <v>0.08731740885575359</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02719572691884643</v>
+        <v>0.01537880509481487</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08567451680137295</v>
+        <v>0.08809012928810539</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02633330801426859</v>
+        <v>0.03270997738429487</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08172756654196554</v>
+        <v>0.08737793337798017</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05204531695473635</v>
+        <v>0.05415943505438325</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08746892400477745</v>
+        <v>0.08747163629013194</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08410999274996267</v>
+        <v>0.01537880509481487</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08731025505032682</v>
+        <v>0.08809012928810539</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02814849980223524</v>
+        <v>0.01509186370026766</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08642604765050781</v>
+        <v>0.0888628497204572</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02641658543099239</v>
+        <v>0.03190171380604662</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08244447502040383</v>
+        <v>0.08814440647778701</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05185261213239414</v>
+        <v>0.05380005753640749</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08823619526797724</v>
+        <v>0.08823893134530852</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0838894497241654</v>
+        <v>0.01509186370026766</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08807613448059283</v>
+        <v>0.0888628497204572</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02709466874618451</v>
+        <v>0.01481830340302953</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08717757849964265</v>
+        <v>0.08963557015280899</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02628367867272474</v>
+        <v>0.03168922686348666</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08316138349884213</v>
+        <v>0.08891087957759386</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05133663157332352</v>
+        <v>0.05293247943970747</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08900346653117705</v>
+        <v>0.08900622640048513</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08292431987521626</v>
+        <v>0.01481830340302953</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08884201391085886</v>
+        <v>0.08963557015280899</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02803448183950778</v>
+        <v>0.01456031084493163</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08792910934877751</v>
+        <v>0.0904082905851608</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0263352316070464</v>
+        <v>0.03117286474083492</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08387829197728043</v>
+        <v>0.08967735267740071</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05089940825868586</v>
+        <v>0.05215645222811005</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08977073779437686</v>
+        <v>0.08977352145566173</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08281716168212699</v>
+        <v>0.01456031084493163</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08960789334112489</v>
+        <v>0.0904082905851608</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02596818717101866</v>
+        <v>0.01442007266780512</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08868064019791236</v>
+        <v>0.09118101101751259</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0260718881015381</v>
+        <v>0.03025297562231141</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08459520045571871</v>
+        <v>0.09044382577720754</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05074297516964257</v>
+        <v>0.0514717273654422</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09053800905757665</v>
+        <v>0.09054081651083831</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08217053362390908</v>
+        <v>0.01442007266780512</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09037377277139091</v>
+        <v>0.09118101101751259</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02789603282953072</v>
+        <v>0.0140997755134812</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0894321710470472</v>
+        <v>0.09195373144986441</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02619429202378061</v>
+        <v>0.02992990769213599</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08531210893415701</v>
+        <v>0.09121029887701439</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05036936528735508</v>
+        <v>0.05087805631553083</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09130528032077645</v>
+        <v>0.09130811156601491</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08178699417957414</v>
+        <v>0.0140997755134812</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09113965220165694</v>
+        <v>0.09195373144986441</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02781826690385754</v>
+        <v>0.01400160602379104</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09018370189618206</v>
+        <v>0.0927264518822162</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02600308724135469</v>
+        <v>0.02910400913452865</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0860290174125953</v>
+        <v>0.09197677197682123</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04988061159298482</v>
+        <v>0.05017519054220287</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09207255158397626</v>
+        <v>0.09207540662119151</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08116910182813392</v>
+        <v>0.01400160602379104</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09190553163192296</v>
+        <v>0.0927264518822162</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02773513748281267</v>
+        <v>0.0138277508405658</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09093523274531691</v>
+        <v>0.093499172314568</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0259989176218411</v>
+        <v>0.02887562813370928</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0867459258910336</v>
+        <v>0.09274324507662808</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04937874706769321</v>
+        <v>0.05026288150928526</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09283982284717605</v>
+        <v>0.0928427016763681</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07991941504860006</v>
+        <v>0.0138277508405658</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09267141106218899</v>
+        <v>0.093499172314568</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02764689265520974</v>
+        <v>0.01358039660563665</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09168676359445176</v>
+        <v>0.09427189274691981</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02578242703282058</v>
+        <v>0.02844511287389795</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0874628343694719</v>
+        <v>0.09350971817643491</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0494658046926417</v>
+        <v>0.04964088068060485</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09360709411037586</v>
+        <v>0.0936099967315447</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0791404923199841</v>
+        <v>0.01358039660563665</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09343729049245501</v>
+        <v>0.09427189274691981</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02755378050986229</v>
+        <v>0.01346160974686174</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0924382944435866</v>
+        <v>0.0950446131792716</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02575425934187386</v>
+        <v>0.0280128115393144</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08817974284791019</v>
+        <v>0.09427619127624176</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04854381744899169</v>
+        <v>0.0484089395199887</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09437436537357567</v>
+        <v>0.0943772917867213</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07863489212129765</v>
+        <v>0.01346160974686174</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09420316992272103</v>
+        <v>0.0950446131792716</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02545604913558389</v>
+        <v>0.01325876774133888</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09318982529272146</v>
+        <v>0.09581733361162341</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02561505841658175</v>
+        <v>0.02697907231417873</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08889665132634848</v>
+        <v>0.09504266437604861</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0486148183179046</v>
+        <v>0.04796680949126358</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09514163663677547</v>
+        <v>0.0951445868418979</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07790517293155247</v>
+        <v>0.01325876774133888</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09496904935298706</v>
+        <v>0.09581733361162341</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02735394662118813</v>
+        <v>0.01326200961040952</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09394135614185632</v>
+        <v>0.09659005404397521</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02546546812452498</v>
+        <v>0.02694424338271084</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08961355980478677</v>
+        <v>0.09580913747585544</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04798084028054184</v>
+        <v>0.04741424205825662</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09590890789997526</v>
+        <v>0.09591188189707449</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07765389322976007</v>
+        <v>0.01326200961040952</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09573492878325308</v>
+        <v>0.09659005404397521</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0252477210554886</v>
+        <v>0.01307095088547909</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09469288699099115</v>
+        <v>0.09736277447632702</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02530613233328428</v>
+        <v>0.02619050633889672</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09033046828322507</v>
+        <v>0.09657561057566229</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04734391631806484</v>
+        <v>0.04634660755521725</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09667617916317507</v>
+        <v>0.09667917695225108</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07618361149493219</v>
+        <v>0.01307095088547909</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09650080821351911</v>
+        <v>0.09736277447632702</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02513762052729887</v>
+        <v>0.01318520709795305</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09544441784012601</v>
+        <v>0.09813549490867882</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02493769491044044</v>
+        <v>0.02559569542962647</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09104737676166336</v>
+        <v>0.09734208367546913</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04730607941163506</v>
+        <v>0.04604468595616829</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09744345042637487</v>
+        <v>0.09744647200742769</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07549688620608036</v>
+        <v>0.01318520709795305</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09726668764378514</v>
+        <v>0.09813549490867882</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0250238931254325</v>
+        <v>0.01310439377923685</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09619594868926086</v>
+        <v>0.09890821534103061</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02476079972357419</v>
+        <v>0.02516469519336614</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09176428524010166</v>
+        <v>0.09810855677527598</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04636936254241386</v>
+        <v>0.04550857756686527</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09821072168957468</v>
+        <v>0.09821376706260428</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07499627584221624</v>
+        <v>0.01310439377923685</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09803256707405116</v>
+        <v>0.09890821534103061</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02690678693870308</v>
+        <v>0.01292812646073592</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09694747953839572</v>
+        <v>0.09968093577338243</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02477609064026629</v>
+        <v>0.02450256716178836</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09248119371853995</v>
+        <v>0.09887502987508283</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04643579869156272</v>
+        <v>0.04444099247780553</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09897799295277449</v>
+        <v>0.09898106211778086</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07418433888235154</v>
+        <v>0.01292812646073592</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09879844650431718</v>
+        <v>0.09968093577338243</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02678655005592419</v>
+        <v>0.01295602067385572</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09769901038753057</v>
+        <v>0.1004536562057342</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02438421152809749</v>
+        <v>0.02371437286656586</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09319810219697824</v>
+        <v>0.09964150297488966</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04560742084024302</v>
+        <v>0.04344464077948651</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09974526421597428</v>
+        <v>0.09974835717295748</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07336363380549787</v>
+        <v>0.01295602067385572</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0995643259345832</v>
+        <v>0.1004536562057342</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0256634305659094</v>
+        <v>0.01278769195000171</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09845054123666541</v>
+        <v>0.101226376638086</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02428580625464856</v>
+        <v>0.02260517383937133</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09391501067541655</v>
+        <v>0.1004079760746965</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04518626196961623</v>
+        <v>0.04312223256240555</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1005125354791741</v>
+        <v>0.1005156522281341</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07273671909066681</v>
+        <v>0.01278769195000171</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1003302053648492</v>
+        <v>0.101226376638086</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02453767655747231</v>
+        <v>0.01272275582057934</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09920207208580027</v>
+        <v>0.1019990970704378</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02408151868750025</v>
+        <v>0.02218003161187748</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09463191915385483</v>
+        <v>0.1011744491745034</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04467435506084375</v>
+        <v>0.04197647791706</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1012798067423739</v>
+        <v>0.1012829472833107</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07160615321686997</v>
+        <v>0.01272275582057934</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1010960847951153</v>
+        <v>0.1019990970704378</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02540953611942647</v>
+        <v>0.01256082781699404</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09995360293493512</v>
+        <v>0.1027718175027896</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02397199269423329</v>
+        <v>0.02164400771575695</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09534882763229313</v>
+        <v>0.1019409222743102</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04477373309508698</v>
+        <v>0.04101008693394731</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1020470780055737</v>
+        <v>0.1020502423384873</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07047449466311911</v>
+        <v>0.01256082781699404</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1018619642253813</v>
+        <v>0.1027718175027896</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02527925734058545</v>
+        <v>0.01260152347065129</v>
       </c>
       <c r="G199" t="n">
-        <v>0.10070513378407</v>
+        <v>0.1035445379351414</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02365787214242847</v>
+        <v>0.02060216368268253</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09606573611073142</v>
+        <v>0.102707395374117</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04388642905350734</v>
+        <v>0.04062576970356485</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1028143492687735</v>
+        <v>0.1028175373936639</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06964430190842569</v>
+        <v>0.01260152347065129</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1026278436556473</v>
+        <v>0.1035445379351414</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02614708830976285</v>
+        <v>0.01264445831295651</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1014566646332048</v>
+        <v>0.1043172583674932</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02353980089966654</v>
+        <v>0.01975956104432683</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09678264458916971</v>
+        <v>0.1034738684739239</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04371447591726629</v>
+        <v>0.03922623631640998</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1035816205319733</v>
+        <v>0.1035848324488405</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06951813343180141</v>
+        <v>0.01264445831295651</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1033937230859133</v>
+        <v>0.1043172583674932</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02601327711577225</v>
+        <v>0.01248924787531515</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1022081954823397</v>
+        <v>0.105089978799845</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0231184228335282</v>
+        <v>0.0189212613323626</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09749955306760802</v>
+        <v>0.1042403415737307</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04355990666752524</v>
+        <v>0.03881419686298004</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1043488917951731</v>
+        <v>0.104352127504017</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06859854771225793</v>
+        <v>0.01248924787531515</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1041596025161794</v>
+        <v>0.105089978799845</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0248780718474272</v>
+        <v>0.01253550768913268</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1029597263314745</v>
+        <v>0.1058626992321968</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02309438181159429</v>
+        <v>0.01819232607846252</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09821646154604631</v>
+        <v>0.1050068146735376</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0431247542854456</v>
+        <v>0.03749236143377249</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1051161630583729</v>
+        <v>0.1051194225591936</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0678881032288069</v>
+        <v>0.01253550768913268</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1049254819464454</v>
+        <v>0.1058626992321968</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02574172059354131</v>
+        <v>0.01248285328581453</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1037112571806094</v>
+        <v>0.1066354196645486</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02266832170144549</v>
+        <v>0.01797781681429927</v>
       </c>
       <c r="K203" t="n">
-        <v>0.0989333700244846</v>
+        <v>0.1057732877733444</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04301105175218883</v>
+        <v>0.03636344011928472</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1058834343215727</v>
+        <v>0.1058867176143702</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06658935846045994</v>
+        <v>0.01248285328581453</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1056913613767114</v>
+        <v>0.1066354196645486</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02460447144292813</v>
+        <v>0.01243090019676617</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1044627880297442</v>
+        <v>0.1074081400969004</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0226408863706626</v>
+        <v>0.01708279507154559</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09965027850292289</v>
+        <v>0.1065397608731513</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04242083204891628</v>
+        <v>0.03573014301001398</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1066507055847725</v>
+        <v>0.1066540126695468</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06560487188622866</v>
+        <v>0.01243090019676617</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1064572408069774</v>
+        <v>0.1074081400969004</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02346657248440125</v>
+        <v>0.01227926395339302</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1052143188788791</v>
+        <v>0.1081808605292522</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02221271968682634</v>
+        <v>0.01621232238187409</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1003671869813612</v>
+        <v>0.1073062339729581</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04215612815678946</v>
+        <v>0.03499518019645792</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1074179768479723</v>
+        <v>0.1074213077247234</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06513720198512468</v>
+        <v>0.01227926395339302</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1072231202372435</v>
+        <v>0.1081808605292522</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02532827180677426</v>
+        <v>0.01212756008710058</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1059658497280139</v>
+        <v>0.1089535809616041</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02208446551751751</v>
+        <v>0.01597146027695756</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1010840954597995</v>
+        <v>0.1080727070727649</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0419182796978069</v>
+        <v>0.03396126176911363</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1081852481111721</v>
+        <v>0.1081886027799</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06438890723615964</v>
+        <v>0.01212756008710058</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1079889996675095</v>
+        <v>0.1089535809616041</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0231898174988607</v>
+        <v>0.01207540412929424</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1067173805771488</v>
+        <v>0.1097263013939558</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02185676773031681</v>
+        <v>0.01496527028846861</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1018010039382378</v>
+        <v>0.1088391801725718</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04198966618352631</v>
+        <v>0.03313109781847862</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1089525193743719</v>
+        <v>0.1089558978350766</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06385168903723198</v>
+        <v>0.01207540412929424</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1087548790977755</v>
+        <v>0.1097263013939558</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02305145764947419</v>
+        <v>0.01202241161137949</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1074689114262836</v>
+        <v>0.1104990218263076</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02153027019280503</v>
+        <v>0.01479881394808003</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1025179124166761</v>
+        <v>0.1096056532723786</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04176188545626314</v>
+        <v>0.03180739843505032</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097197906375717</v>
+        <v>0.1097231928902532</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06280725098843759</v>
+        <v>0.01202241161137949</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1095207585280415</v>
+        <v>0.1104990218263076</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02491344034742829</v>
+        <v>0.01206819806476176</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1082204422754185</v>
+        <v>0.1112717422586594</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02140561677256292</v>
+        <v>0.01417715278746445</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1032348208951144</v>
+        <v>0.1103721263721855</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04113500233256417</v>
+        <v>0.03099287370932602</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1104870619007715</v>
+        <v>0.1104904879454298</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06245522973688822</v>
+        <v>0.01206819806476176</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1102866379583076</v>
+        <v>0.1112717422586594</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02277601368153655</v>
+        <v>0.01191237902084651</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1089719731245533</v>
+        <v>0.1120444626910112</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02108345133717122</v>
+        <v>0.01380534833829455</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1039517293735527</v>
+        <v>0.1111385994719923</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04130908162897642</v>
+        <v>0.02979023373180328</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1112543331639713</v>
+        <v>0.1112577830006064</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06119563580805903</v>
+        <v>0.01191237902084651</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1110525173885736</v>
+        <v>0.1120444626910112</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02463933912446893</v>
+        <v>0.01185457001103919</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1097235039736882</v>
+        <v>0.112817183123363</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0208644177542107</v>
+        <v>0.01288846213224309</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1046686378519909</v>
+        <v>0.1119050725717992</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04068418816204666</v>
+        <v>0.02920218859297924</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1120216044271711</v>
+        <v>0.112025078055783</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06082847972742539</v>
+        <v>0.01185457001103919</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1118183968188396</v>
+        <v>0.112817183123363</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02449973230219428</v>
+        <v>0.01179438656674524</v>
       </c>
       <c r="G212" t="n">
-        <v>0.110475034822823</v>
+        <v>0.1135899035557149</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02074915989126211</v>
+        <v>0.01293155570098276</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1053855463304292</v>
+        <v>0.112671545671606</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04056038674832185</v>
+        <v>0.0282314483833514</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1127888756903709</v>
+        <v>0.1127923731109596</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05995377202046259</v>
+        <v>0.01179438656674524</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1125842762491056</v>
+        <v>0.1135899035557149</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02335516880868062</v>
+        <v>0.01193144421937011</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1112265656719579</v>
+        <v>0.1143626239880667</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02053832161590619</v>
+        <v>0.01272750093161173</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1061024548088675</v>
+        <v>0.1134380187714128</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04053774220434886</v>
+        <v>0.02718072319341713</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1135561469535707</v>
+        <v>0.1135596681661362</v>
       </c>
       <c r="N213" t="n">
-        <v>0.059271523212646</v>
+        <v>0.01193144421937011</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1133501556793717</v>
+        <v>0.1143626239880667</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02320569736558023</v>
+        <v>0.01186535850031928</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1119780965210927</v>
+        <v>0.1151353444204184</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02033254679572372</v>
+        <v>0.01213088768550646</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1068193632873058</v>
+        <v>0.1142044918712197</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04001631934667449</v>
+        <v>0.02705272311367379</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143234182167705</v>
+        <v>0.1143269632213128</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05858174382945069</v>
+        <v>0.01186535850031928</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1141160351096377</v>
+        <v>0.1151353444204184</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02405136669454536</v>
+        <v>0.01169574494099816</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1127296273702276</v>
+        <v>0.1159080648527702</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02023247929829543</v>
+        <v>0.0118369874511273</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1075362717657441</v>
+        <v>0.1149709649710265</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04019618299184574</v>
+        <v>0.02605015823461887</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1150906894799703</v>
+        <v>0.1150942582764894</v>
       </c>
       <c r="N215" t="n">
-        <v>0.05768444439635212</v>
+        <v>0.01169574494099816</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1148819145399037</v>
+        <v>0.1159080648527702</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02289222551722828</v>
+        <v>0.0116222190728122</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1134811582193624</v>
+        <v>0.116680785285122</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01983876299120206</v>
+        <v>0.01144592793042423</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1082531802441824</v>
+        <v>0.1157374380708334</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03997739795640945</v>
+        <v>0.02507573864674972</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1158579607431701</v>
+        <v>0.115861553331666</v>
       </c>
       <c r="N216" t="n">
-        <v>0.05667963543882548</v>
+        <v>0.0116222190728122</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1156477939701697</v>
+        <v>0.116680785285122</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02372832255528126</v>
+        <v>0.01164439642716688</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1142326890684973</v>
+        <v>0.1174535057174739</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01965202024292838</v>
+        <v>0.01155783682534736</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1089700887226207</v>
+        <v>0.1165039111706402</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03956002905691247</v>
+        <v>0.02433217444056351</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166252320063699</v>
+        <v>0.1166288483868426</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05566732748234632</v>
+        <v>0.01164439642716688</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1164136734004357</v>
+        <v>0.1174535057174739</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02255970653035658</v>
+        <v>0.01136189253546762</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1149842199176321</v>
+        <v>0.1182262261498257</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01956807880165659</v>
+        <v>0.01087284183784681</v>
       </c>
       <c r="K218" t="n">
-        <v>0.109686997201059</v>
+        <v>0.1172703842704471</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03914414110990169</v>
+        <v>0.02341024383396978</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1173925032695697</v>
+        <v>0.1173961434420192</v>
       </c>
       <c r="N218" t="n">
-        <v>0.05484753105238965</v>
+        <v>0.01136189253546762</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1171795528307018</v>
+        <v>0.1182262261498257</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02338642616410648</v>
+        <v>0.01147453653949902</v>
       </c>
       <c r="G219" t="n">
-        <v>0.115735750766767</v>
+        <v>0.1189989465821775</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01928346724879144</v>
+        <v>0.01049107066987262</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1104039056794973</v>
+        <v>0.1180368573702539</v>
       </c>
       <c r="L219" t="n">
-        <v>0.039129798931924</v>
+        <v>0.02329166329343207</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1181597745327695</v>
+        <v>0.1181634384971958</v>
       </c>
       <c r="N219" t="n">
-        <v>0.05422025667443076</v>
+        <v>0.01147453653949902</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1179454322609678</v>
+        <v>0.1189989465821775</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02320853017818325</v>
+        <v>0.0112842103048106</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1164872816159018</v>
+        <v>0.1197716670145293</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01919818590974985</v>
+        <v>0.0102126510233749</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1111208141579356</v>
+        <v>0.1188033304700608</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03911706733952636</v>
+        <v>0.02207627936278411</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1189270457959693</v>
+        <v>0.1189307335523724</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05328551487394517</v>
+        <v>0.0112842103048106</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1187113116912338</v>
+        <v>0.1197716670145293</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02202606729423916</v>
+        <v>0.0111914599072875</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1172388124650367</v>
+        <v>0.120544387446881</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01891223510994874</v>
+        <v>0.01043771060030366</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1118377226363739</v>
+        <v>0.1195698035698676</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03870601114925551</v>
+        <v>0.02136420835679853</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1196943170591691</v>
+        <v>0.119698028607549</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05274331617640798</v>
+        <v>0.0111914599072875</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1194771911214998</v>
+        <v>0.120544387446881</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02183908623392646</v>
+        <v>0.01099630600001573</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1179903433141715</v>
+        <v>0.1213171078792329</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01892561517480507</v>
+        <v>0.01016637710260904</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1125546311148122</v>
+        <v>0.1203362766696744</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03819669517765847</v>
+        <v>0.02115556659024809</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1204615883223689</v>
+        <v>0.1204653236627256</v>
       </c>
       <c r="N222" t="n">
-        <v>0.05139367110729448</v>
+        <v>0.01099630600001573</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1202430705517659</v>
+        <v>0.1213171078792329</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02164763571889741</v>
+        <v>0.01099876923608134</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1187418741633064</v>
+        <v>0.1220898283115847</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01873832642973573</v>
+        <v>0.00959877823224109</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1132715395932505</v>
+        <v>0.1211027497694813</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03828918424128205</v>
+        <v>0.02025047037790528</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1212288595855687</v>
+        <v>0.1212326187179022</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05093659019208008</v>
+        <v>0.01099876923608134</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1210089499820319</v>
+        <v>0.1220898283115847</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02045176447080432</v>
+        <v>0.01079887026857035</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1194934050124412</v>
+        <v>0.1228625487439365</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01835036920015772</v>
+        <v>0.009335041691149903</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1139884480716888</v>
+        <v>0.1218692228692881</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03818354315667319</v>
+        <v>0.01954903603454283</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1219961308487685</v>
+        <v>0.1219999137730788</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04997208395624003</v>
+        <v>0.01079887026857035</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1217748294122979</v>
+        <v>0.1228625487439365</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02125152121129942</v>
+        <v>0.01079662975056876</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1202449358615761</v>
+        <v>0.1236352691762883</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0182617438114879</v>
+        <v>0.008975295181285536</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1147053565501271</v>
+        <v>0.122635695969095</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03767983674037864</v>
+        <v>0.01845137987493334</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1227634021119683</v>
+        <v>0.1227672088282553</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04940016292524957</v>
+        <v>0.01079662975056876</v>
       </c>
       <c r="O225" t="n">
-        <v>0.122540708842564</v>
+        <v>0.1236352691762883</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02104695466203498</v>
+        <v>0.01059206833516264</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1209964667107109</v>
+        <v>0.1244079896086401</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01797245058914325</v>
+        <v>0.008919666404598126</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1154222650285654</v>
+        <v>0.1234021690689018</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03767812980894544</v>
+        <v>0.01825761821384947</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1235306733751681</v>
+        <v>0.1235345038834319</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04812083762458402</v>
+        <v>0.01059206833516264</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12330658827283</v>
+        <v>0.1244079896086401</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02083811354466331</v>
+        <v>0.01068520667543798</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1217479975598458</v>
+        <v>0.1251807100409919</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0177824898585407</v>
+        <v>0.008668283063037657</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1161391735070037</v>
+        <v>0.1241686421687087</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03717848717892036</v>
+        <v>0.0169678673660637</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1242979446383679</v>
+        <v>0.1243017989386085</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04713411857971872</v>
+        <v>0.01068520667543798</v>
       </c>
       <c r="O227" t="n">
-        <v>0.124072467703096</v>
+        <v>0.1251807100409919</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02162504658083661</v>
+        <v>0.01037606542448084</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1224995284089806</v>
+        <v>0.1259534304733437</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01779186194509719</v>
+        <v>0.008121272858554296</v>
       </c>
       <c r="K228" t="n">
-        <v>0.116856081985442</v>
+        <v>0.1249351152685155</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03748097366685038</v>
+        <v>0.0166822436463489</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1250652159015677</v>
+        <v>0.1250690939937852</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04654001631612886</v>
+        <v>0.01037606542448084</v>
       </c>
       <c r="O228" t="n">
-        <v>0.124838347133362</v>
+        <v>0.1259534304733437</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02040780249220718</v>
+        <v>0.01046466523537722</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1232510592581155</v>
+        <v>0.1267261509056955</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01740056717422961</v>
+        <v>0.008178763493098068</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1175729904638803</v>
+        <v>0.1257015883683223</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03688565408928229</v>
+        <v>0.01610086336947764</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1258324871647676</v>
+        <v>0.1258363890489617</v>
       </c>
       <c r="N229" t="n">
-        <v>0.04543854135928987</v>
+        <v>0.01046466523537722</v>
       </c>
       <c r="O229" t="n">
-        <v>0.125604226563628</v>
+        <v>0.1267261509056955</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01918643000042732</v>
+        <v>0.01025102676121314</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1240025901072503</v>
+        <v>0.1274988713380473</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01740860587135494</v>
+        <v>0.007640882668619065</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1182898989423186</v>
+        <v>0.1264680614681292</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03659259326276304</v>
+        <v>0.01562384285022256</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1265997584279674</v>
+        <v>0.1266036841041383</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04482970423467691</v>
+        <v>0.01025102676121314</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1263701059938941</v>
+        <v>0.1274988713380473</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01896097782714926</v>
+        <v>0.01023517065507466</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1247541209563852</v>
+        <v>0.1282715917703991</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01721597836189011</v>
+        <v>0.007507758087067384</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1190068074207568</v>
+        <v>0.127234534567936</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03680185600383951</v>
+        <v>0.01465129840335611</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1273670296911671</v>
+        <v>0.1273709791593149</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04391351546776534</v>
+        <v>0.01023517065507466</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1271359854241601</v>
+        <v>0.1282715917703991</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01873149469402526</v>
+        <v>0.009917117570047776</v>
       </c>
       <c r="G232" t="n">
-        <v>0.12550565180552</v>
+        <v>0.1290443122027509</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01682268497125204</v>
+        <v>0.007279517450393097</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1197237158991951</v>
+        <v>0.1280010076677429</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03631350712905854</v>
+        <v>0.01378334634365125</v>
       </c>
       <c r="M232" t="n">
-        <v>0.128134300954367</v>
+        <v>0.1281382742144915</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04298998558403039</v>
+        <v>0.009917117570047776</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1279018648544261</v>
+        <v>0.1290443122027509</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01949802932270761</v>
+        <v>0.009996888159218537</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1262571826546549</v>
+        <v>0.1298170326351027</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01682872602485766</v>
+        <v>0.007356288460546284</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1204406243776334</v>
+        <v>0.1287674807675497</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03602761145496705</v>
+        <v>0.01352010298588041</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1289015722175668</v>
+        <v>0.1289055692696681</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04215912510894743</v>
+        <v>0.009996888159218537</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1286677442846921</v>
+        <v>0.1298170326351027</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01926063043484855</v>
+        <v>0.009674503075672962</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1270087135037898</v>
+        <v>0.1305897530674545</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0165341018481239</v>
+        <v>0.006838198819476948</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1211575328560717</v>
+        <v>0.1295339538673566</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0362442337981119</v>
+        <v>0.01246168464481623</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1296688434807666</v>
+        <v>0.1296728643248447</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04112094456799181</v>
+        <v>0.009674503075672962</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1294336237149582</v>
+        <v>0.1305897530674545</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02001934675210042</v>
+        <v>0.009649982972497056</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1277602443529246</v>
+        <v>0.1313624734998063</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01643881276646772</v>
+        <v>0.006925376229135277</v>
       </c>
       <c r="K235" t="n">
-        <v>0.12187444133451</v>
+        <v>0.1303004269671634</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03596343897503995</v>
+        <v>0.01160820763523146</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1304361147439664</v>
+        <v>0.1304401593800213</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03977545448663866</v>
+        <v>0.009649982972497056</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1301995031452242</v>
+        <v>0.1313624734998063</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01777422699611537</v>
+        <v>0.009423348502776895</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1285117752020594</v>
+        <v>0.1321351939321581</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01614285910530605</v>
+        <v>0.006817948391471346</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1225913498129483</v>
+        <v>0.1310669000669702</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03598529180229817</v>
+        <v>0.01125978827189861</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1312033860071662</v>
+        <v>0.1312074544351979</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03872266539036329</v>
+        <v>0.009423348502776895</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1309653825754902</v>
+        <v>0.1321351939321581</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01752531988854578</v>
+        <v>0.009494620319598461</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1292633060511943</v>
+        <v>0.1329079143645099</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01604624119005579</v>
+        <v>0.006116043008435129</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1233082582913866</v>
+        <v>0.1318333731667771</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03530985709643336</v>
+        <v>0.01051654286959042</v>
       </c>
       <c r="M237" t="n">
-        <v>0.131970657270366</v>
+        <v>0.1319747494903745</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03796258780464107</v>
+        <v>0.009494620319598461</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1317312620057562</v>
+        <v>0.1329079143645099</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01727267415104385</v>
+        <v>0.009363819076047789</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1300148369003291</v>
+        <v>0.1336806347968617</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01584895934613391</v>
+        <v>0.006319787781976782</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1240251667698249</v>
+        <v>0.1325998462665839</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03523719967399244</v>
+        <v>0.01007858774307946</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1327379285335658</v>
+        <v>0.1327420445455511</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03709523225494721</v>
+        <v>0.009363819076047789</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1324971414360223</v>
+        <v>0.1336806347968617</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01901633850526188</v>
+        <v>0.009030965425210924</v>
       </c>
       <c r="G239" t="n">
-        <v>0.130766367749464</v>
+        <v>0.1344533552292135</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01565101389895734</v>
+        <v>0.005829310414046329</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1247420752482632</v>
+        <v>0.1333663193663908</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03496738435152227</v>
+        <v>0.009046039207138423</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1335051997967656</v>
+        <v>0.1335093396007277</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03592060926675716</v>
+        <v>0.009030965425210924</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1332630208662883</v>
+        <v>0.1344533552292135</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01675636167285212</v>
+        <v>0.008996080020173866</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1315178985985988</v>
+        <v>0.1352260756615653</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01535240517394297</v>
+        <v>0.005644738606593924</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1254589837267015</v>
+        <v>0.1341327924661976</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03520047594556983</v>
+        <v>0.008819013576539858</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1342724710599654</v>
+        <v>0.1342766346559043</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03553872936554608</v>
+        <v>0.008996080020173866</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1340289002965543</v>
+        <v>0.1352260756615653</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01649279237546684</v>
+        <v>0.008959183514022667</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1322694294477337</v>
+        <v>0.1359987960939171</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01515313349650781</v>
+        <v>0.005766200061569637</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1261758922051398</v>
+        <v>0.1348992655660045</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03493653927268184</v>
+        <v>0.007997627166056565</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1350397423231652</v>
+        <v>0.1350439297110809</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03424960307678926</v>
+        <v>0.008959183514022667</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1347947797268204</v>
+        <v>0.1359987960939171</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01722567933475831</v>
+        <v>0.008620296559843352</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1330209602968686</v>
+        <v>0.1367715165262689</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01495319919206874</v>
+        <v>0.005593822480923494</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1268928006835781</v>
+        <v>0.1356657386658113</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03477563914940526</v>
+        <v>0.007381996290460935</v>
       </c>
       <c r="M242" t="n">
-        <v>0.135807013586365</v>
+        <v>0.1358112247662575</v>
       </c>
       <c r="N242" t="n">
-        <v>0.03285324092596215</v>
+        <v>0.008620296559843352</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1355606591570864</v>
+        <v>0.1367715165262689</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01795507127237882</v>
+        <v>0.008479439810721918</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1337724911460034</v>
+        <v>0.1375442369586207</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01465260258604269</v>
+        <v>0.005227733566605608</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1276097091620164</v>
+        <v>0.1364322117656181</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03431784039228705</v>
+        <v>0.006872237264525793</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1365742848495648</v>
+        <v>0.1365785198214341</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03204965343853972</v>
+        <v>0.008479439810721918</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1363265385873524</v>
+        <v>0.1375442369586207</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01768101690998058</v>
+        <v>0.008536633919744435</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1345240219951382</v>
+        <v>0.1383169573909725</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01445134400384662</v>
+        <v>0.005268061020566012</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1283266176404547</v>
+        <v>0.137198684865425</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03426320781787398</v>
+        <v>0.006168466403023765</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1373415561127646</v>
+        <v>0.1373458148766107</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03143885113999761</v>
+        <v>0.008536633919744435</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1370924180176184</v>
+        <v>0.1383169573909725</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01740356496921593</v>
+        <v>0.008291899539996893</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1352755528442731</v>
+        <v>0.1390896778233243</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01434942377089747</v>
+        <v>0.004814932544754819</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1290435261188929</v>
+        <v>0.1379651579652318</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03401180624271297</v>
+        <v>0.005470800020727473</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1381088273759644</v>
+        <v>0.1381131099317873</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02982084455581091</v>
+        <v>0.008291899539996893</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1378582974478844</v>
+        <v>0.1390896778233243</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01512276417173708</v>
+        <v>0.008245257324565325</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1360270836934079</v>
+        <v>0.1398623982556761</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01414684221261214</v>
+        <v>0.004968475841122144</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1297604345973312</v>
+        <v>0.1387316310650387</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03436370048335094</v>
+        <v>0.0053793544324095</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1388760986391642</v>
+        <v>0.1388804049869639</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02929564421145492</v>
+        <v>0.008245257324565325</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1386241768781505</v>
+        <v>0.1398623982556761</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01583866323919633</v>
+        <v>0.007896727926535785</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1367786145425428</v>
+        <v>0.1406351186880279</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01384359965440761</v>
+        <v>0.004828818611618046</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1304773430757696</v>
+        <v>0.1394981041648455</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03411895535633475</v>
+        <v>0.00439424595284249</v>
       </c>
       <c r="M247" t="n">
-        <v>0.139643369902364</v>
+        <v>0.1396477000421404</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02826326063240503</v>
+        <v>0.007896727926535785</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1393900563084165</v>
+        <v>0.1406351186880279</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01555131089324593</v>
+        <v>0.007746331998994271</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1375301453916777</v>
+        <v>0.1414078391203797</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01383969642170077</v>
+        <v>0.004396088558192512</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1311942515542079</v>
+        <v>0.1402645772646524</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03407763567821123</v>
+        <v>0.004015590896799148</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1404106411655638</v>
+        <v>0.140414995097317</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02682370434413639</v>
+        <v>0.007746331998994271</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1401559357386825</v>
+        <v>0.1414078391203797</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01626075585553816</v>
+        <v>0.007694090195026822</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1382816762408125</v>
+        <v>0.1421805595527315</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01363513283990857</v>
+        <v>0.00427041338279574</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1319111600326461</v>
+        <v>0.1410310503644592</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03383980626552735</v>
+        <v>0.003043505579052086</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1411779124287636</v>
+        <v>0.1411822901524936</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02627698587212446</v>
+        <v>0.007694090195026822</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1409218151689485</v>
+        <v>0.1421805595527315</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01596704684772528</v>
+        <v>0.007640023167719466</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1390332070899473</v>
+        <v>0.1429532799850833</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01322990923444793</v>
+        <v>0.004451920787377772</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1326280685110844</v>
+        <v>0.1417975234642661</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03380553193482991</v>
+        <v>0.002778106314373863</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1419451836919634</v>
+        <v>0.1419495852076703</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02492311574184441</v>
+        <v>0.007640023167719466</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1416876945992146</v>
+        <v>0.1429532799850833</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01567023259145957</v>
+        <v>0.007284151570158215</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1397847379390822</v>
+        <v>0.1437260004174351</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01322402593073581</v>
+        <v>0.004440738473888622</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1333449769895227</v>
+        <v>0.1425639965640729</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03327487750266583</v>
+        <v>0.00231950941753728</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1427124549551632</v>
+        <v>0.1427168802628468</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02426210447877164</v>
+        <v>0.007284151570158215</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1424535740294806</v>
+        <v>0.1437260004174351</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01437036180839325</v>
+        <v>0.007126496055429109</v>
       </c>
       <c r="G252" t="n">
-        <v>0.140536268788217</v>
+        <v>0.1444987208497869</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01281748325418913</v>
+        <v>0.004136994144278483</v>
       </c>
       <c r="K252" t="n">
-        <v>0.134061885467961</v>
+        <v>0.1433304696638797</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03324790778558206</v>
+        <v>0.00146783120331484</v>
       </c>
       <c r="M252" t="n">
-        <v>0.143479726218363</v>
+        <v>0.1434841753180234</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02259396260838131</v>
+        <v>0.007126496055429109</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1432194534597466</v>
+        <v>0.1444987208497869</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01506748322017866</v>
+        <v>0.006967077276618168</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1412877996373519</v>
+        <v>0.1452714412821387</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01271028153022484</v>
+        <v>0.003740815500497346</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1347787939463993</v>
+        <v>0.1440969427636866</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0329246876001254</v>
+        <v>0.001123187986479146</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1442469974815628</v>
+        <v>0.1442514703732</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02201870065614875</v>
+        <v>0.006967077276618168</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1439853328900126</v>
+        <v>0.1452714412821387</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01376164554846802</v>
+        <v>0.006805915886811433</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1420393304864867</v>
+        <v>0.1460441617144905</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01240242108425987</v>
+        <v>0.003752330244495339</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1354957024248376</v>
+        <v>0.1448634158634934</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03280528176284275</v>
+        <v>0.0006856960818029667</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1450142687447626</v>
+        <v>0.1450187654283766</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02033632914754929</v>
+        <v>0.006805915886811433</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1447512123202787</v>
+        <v>0.1460441617144905</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01445289751491362</v>
+        <v>0.006643032539094915</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1427908613356216</v>
+        <v>0.1468168821468423</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01229390224171112</v>
+        <v>0.003571666078222485</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1362126109032759</v>
+        <v>0.1456298889633003</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03318975509028096</v>
+        <v>0.0004554718040589711</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1457815400079624</v>
+        <v>0.1457860604835532</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01954685860805822</v>
+        <v>0.006643032539094915</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1455170917505447</v>
+        <v>0.1468168821468423</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01214128784116771</v>
+        <v>0.006478447886554647</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1435423921847565</v>
+        <v>0.1475896025791941</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01218472532799556</v>
+        <v>0.003698950703628939</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1369295193817142</v>
+        <v>0.1463963620631071</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03287817239898702</v>
+        <v>-0.0001673685319804052</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1465488112711622</v>
+        <v>0.1465533555387298</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01885029956315082</v>
+        <v>0.006478447886554647</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1462829711808107</v>
+        <v>0.1475896025791941</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01382686524888257</v>
+        <v>0.006512182582276649</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1442939230338913</v>
+        <v>0.1483623230115459</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01177489066853011</v>
+        <v>0.003634311822664688</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1376464278601525</v>
+        <v>0.147162835162914</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03267059850550771</v>
+        <v>-0.0005827086115424152</v>
       </c>
       <c r="M257" t="n">
-        <v>0.147316082534362</v>
+        <v>0.1473206505939064</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01774666253830237</v>
+        <v>0.006512182582276649</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1470488506110768</v>
+        <v>0.1483623230115459</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01350967845971045</v>
+        <v>0.006244257279346958</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1450454538830261</v>
+        <v>0.1491350434438977</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01156439858873171</v>
+        <v>0.003777877137279895</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1383633363385908</v>
+        <v>0.1479293082627208</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03276709822638998</v>
+        <v>-0.001690432119854368</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1480833537975618</v>
+        <v>0.148087945649083</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01613595805898815</v>
+        <v>0.006244257279346958</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1478147300413427</v>
+        <v>0.1491350434438977</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01118977619530365</v>
+        <v>0.006174692630851589</v>
       </c>
       <c r="G259" t="n">
-        <v>0.145796984732161</v>
+        <v>0.1499077638762495</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01145324941401729</v>
+        <v>0.003429774349424597</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1390802448170291</v>
+        <v>0.1486957813625277</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03266773637818063</v>
+        <v>-0.001990422742143699</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1488506250607616</v>
+        <v>0.1488552407042596</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01501819665068349</v>
+        <v>0.006174692630851589</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1485806094716088</v>
+        <v>0.1499077638762495</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01086720717731442</v>
+        <v>0.005903509289876582</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1465485155812958</v>
+        <v>0.1506804843086013</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01134144346980379</v>
+        <v>0.003290131161048843</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1397971532954674</v>
+        <v>0.1494622544623345</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03267257777742663</v>
+        <v>-0.002082564163637723</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1496178963239614</v>
+        <v>0.1496225357594362</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0139933888388637</v>
+        <v>0.005903509289876582</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1493464889018748</v>
+        <v>0.1506804843086013</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.010542020127395</v>
+        <v>0.005630727909507957</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1473000464304307</v>
+        <v>0.1514532047409531</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01092898108150813</v>
+        <v>0.003759075274102769</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1405140617739057</v>
+        <v>0.1502287275621413</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03208168724067481</v>
+        <v>-0.002666740069563855</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1503851675871612</v>
+        <v>0.1503898308146128</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01326154514900402</v>
+        <v>0.005630727909507957</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1501123683321408</v>
+        <v>0.1514532047409531</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0112142637671977</v>
+        <v>0.005456369142831742</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1480515772795656</v>
+        <v>0.1522259251733049</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01091586257454725</v>
+        <v>0.003636734390536411</v>
       </c>
       <c r="K262" t="n">
-        <v>0.141230970252344</v>
+        <v>0.1509952006619482</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03249512958447209</v>
+        <v>-0.003142834145149404</v>
       </c>
       <c r="M262" t="n">
-        <v>0.151152438850361</v>
+        <v>0.1511571258697894</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01142267610657971</v>
+        <v>0.005456369142831742</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1508782477624069</v>
+        <v>0.1522259251733049</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01188398681837478</v>
+        <v>0.005380453642933963</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1488031081287004</v>
+        <v>0.1529986456056567</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01070208827433809</v>
+        <v>0.003423236212299896</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1419478787307822</v>
+        <v>0.151761673761755</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03221296962536532</v>
+        <v>-0.003510730075621804</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1519197101135608</v>
+        <v>0.151924420924966</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01027679223706618</v>
+        <v>0.005380453642933963</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1516441271926729</v>
+        <v>0.1529986456056567</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01055123800257848</v>
+        <v>0.005303002062900644</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1495546389778352</v>
+        <v>0.1537713660380085</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01048765850629758</v>
+        <v>0.003418708441343288</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1426647872092205</v>
+        <v>0.1525281468615619</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03193527217990141</v>
+        <v>-0.004270311546208327</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1526869813767606</v>
+        <v>0.1526917159801426</v>
       </c>
       <c r="N264" t="n">
-        <v>0.009823904065938582</v>
+        <v>0.005303002062900644</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1524100066229389</v>
+        <v>0.1537713660380085</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08334391969784559</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.03334391969784559</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007790283882355921</v>
+        <v>0.01371212984968442</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001667015641823331</v>
+        <v>8.892865700822761e-05</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007727204323518017</v>
+        <v>0.0006431780792897418</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004927558937799226</v>
+        <v>0.001928226626500433</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007664730998068436</v>
+        <v>0.0007727204323518017</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004000000000000004</v>
+        <v>0.004999999999999977</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004229629629629633</v>
+        <v>0.0008811728395061684</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001667015641823331</v>
+        <v>0.008821721476984623</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007727204323518017</v>
+        <v>0.0007653322054046109</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00340082971974863</v>
+        <v>0.0003514799293115045</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001545440864703603</v>
+        <v>0.001286356158579484</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01099999999999998</v>
+        <v>0.003700085562047047</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001710511982570803</v>
+        <v>0.001545440864703603</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01245930297735659</v>
+        <v>0.00790470683652636</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001534590110353192</v>
+        <v>0.001537246319262238</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.00340082971974863</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001545440864703603</v>
+        <v>0.001492810457516341</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005017866851364142</v>
+        <v>0.0007813017688276802</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002318161297055405</v>
+        <v>0.001929534237869225</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01352664911754536</v>
+        <v>0.005564754855528944</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00229941929942053</v>
+        <v>0.002318161297055405</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01857585093991443</v>
+        <v>0.01149852352355402</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002301885165529788</v>
+        <v>0.002305869478893357</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005017866851364142</v>
+        <v>0.0221106382181247</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002318161297055405</v>
+        <v>0.002295996616213833</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.001372042127474611</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002854999999999999</v>
+        <v>0.002572712317158967</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01683816765765692</v>
+        <v>0.00677141255583525</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003065892399227374</v>
+        <v>0.003090881729407207</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02431981935129446</v>
+        <v>0.01463493609614785</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003069180220706384</v>
+        <v>0.003074492638524476</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02832510744055972</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002854999999999999</v>
+        <v>0.003061328821618444</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002854999999999999</v>
+        <v>0.01253531512289152</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007247874020760992</v>
+        <v>0.002117348957170168</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003863602161759008</v>
+        <v>0.003215890396448708</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02018389658968059</v>
+        <v>0.008</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003832365499034218</v>
+        <v>0.003806666666666667</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02956415209991986</v>
+        <v>0.01809781270800498</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003836475275882979</v>
+        <v>0.003843115798155594</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007247874020760992</v>
+        <v>0.03305558634222083</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003863602161759008</v>
+        <v>0.003826661027023055</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008267301440110522</v>
+        <v>0.003010870209832206</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00463632259411081</v>
+        <v>0.003859068475738451</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02277262784281081</v>
+        <v>0.008755850312538553</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004598838598841061</v>
+        <v>0.00463632259411081</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0340817930742135</v>
+        <v>0.02097102151282254</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004603770331059576</v>
+        <v>0.004611738957786713</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008267301440110522</v>
+        <v>0.03710456682810714</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00463632259411081</v>
+        <v>0.004591993232427666</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009190844672780855</v>
+        <v>0.004046253837378583</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005409043026462612</v>
+        <v>0.004502246555028192</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.009629100009832602</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005628824551290239</v>
+        <v>0.005409043026462612</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03744568616259886</v>
+        <v>0.02323843066429757</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005371065386236171</v>
+        <v>0.005380362117417832</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009190844672780855</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005409043026462612</v>
+        <v>0.005227082817949084</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0102022139153102</v>
+        <v>0.005217147791727175</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006181763458814413</v>
+        <v>0.005145424634317934</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02583448727980794</v>
+        <v>0.0103950048843527</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006131784798454749</v>
+        <v>0.006181763458814413</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005924027193675628</v>
+        <v>0.006379334491462271</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0102022139153102</v>
+        <v>0.0407537260952085</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006181763458814413</v>
+        <v>0.006122657643236887</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01068511936423679</v>
+        <v>0.006517200024795819</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006954483891166215</v>
+        <v>0.005788602713607675</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02657507232957734</v>
+        <v>0.01085893576802344</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006898257898261592</v>
+        <v>0.006954483891166215</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04133351344347613</v>
+        <v>0.02578178109817839</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006905655496589364</v>
+        <v>0.00691760843668007</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01068511936423679</v>
+        <v>0.04206577255219246</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006954483891166215</v>
+        <v>0.006887989848641499</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.007940058488502398</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007790283882355921</v>
+        <v>0.006431780792897417</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02759168975973175</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007664730998068436</v>
+        <v>0.007790283882355921</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04254391111625211</v>
+        <v>0.02712325360141565</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007672950551765959</v>
+        <v>0.007686231596311189</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.0438383247742738</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007790283882355921</v>
+        <v>0.00765332205404611</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01186821981118859</v>
+        <v>0.009479371134764755</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008499924755869819</v>
+        <v>0.007074958872187159</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02878443936906724</v>
+        <v>0.01163844077213068</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00843120409787528</v>
+        <v>0.008499924755869819</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04451581523533005</v>
+        <v>0.02794151155349398</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008440245606942554</v>
+        <v>0.008454854755942307</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01186821981118859</v>
+        <v>0.04517163970329702</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008499924755869819</v>
+        <v>0.008418654259450721</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01220607739718631</v>
+        <v>0.01112878591550077</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007718136951476901</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01214659528387315</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00927264518822162</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02985342095637994</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009197677197682122</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04564941192504901</v>
+        <v>0.02883660050790554</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009207540662119151</v>
+        <v>0.009223477915573427</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01220607739718631</v>
+        <v>0.04706597428110648</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00927264518822162</v>
+        <v>0.009183986464855331</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01253722081311272</v>
+        <v>0.01288195078262828</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008361315030766642</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01265078179733681</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01004536562057342</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03049873432046604</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009964150297488967</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04724488730974846</v>
+        <v>0.02960856601814235</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009974835717295747</v>
+        <v>0.009992101075204545</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01253722081311272</v>
+        <v>0.04862158544954687</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01004536562057342</v>
+        <v>0.009949318670259942</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01316150880636462</v>
+        <v>0.01473251368806516</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009004493110056385</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0130507637592058</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01081808605292522</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03172047926012159</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01073062339729581</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04900242751376777</v>
+        <v>0.03075745363769652</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01074213077247234</v>
+        <v>0.01076072423483566</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01316150880636462</v>
+        <v>0.05013873015046233</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01081808605292522</v>
+        <v>0.01071465087566455</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01357880012433868</v>
+        <v>0.01667412258372927</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009647671189346126</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01344630461616438</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01159080648527703</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03241875557414273</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01149709649710265</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05002221866144602</v>
+        <v>0.03198330892006013</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01150942582764894</v>
+        <v>0.01152934739446678</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01357880012433868</v>
+        <v>0.05101766532569746</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01159080648527703</v>
+        <v>0.01147998308106916</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0138889535144317</v>
+        <v>0.01870042542153848</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01029084926863587</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01363716781489671</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01236352691762883</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03319366306132565</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0122635695969095</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05150444687712252</v>
+        <v>0.03268617741872532</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01227672088282553</v>
+        <v>0.0122979705540979</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0138889535144317</v>
+        <v>0.05265864791709657</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01236352691762883</v>
+        <v>0.01224531528647377</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01429182772404038</v>
+        <v>0.02080507015341063</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01093402734792561</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.014223116802087</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01313624734998063</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03404530152046636</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01303004269671634</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05284929828513668</v>
+        <v>0.03346610468718411</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01304401593800213</v>
+        <v>0.01306659371372902</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01429182772404038</v>
+        <v>0.05426193486650421</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01313624734998063</v>
+        <v>0.01301064749187839</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01478728150056152</v>
+        <v>0.02298170473126358</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01157720542721535</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01460391502441946</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01390896778233243</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03517377075036107</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01379651579652318</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05375695900982785</v>
+        <v>0.03432313627892866</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01381131099317873</v>
+        <v>0.01383521687336014</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01478728150056152</v>
+        <v>0.05542778311576485</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01390896778233243</v>
+        <v>0.013775979697283</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0149751735913918</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01253531512289152</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01477932592857831</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01468168821468423</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03597917054980587</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01456298889633003</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05522761517553498</v>
+        <v>0.035257317747451</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01457860604835532</v>
+        <v>0.01460384003299126</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0149751735913918</v>
+        <v>0.05605644960672285</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01468168821468423</v>
+        <v>0.01454131190268761</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01555536274392802</v>
+        <v>0.0281833392374078</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01286356158579483</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01534911296124768</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01545440864703603</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0367616007175969</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01532946199613687</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05666145290659763</v>
+        <v>0.03616869464624328</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01534590110353192</v>
+        <v>0.01537246319262238</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01555536274392802</v>
+        <v>0.05734819128122259</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01545440864703603</v>
+        <v>0.01530664410809222</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01592770770556688</v>
+        <v>0.03334391969784559</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01371212984968442</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01571303956911183</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01622712907938784</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03732116105253025</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01609593509594371</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05785865832735509</v>
+        <v>0.0366573125287975</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01611319615870851</v>
+        <v>0.0161410863522535</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01592770770556688</v>
+        <v>0.05880326508110867</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01622712907938784</v>
+        <v>0.01607197631349683</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01619206722370516</v>
+        <v>0.03399765868966609</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01414991774437432</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01597086919885493</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01699984951173964</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03795795135340208</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01686240819575056</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05901941756214657</v>
+        <v>0.03762321694860585</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01688049121388511</v>
+        <v>0.01690970951188461</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01619206722370516</v>
+        <v>0.05982192794822538</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01699984951173964</v>
+        <v>0.01683730851890144</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01664830004573956</v>
+        <v>0.03489621082133912</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01479309582366406</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01642236529716118</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01777256994409144</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03897207141900849</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0176288812955574</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.06044391673531135</v>
+        <v>0.03816645345916034</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01764778626906171</v>
+        <v>0.01767833267151573</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01664830004573956</v>
+        <v>0.06130443682441722</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01777256994409144</v>
+        <v>0.01760264072430605</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01689626491906687</v>
+        <v>0.03572439432757098</v>
       </c>
       <c r="G89" t="n">
+        <v>0.0154362739029538</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0166672913107148</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01854529037644324</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03966362104814566</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01839535439536424</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06143234197118874</v>
+        <v>0.03908706761395314</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0184150813242383</v>
+        <v>0.01844695583114685</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01689626491906687</v>
+        <v>0.06215104865152876</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01854529037644324</v>
+        <v>0.01836797292971066</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01733582059108381</v>
+        <v>0.03648588287671575</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01607945198224354</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01710541068619997</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01931801080879504</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04023270003960963</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01916182749517109</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.062084879394118</v>
+        <v>0.03988510496647629</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0191823763794149</v>
+        <v>0.01921557899077797</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01733582059108381</v>
+        <v>0.06266202037140423</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01931801080879504</v>
+        <v>0.01913330513511527</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01766682580918712</v>
+        <v>0.03718435013712762</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01672263006153328</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01733648687030089</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02009073124114684</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04087940819219657</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.01992830059497793</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06340171512843851</v>
+        <v>0.04056061107022188</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01994967143459149</v>
+        <v>0.01998420215040909</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01766682580918712</v>
+        <v>0.06423760892588803</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02009073124114684</v>
+        <v>0.01989863734051988</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01798913932077356</v>
+        <v>0.0378234697771607</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01736580814082303</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01756028330970175</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02086345167349865</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04150384530470258</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02069477369478477</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06438303529848938</v>
+        <v>0.04081363147868197</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02071696648976809</v>
+        <v>0.02075282531004021</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01798913932077356</v>
+        <v>0.0645780712568248</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02086345167349865</v>
+        <v>0.0206639695459245</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01830261987323985</v>
+        <v>0.03840691546516907</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01800898622011277</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01787656345108678</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02163617210585045</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04230611117592381</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02146124679459162</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06532902602861002</v>
+        <v>0.04154421174534872</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02148426154494468</v>
+        <v>0.02152144846967133</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01830261987323985</v>
+        <v>0.06598366430605895</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02163617210585045</v>
+        <v>0.02142930175132911</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01850712621398275</v>
+        <v>0.03893836086950692</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01865216429940251</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01828509074114015</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02240889253820225</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04278630560465638</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02222771989439846</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06613987344313971</v>
+        <v>0.04225239742371423</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02225155660012128</v>
+        <v>0.02229007162930245</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01850712621398275</v>
+        <v>0.0664546450154348</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02240889253820225</v>
+        <v>0.02219463395673372</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01880251709039903</v>
+        <v>0.03942147965852832</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01929534237869225</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01858562862654606</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02318161297055405</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04314452838969637</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02299419299420531</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06711576366641775</v>
+        <v>0.0428382340672705</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02301885165529788</v>
+        <v>0.02305869478893357</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01880251709039903</v>
+        <v>0.06749127032679675</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02318161297055405</v>
+        <v>0.02295996616213833</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01898865124988539</v>
+        <v>0.03985994550058744</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01993852045798199</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01887794055398871</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02395433340290585</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04408087932983995</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02376066609401215</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06765688282278332</v>
+        <v>0.04330176722950962</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02378614671047448</v>
+        <v>0.02382731794856469</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01898865124988539</v>
+        <v>0.06809379718198943</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02395433340290585</v>
+        <v>0.02372529836754294</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01946538743983857</v>
+        <v>0.0402574320640384</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02058169853727174</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01916178997015233</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02472705383525765</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04419545822388327</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.024527139193819</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06836341703657584</v>
+        <v>0.04404304246392382</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02455344176565107</v>
+        <v>0.02459594110819581</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01946538743983857</v>
+        <v>0.06906248252285718</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02472705383525765</v>
+        <v>0.02449063057294755</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01973258440765537</v>
+        <v>0.04061761301723528</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02122487661656148</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01933694032172109</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02549977426760945</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04498836487062241</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02529361229362584</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06903555243213455</v>
+        <v>0.04456210532400506</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02532073682082767</v>
+        <v>0.02536456426782692</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01973258440765537</v>
+        <v>0.06959758329124444</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02549977426760945</v>
+        <v>0.02525596277835216</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01989010090073247</v>
+        <v>0.04094416202853227</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02186805469585122</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01960315505537917</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02627249469996126</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04555969906885346</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02606008539343268</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07027347513379872</v>
+        <v>0.04475900136324548</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02608803187600426</v>
+        <v>0.02613318742745804</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01989010090073247</v>
+        <v>0.07029935642899565</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02627249469996126</v>
+        <v>0.02602129498375677</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02013779566646665</v>
+        <v>0.04124075276628344</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02251123277514096</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01996019761781082</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02704521513231306</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04560956061737259</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02682655849323953</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07097737126590764</v>
+        <v>0.04573377613513716</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02685532693118086</v>
+        <v>0.02690181058708916</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02013779566646665</v>
+        <v>0.07106805887795525</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02704521513231306</v>
+        <v>0.02678662718916138</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02027552745225464</v>
+        <v>0.04151105889884296</v>
       </c>
       <c r="G101" t="n">
+        <v>0.0231544108544307</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02020783145570018</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02781793556466486</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04623804931497597</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02759303159304637</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07154742695280053</v>
+        <v>0.04608647519317216</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02762262198635745</v>
+        <v>0.02767043374672028</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02027552745225464</v>
+        <v>0.07220394757996762</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02781793556466486</v>
+        <v>0.027551959394566</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0206031550054932</v>
+        <v>0.04175875409456493</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02379758893372044</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.0203458200157315</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02859065599701667</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04684526496045963</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02835950469285321</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07248382831881683</v>
+        <v>0.04621714409084263</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02838991704153405</v>
+        <v>0.0284390569063514</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0206031550054932</v>
+        <v>0.07280727947687732</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02859065599701667</v>
+        <v>0.02831729159997061</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02072053707357906</v>
+        <v>0.04198751202180348</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02444076701301019</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02057392674458894</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02936337642936846</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04703130735261973</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02912597779266006</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.0729867614882958</v>
+        <v>0.0465258283816406</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02915721209671064</v>
+        <v>0.02920768006598252</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02072053707357906</v>
+        <v>0.07267831151052867</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02936337642936846</v>
+        <v>0.02908262380537521</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02112753240390897</v>
+        <v>0.04220100634891273</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02508394509229993</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02089191508895674</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03013609686172026</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04709627629025243</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0298924508924669</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07315641258557648</v>
+        <v>0.04741257361905821</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02992450715188724</v>
+        <v>0.02997630322561364</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02112753240390897</v>
+        <v>0.07361730062276617</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03013609686172026</v>
+        <v>0.02984795601077982</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02132399974387966</v>
+        <v>0.04240291074424683</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02572712317158967</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02099954849551906</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03090881729407207</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04774027157215377</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03065892399227374</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07349296773499853</v>
+        <v>0.04767742535658753</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03069180220706384</v>
+        <v>0.03074492638524476</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02132399974387966</v>
+        <v>0.07412450375543422</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03090881729407207</v>
+        <v>0.03061328821618444</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0214097978408879</v>
+        <v>0.04259689887615987</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02637030125087941</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02129659041096013</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03168153772642387</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.04796339299711996</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03142539709208059</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07429661306090091</v>
+        <v>0.04792042914772066</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03145909726224044</v>
+        <v>0.03151354954487588</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0214097978408879</v>
+        <v>0.07490017785037734</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03168153772642387</v>
+        <v>0.03137862042158905</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02168478544233041</v>
+        <v>0.04278664441300603</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02701347933016915</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02158280428196412</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03245425815877567</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.04856574036394709</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03219187019188743</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07466753468762316</v>
+        <v>0.04824163054594965</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03222639231741703</v>
+        <v>0.03228217270450699</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02168478544233041</v>
+        <v>0.07524457984943989</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03245425815877567</v>
+        <v>0.03214395262699366</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02174882129560395</v>
+        <v>0.04297582102313938</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0276566574094589</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02155795355521523</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03322697859112747</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.04854741347143129</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03295834329169427</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07500591873950441</v>
+        <v>0.04874107510476666</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03299368737259362</v>
+        <v>0.03305079586413812</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02174882129560395</v>
+        <v>0.07525796669446633</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03322697859112747</v>
+        <v>0.03290928483239827</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02200176414810524</v>
+        <v>0.04316810237491404</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02829983548874863</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0219218016773977</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03399969902347928</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.04870851211836863</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03372481639150112</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07581195134088398</v>
+        <v>0.04861880837766369</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03376098242777022</v>
+        <v>0.03381941902376923</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02200176414810524</v>
+        <v>0.07564059532730111</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03399969902347928</v>
+        <v>0.03367461703780288</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02204347274723106</v>
+        <v>0.04336716213668419</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02894301356803838</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02207411209519568</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03477241945583107</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.04904913610355535</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03449128949130796</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07598581861610121</v>
+        <v>0.04877487591813293</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03452827748294682</v>
+        <v>0.03458804218340035</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02204347274723106</v>
+        <v>0.07649272268978863</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03477241945583107</v>
+        <v>0.03443994924320749</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02217380584037812</v>
+        <v>0.04357143635170468</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02958619164732812</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02201464825529338</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03554513988818288</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.04916938522578745</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03525776259111481</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07672770668949525</v>
+        <v>0.04910932327966638</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03529557253812341</v>
+        <v>0.03535666534303147</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02217380584037812</v>
+        <v>0.07671460572377337</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03554513988818288</v>
+        <v>0.0352052814486121</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0222926221749432</v>
+        <v>0.04377419951121861</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03022936972661786</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02234317360437503</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03631786032053468</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.04946935928386115</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03602423569092165</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07693780168540554</v>
+        <v>0.04922219601575623</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0360628675933</v>
+        <v>0.03612528850266259</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0222926221749432</v>
+        <v>0.07640650137109978</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03631786032053468</v>
+        <v>0.03597061365401671</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02239978049832299</v>
+        <v>0.04397527905606795</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0308725478059076</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02225945158912478</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03709058075288648</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.04984915807657248</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03679070879072849</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07681628972817128</v>
+        <v>0.04951353967989444</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03683016264847661</v>
+        <v>0.03689391166229371</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02239978049832299</v>
+        <v>0.0772686665736122</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03709058075288648</v>
+        <v>0.03673594585942132</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02239513955791428</v>
+        <v>0.04417459038012056</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03151572588519734</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02246324565622687</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03786330118523829</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.04970888140271762</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03755718189053533</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07756335694213179</v>
+        <v>0.04958339982557325</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0375974577036532</v>
+        <v>0.03766253482192482</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02239513955791428</v>
+        <v>0.07710135827315512</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03786330118523829</v>
+        <v>0.03750127806482594</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0226785581011138</v>
+        <v>0.0443720488772443</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03215890396448708</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02265431925236548</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03863602161759008</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.04984862906109269</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03832365499034218</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07747918945162635</v>
+        <v>0.05023182200628462</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0383647527588298</v>
+        <v>0.03843115798155595</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0226785581011138</v>
+        <v>0.07770483341157308</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03863602161759008</v>
+        <v>0.03826661027023055</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0227498948753183</v>
+        <v>0.04456756994130706</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03280208204377683</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02263243582422479</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03940874204994189</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05006850085049386</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03909012809014902</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07796397338099431</v>
+        <v>0.05035885177552069</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03913204781400639</v>
+        <v>0.03919978114118707</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0227498948753183</v>
+        <v>0.07767934893071032</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03940874204994189</v>
+        <v>0.03903194247563516</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02260900862792452</v>
+        <v>0.04476106896617668</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03344526012306657</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02259735881848905</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04018146248229369</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05046859656971717</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.03985660118995587</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.07801789485457483</v>
+        <v>0.04996453468677356</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03989934286918299</v>
+        <v>0.03996840430081818</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02260900862792452</v>
+        <v>0.07752516177241153</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04018146248229369</v>
+        <v>0.03979727468103977</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02275575810632918</v>
+        <v>0.04495246134572103</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03408843820235631</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02274885168184242</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04095418291464549</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05014901601755875</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04062307428976271</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.07784113999670728</v>
+        <v>0.05024891629353534</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04066663792435959</v>
+        <v>0.0407370274604493</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02275575810632918</v>
+        <v>0.07784252887852094</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04095418291464549</v>
+        <v>0.04056260688644438</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02289000205792906</v>
+        <v>0.04514166247380801</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03473161628164605</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02268667786096912</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04172690334699729</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05040985899281478</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04138954738956955</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.07783389493173082</v>
+        <v>0.05051204214929808</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04143393297953618</v>
+        <v>0.04150565062008042</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02289000205792906</v>
+        <v>0.07763170719088314</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04172690334699729</v>
+        <v>0.04132793909184899</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04532858774430544</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0353747943609358</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02292062508293861</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04249962377934909</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.05035122529428138</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.0421560204893764</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.07819634578398493</v>
+        <v>0.05065395780755386</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04220122803471277</v>
+        <v>0.04227427377971154</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.07789295365134236</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04249962377934909</v>
+        <v>0.04209327129725361</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0228204083703014</v>
+        <v>0.04551315255108122</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03601797244022554</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02292038395327924</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0432723442117009</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.05067716506702777</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.04292249358918324</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04304289693934266</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.07843370505111691</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04296852308988937</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.0228204083703014</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.0432723442117009</v>
+        <v>0.04285860350265822</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02271923266258295</v>
+        <v>0.0456952722880032</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03666115051951528</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02271643093231372</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04404506464405269</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05057567275138522</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04368896668899008</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07843053751565499</v>
+        <v>0.05057506158118621</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04373581814506597</v>
+        <v>0.04381152009897377</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02271923266258295</v>
+        <v>0.07783162023380769</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04404506464405269</v>
+        <v>0.04362393570806283</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02281378376020457</v>
+        <v>0.04587486234893923</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03730432859880502</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.0228001773707068</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04481778507640449</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05065603795743948</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04445543978879693</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.07769789600281091</v>
+        <v>0.05015924853706999</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04450311320024256</v>
+        <v>0.0445801432586049</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02281378376020457</v>
+        <v>0.07788946470841956</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04481778507640449</v>
+        <v>0.04438926791346744</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02270429076496304</v>
+        <v>0.04605183812775722</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03794750667809476</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02287218948617326</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.0455905055087563</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05061426212106143</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04522191288860377</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.07803092614454132</v>
+        <v>0.05042832155117141</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04527040825541916</v>
+        <v>0.04534876641823601</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02270429076496304</v>
+        <v>0.07769492741990502</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0455905055087563</v>
+        <v>0.04515460011887205</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02289083635961925</v>
+        <v>0.04622611501832499</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0385906847573845</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02273300571488693</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0463632259411081</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05025115579228848</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04598838598841062</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07773089666170646</v>
+        <v>0.05018272137433802</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04603770331059576</v>
+        <v>0.04611738957786713</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02289083635961925</v>
+        <v>0.0775504513090125</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0463632259411081</v>
+        <v>0.04591993232427666</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02287350322693403</v>
+        <v>0.04639760841451045</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03923386283667425</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02278316449302173</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04713594637345991</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05036752952115797</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04675485908821746</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.07739907627516612</v>
+        <v>0.05052288875741742</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04680499836577235</v>
+        <v>0.04688601273749825</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02287350322693403</v>
+        <v>0.07795847931649069</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04713594637345991</v>
+        <v>0.04668526452968127</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0227523740496683</v>
+        <v>0.04656623371018143</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03987704091596398</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0226232042567515</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.0479086668058117</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05036419385770718</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.0475213321880243</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07763673370578023</v>
+        <v>0.05014926445125717</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04757229342094895</v>
+        <v>0.04765463589712937</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0227523740496683</v>
+        <v>0.07762145438308815</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0479086668058117</v>
+        <v>0.04745059673508588</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02272753151058288</v>
+        <v>0.0467319062992058</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04052021899525373</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02265366344225017</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04868138723816351</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.04974195935197359</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04828780528783114</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07764513767440895</v>
+        <v>0.0503622892067048</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04833958847612554</v>
+        <v>0.04842325905676049</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02272753151058288</v>
+        <v>0.07694181944955353</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04868138723816351</v>
+        <v>0.04821592894049049</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02259905829243863</v>
+        <v>0.04689454157545148</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04116339707454347</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02247508048569155</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04945410767051531</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05010163655399452</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04905427838763799</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07692555690191205</v>
+        <v>0.0501624037746079</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04910688353130214</v>
+        <v>0.04919188221639161</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02259905829243863</v>
+        <v>0.07682201745663536</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04945410767051531</v>
+        <v>0.0489812611458951</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02266703707799646</v>
+        <v>0.04705405493278625</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04180657515383322</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02228799382324954</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0502268281028671</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.04974403601380728</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.04982075148744483</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07717926010914955</v>
+        <v>0.05005004890581402</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04987417858647874</v>
+        <v>0.04996050537602273</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02266703707799646</v>
+        <v>0.07646449134508237</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0502268281028671</v>
+        <v>0.04974659335129971</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02263155055001717</v>
+        <v>0.04721036176507802</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04244975323312296</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02239294189109803</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05099954853521891</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.04976996828144928</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05058722458725168</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07690751601698148</v>
+        <v>0.04972566535117076</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05064147364165533</v>
+        <v>0.05072912853565385</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02263155055001717</v>
+        <v>0.07617168405564317</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05099954853521891</v>
+        <v>0.05051192555670432</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02269268139126168</v>
+        <v>0.04736337746619468</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04309293131241269</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02209046312541087</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05177226896757071</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.04928024390695784</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05135369768705852</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07641159334626774</v>
+        <v>0.04968969386152564</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05140876869683193</v>
+        <v>0.05149775169528497</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02269268139126168</v>
+        <v>0.07564603852906621</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05177226896757071</v>
+        <v>0.05127725776210893</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02245051228449081</v>
+        <v>0.04751301743000406</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04373610939170244</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02218109596236195</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05254498939992252</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.04897567344037029</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05212017078686536</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07629276081786834</v>
+        <v>0.04954257518772623</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05217606375200852</v>
+        <v>0.05226637485491609</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02245051228449081</v>
+        <v>0.07488999770610028</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05254498939992252</v>
+        <v>0.05204258996751355</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02260512591246544</v>
+        <v>0.04765919705037404</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04437928747099218</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02186537883812512</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05331770983227432</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.04875706743172406</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0528866438866722</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07595228715264324</v>
+        <v>0.04918475008062012</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05294335880718512</v>
+        <v>0.0530349980145472</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02260512591246544</v>
+        <v>0.07470600452749376</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05331770983227432</v>
+        <v>0.05280792217291816</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02255660495794645</v>
+        <v>0.04780183172117249</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04502246555028192</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02184385018887428</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05409043026462612</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.04862523643105651</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05365311698647905</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07529144107145236</v>
+        <v>0.04921665929105487</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05371065386236171</v>
+        <v>0.05380362117417833</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02255660495794645</v>
+        <v>0.07449650193399548</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05409043026462612</v>
+        <v>0.05357325437832277</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02240503210369468</v>
+        <v>0.04794083683626725</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04566564362957166</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02171704845078329</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05486315069697791</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.04828099098840494</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0544195900862859</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07491149129515579</v>
+        <v>0.04893874356987804</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05447794891753831</v>
+        <v>0.05457224433380944</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02240503210369468</v>
+        <v>0.073963932866354</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05486315069697791</v>
+        <v>0.05433858658372738</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.022250490032471</v>
+        <v>0.04807612778952622</v>
       </c>
       <c r="G137" t="n">
+        <v>0.0463088217088614</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02148551206002602</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05563587112932972</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.04842514165380674</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05518606318609274</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.0742137065446134</v>
+        <v>0.04865144366793711</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05524524397271491</v>
+        <v>0.05534086749344056</v>
       </c>
       <c r="N137" t="n">
-        <v>0.022250490032471</v>
+        <v>0.07291074026531785</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05563587112932972</v>
+        <v>0.05510391878913199</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02219306142703628</v>
+        <v>0.04820761997481726</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04695199978815114</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02154977945277636</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05640859156168152</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.04795849897729923</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05595253628589959</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07389935554068511</v>
+        <v>0.04885520033607979</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0560125390278915</v>
+        <v>0.05610949065307168</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02219306142703628</v>
+        <v>0.07233936707163574</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05640859156168152</v>
+        <v>0.0558692509945366</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02233282897015137</v>
+        <v>0.04833522878600822</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04759517786744089</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02121038906520817</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05718131199403333</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.04778187350891985</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05671900938570642</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07346970700423094</v>
+        <v>0.04845045432515357</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0567798340830681</v>
+        <v>0.0568781138127028</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02233282897015137</v>
+        <v>0.07225225622605613</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05718131199403333</v>
+        <v>0.05663458319994121</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02226987534457714</v>
+        <v>0.04845886961696698</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04823835594673063</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02106787933349534</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05795403242638512</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04729607579870587</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05748548248551327</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07342602965611095</v>
+        <v>0.04813764638600604</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0575471291382447</v>
+        <v>0.05764673697233391</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02226987534457714</v>
+        <v>0.07165185066932778</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05795403242638512</v>
+        <v>0.05739991540534582</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02210428323307446</v>
+        <v>0.04857845786156141</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04888153402602037</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02102278869381172</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05872675285873693</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04710191639669464</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05825195558532012</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.0725695922171849</v>
+        <v>0.04781721726948468</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05831442419342129</v>
+        <v>0.05841536013196504</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02210428323307446</v>
+        <v>0.0710405933421992</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05872675285873693</v>
+        <v>0.05816524761075043</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02193613531840419</v>
+        <v>0.04869390891365935</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04952471210531011</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02087565558233119</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05949947329108873</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04690020585292362</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05901842868512695</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07260166340831292</v>
+        <v>0.04758960772643717</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05908171924859788</v>
+        <v>0.05918398329159615</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02193613531840419</v>
+        <v>0.0698209271854191</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05949947329108873</v>
+        <v>0.05893057981615504</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0220655142833272</v>
+        <v>0.04880513816712871</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05016789018459986</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02062701843522764</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06027219372344052</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04639175471743009</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.05978490178493381</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.07162351195035493</v>
+        <v>0.04745525850771101</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05984901430377448</v>
+        <v>0.05995260645122728</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0220655142833272</v>
+        <v>0.069095295139736</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06027219372344052</v>
+        <v>0.05969591202155965</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02189250281060433</v>
+        <v>0.04891206101583731</v>
       </c>
       <c r="G144" t="n">
+        <v>0.0508110682638896</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02057741568867494</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06104491415579233</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04597737354025139</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06055137488474064</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.07103640656417093</v>
+        <v>0.04731461036415377</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06061630935895108</v>
+        <v>0.06072122961085839</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02189250281060433</v>
+        <v>0.06886614014589848</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06104491415579233</v>
+        <v>0.06046124422696427</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02171718358299646</v>
+        <v>0.04901459285365305</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05145424634317933</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02032738577884695</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06181763458814413</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04575787287142494</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06131784798454749</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07054161597062081</v>
+        <v>0.04726810404661302</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06138360441412767</v>
+        <v>0.06148985277048951</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02171718358299646</v>
+        <v>0.06793590514465525</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06181763458814413</v>
+        <v>0.06122657643236888</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02163963928326444</v>
+        <v>0.04911264907444376</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05209742442246908</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02027746714191754</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06259035502049594</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04553406326098808</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06208432108435433</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.07054040889056462</v>
+        <v>0.04671618030593633</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06215089946930426</v>
+        <v>0.06225847593012063</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02163963928326444</v>
+        <v>0.06760703307675481</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06259035502049594</v>
+        <v>0.06199190863777349</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02155995259416915</v>
+        <v>0.04920614507207735</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05274060250175882</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02022819821406062</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06336307545284774</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04540675525897811</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06285079418416117</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07013405404486228</v>
+        <v>0.04675927989297124</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06291819452448087</v>
+        <v>0.06302709908975175</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02155995259416915</v>
+        <v>0.06658196688294588</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06336307545284774</v>
+        <v>0.0627572408431781</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02167820619847147</v>
+        <v>0.04929499624042169</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05338378058104856</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02008011743145002</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06413579588519953</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04477675941543247</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06361726728396802</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.06932382015437377</v>
+        <v>0.04619784355856535</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06368548957965746</v>
+        <v>0.06379572224938287</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02167820619847147</v>
+        <v>0.06646314950397697</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06413579588519953</v>
+        <v>0.06352257304858271</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02149448277893222</v>
+        <v>0.04937911797334457</v>
       </c>
       <c r="G149" t="n">
+        <v>0.0540269586603383</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.01993376323025962</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06490851631755135</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04424488628038845</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06438374038377485</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.06851097593995903</v>
+        <v>0.04593231205356621</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06445278463483406</v>
+        <v>0.06456434540901398</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02149448277893222</v>
+        <v>0.06555302388059681</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06490851631755135</v>
+        <v>0.06428790525398732</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02140886501831228</v>
+        <v>0.04945842566471396</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05467013673962805</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.01958967404666334</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06568123674990314</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04421194640388346</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0651502134835817</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.06869679012247804</v>
+        <v>0.04546312612882134</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06522007969001066</v>
+        <v>0.06533296856864511</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02140886501831228</v>
+        <v>0.06525403295355386</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06568123674990314</v>
+        <v>0.06505323745939193</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02142143559937253</v>
+        <v>0.04953283470839764</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05531331481891779</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.019448388316835</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06645395718225494</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04407875033595482</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06591668658338855</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.06808253142279086</v>
+        <v>0.04529072653517838</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06598737474518725</v>
+        <v>0.06610159172827623</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02142143559937253</v>
+        <v>0.06446861966359679</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06645395718225494</v>
+        <v>0.06581856966479654</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02133227720487381</v>
+        <v>0.04960226049826352</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05595649289820753</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.01941044447694849</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06722667761460675</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04374610862663991</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06668315968319539</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.06716946856175726</v>
+        <v>0.04521555402348484</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06675466980036385</v>
+        <v>0.06687021488790734</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02133227720487381</v>
+        <v>0.06399922695147425</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06722667761460675</v>
+        <v>0.06658390187020115</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02114147251757699</v>
+        <v>0.04966661842817946</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05659967097749727</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.01917638096317768</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06799939804695855</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04301483182597607</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06744963278300224</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06655887026023743</v>
+        <v>0.04463804934458832</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06752196485554043</v>
+        <v>0.06763883804753845</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02114147251757699</v>
+        <v>0.06374829775793484</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06799939804695855</v>
+        <v>0.06734923407560577</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02104910422024295</v>
+        <v>0.04972582389201333</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05724284905678701</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.01904673621169647</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06877211847931035</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04258573048400066</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06821610588280907</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06595200523909112</v>
+        <v>0.04445865324933634</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06828925991071703</v>
+        <v>0.06840746120716958</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02104910422024295</v>
+        <v>0.06281827502372705</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06877211847931035</v>
+        <v>0.06811456628101037</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02085525499563254</v>
+        <v>0.04977979228363297</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05788602713607675</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.01912204865867873</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06954483891166215</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04245961515075106</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06898257898261592</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06555014221917849</v>
+        <v>0.04447780648857655</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06905655496589364</v>
+        <v>0.0691760843668007</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02085525499563254</v>
+        <v>0.06241160168959964</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06954483891166215</v>
+        <v>0.06887989848641499</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02086000752650662</v>
+        <v>0.0498284389969063</v>
       </c>
       <c r="G156" t="n">
+        <v>0.0585292052153665</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01900285674029831</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07031755934401396</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.04243729637626459</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06974905208242277</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06565454992135938</v>
+        <v>0.04389594981315637</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06982385002107022</v>
+        <v>0.06994470752643182</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02086000752650662</v>
+        <v>0.06203072069630122</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07031755934401396</v>
+        <v>0.06964523069181959</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02066344449562604</v>
+        <v>0.04987167942570113</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05917238329465624</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.01878969889272906</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07109027977636576</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04181854007373426</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07051552518222962</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06476649706649379</v>
+        <v>0.04391352397392351</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07059114507624682</v>
+        <v>0.07071333068606293</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02066344449562604</v>
+        <v>0.06147807498458024</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07109027977636576</v>
+        <v>0.07041056289722421</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02066564858575171</v>
+        <v>0.04990942896388535</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05981556137394598</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01858112216974218</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07186300020871755</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.0416912811179887</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07128199828203645</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06448725237544173</v>
+        <v>0.04331409848965287</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07135844013142342</v>
+        <v>0.07148195384569406</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02066564858575171</v>
+        <v>0.06124974804342842</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07186300020871755</v>
+        <v>0.07117589510262883</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02066670247964444</v>
+        <v>0.04994160300532682</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06045873945323572</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01867386852551001</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07263572064106937</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04095213874509268</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0720484713818433</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06361808456906309</v>
+        <v>0.04317124354337443</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07212573518660001</v>
+        <v>0.07225057700532518</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02066670247964444</v>
+        <v>0.06043541164947397</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07263572064106937</v>
+        <v>0.07194122730803343</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02046486644447282</v>
+        <v>0.04996811694389343</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06110191753252547</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0185677806453252</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07340844107342116</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04110146113926619</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07281494448165014</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06316026236821787</v>
+        <v>0.04268709049115579</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07289303024177661</v>
+        <v>0.07301920016495629</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02046486644447282</v>
+        <v>0.06003379564928513</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07340844107342116</v>
+        <v>0.07270655951343805</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02023914614897637</v>
+        <v>0.04998888617345301</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06174509561181521</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01826275869104663</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07418116150577296</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04023959648472916</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07358141758145698</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06260926265339212</v>
+        <v>0.04216420936803936</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07366032529695321</v>
+        <v>0.07378782332458741</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02023914614897637</v>
+        <v>0.05994379090637875</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07418116150577296</v>
+        <v>0.07347189171884265</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02018526075599671</v>
+        <v>0.05000382608787346</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06238827369110495</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01815870282453314</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07495388193812476</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04026689296570157</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07434789068126384</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.06225499586685856</v>
+        <v>0.04210517020906748</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0744276203521298</v>
+        <v>0.07455644648421852</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02018526075599671</v>
+        <v>0.05956428828427135</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07495388193812476</v>
+        <v>0.07423722392424727</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02010539690736497</v>
+        <v>0.05001285208102262</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06303145177039468</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0182555132076436</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07572660237047657</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.0395836987664033</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07511436378107067</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06239700215271604</v>
+        <v>0.04141254304928249</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0751949154073064</v>
+        <v>0.07532506964384965</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02010539690736497</v>
+        <v>0.05889417864647983</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07572660237047657</v>
+        <v>0.07500255612965187</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01970174124491235</v>
+        <v>0.05001587954676838</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06367462984968443</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01815309000223683</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07649932280282837</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.03919036207105431</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07588083688087752</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06123503297479149</v>
+        <v>0.04058889792372669</v>
       </c>
       <c r="M164" t="n">
-        <v>0.075962210462483</v>
+        <v>0.07609369280348077</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01970174124491235</v>
+        <v>0.05863235285652096</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07649932280282837</v>
+        <v>0.07576788833505649</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01947648041047004</v>
+        <v>0.05001587954676838</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06367462984968443</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01795133337017173</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07727204323518017</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.0390872310638746</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07664730998068436</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06076883979691167</v>
+        <v>0.04043680486744253</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0767295055176596</v>
+        <v>0.0768623159631119</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01947648041047004</v>
+        <v>0.0584777017779114</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07727204323518017</v>
+        <v>0.07653322054046109</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01923180104586918</v>
+        <v>0.04915040038377649</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06367436132122041</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01795014347330712</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07804476366753198</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.03857465392908399</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0774137830804912</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.06039817408290366</v>
+        <v>0.03955883391547227</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07749680057283619</v>
+        <v>0.07763093912274301</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01923180104586918</v>
+        <v>0.05762911627416789</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07804476366753198</v>
+        <v>0.07729855274586571</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01916988979294093</v>
+        <v>0.04829477137711827</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0636740927927564</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01784942047350187</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07881748409988378</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.03835297885090255</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07818025618029804</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.06042278729659439</v>
+        <v>0.0392575551028583</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07826409562801277</v>
+        <v>0.07839956228237413</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01916988979294093</v>
+        <v>0.05728548720880722</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07881748409988378</v>
+        <v>0.07806388495127031</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01889293329351653</v>
+        <v>0.04744949331528352</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06367382426429237</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01764906453261482</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07959020453223557</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.03742255401355016</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07894672928010489</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.05944243090181073</v>
+        <v>0.03873553846464298</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07903139068318939</v>
+        <v>0.07916818544200525</v>
       </c>
       <c r="N168" t="n">
-        <v>0.01889293329351653</v>
+        <v>0.05754570544534604</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07959020453223557</v>
+        <v>0.07882921715667493</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0186031181894271</v>
+        <v>0.04661506698687219</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06367355573582836</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01764897581250484</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08036292496458737</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.03708372760124676</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07971320237991174</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.05955685636237956</v>
+        <v>0.03809535403586861</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07979868573836597</v>
+        <v>0.07993680860163636</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0186031181894271</v>
+        <v>0.05710866184730107</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08036292496458737</v>
+        <v>0.07959454936207953</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0182026311225038</v>
+        <v>0.04579199318037365</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06367328720736434</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01754905447503077</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08113564539693918</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.03673684779821229</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08047967547971858</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.058565815142128</v>
+        <v>0.03703957185157761</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08056598079354256</v>
+        <v>0.08070543176126747</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0182026311225038</v>
+        <v>0.0564732472781892</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08113564539693918</v>
+        <v>0.08035988156748415</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01779365873457786</v>
+        <v>0.04498077268431423</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06367301867890034</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01724920068205149</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08190836582929098</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.03628226278866672</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08124614857952542</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.05856905870488277</v>
+        <v>0.03667076194681229</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08133327584871917</v>
+        <v>0.0814740549208986</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01779365873457786</v>
+        <v>0.05623835260152704</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08190836582929098</v>
+        <v>0.08112521377288875</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01767838766748042</v>
+        <v>0.04418190628718585</v>
       </c>
       <c r="G172" t="n">
+        <v>0.0636727501504363</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01724931459542584</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08268108626164278</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.03602032075682998</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08201262167933226</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.05746633851447092</v>
+        <v>0.03589149435661501</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08210057090389576</v>
+        <v>0.08224267808052972</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01767838766748042</v>
+        <v>0.05560286868083142</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08268108626164278</v>
+        <v>0.08189054597829337</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01725900456304265</v>
+        <v>0.04339589477758439</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0636724816219723</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01714929637701267</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08345380669399459</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.03565136988692197</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0827790947791391</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.05695740603471927</v>
+        <v>0.03540433911602814</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08286786595907236</v>
+        <v>0.08301130124016085</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01725900456304265</v>
+        <v>0.05566568637961894</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08345380669399459</v>
+        <v>0.08265587818369799</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01703769606309573</v>
+        <v>0.0426232389440012</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06367221309350828</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01694904618867082</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08422652712634637</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.03477575836316271</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08354556787894596</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05664201272945479</v>
+        <v>0.03461186626009399</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08363516101424896</v>
+        <v>0.08377992439979196</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01703769606309573</v>
+        <v>0.05502569656140649</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08422652712634637</v>
+        <v>0.08342121038910259</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0165166488094708</v>
+        <v>0.04186443957496261</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06367194456504426</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01704846419225919</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08499924755869818</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.0342938343697721</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08431204097875279</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05611991006250455</v>
+        <v>0.03351664582385494</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08440245606942555</v>
+        <v>0.08454854755942308</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0165166488094708</v>
+        <v>0.0550817900897107</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08499924755869818</v>
+        <v>0.08418654259450721</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01639804944399911</v>
+        <v>0.04111999745896294</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06367167603658024</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01694745054963659</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08577196799104998</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.03390594609097006</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08507851407855964</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.05529084949769536</v>
+        <v>0.03312124784235329</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08516975112460215</v>
+        <v>0.0853171707190542</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01639804944399911</v>
+        <v>0.05433285782804825</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08577196799104998</v>
+        <v>0.08495187479991181</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01608408460851175</v>
+        <v>0.04039041338459336</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06367140750811622</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01674590542266188</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08654468842340179</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.03371244171097654</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08584498717836649</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05545458249885404</v>
+        <v>0.03252824235063145</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08593704617977874</v>
+        <v>0.08608579387868531</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01608408460851175</v>
+        <v>0.05407779063993601</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08654468842340179</v>
+        <v>0.08571720700531643</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01577694094483996</v>
+        <v>0.03967618814034751</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06367113897965221</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01664372897319395</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08731740885575359</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.03321366941401149</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08661146027817332</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05471086052980778</v>
+        <v>0.03184019938373178</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08670434123495534</v>
+        <v>0.08685441703831644</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01577694094483996</v>
+        <v>0.05401547938889073</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08731740885575359</v>
+        <v>0.08648253921072104</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01537880509481487</v>
+        <v>0.03897782251475178</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06367087045118819</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01644082136309161</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08809012928810539</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.03270997738429487</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08737793337798017</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05415943505438325</v>
+        <v>0.03105968897669659</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08747163629013194</v>
+        <v>0.08762304019794755</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01537880509481487</v>
+        <v>0.05324481493842903</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08809012928810539</v>
+        <v>0.08724787141612565</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01509186370026766</v>
+        <v>0.03829581729630319</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06367060192272417</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01643708275421375</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0888628497204572</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.03190171380604662</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08814440647778701</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05380005753640749</v>
+        <v>0.03018928116456823</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08823893134530852</v>
+        <v>0.08839166335757867</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01509186370026766</v>
+        <v>0.0527646881520677</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0888628497204572</v>
+        <v>0.08801320362153026</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01481830340302953</v>
+        <v>0.03763067327358749</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06367033339426015</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0164324133084192</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08963557015280899</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03168922686348666</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08891087957759386</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05293247943970747</v>
+        <v>0.0296315459823891</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08900622640048513</v>
+        <v>0.08916028651720979</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01481830340302953</v>
+        <v>0.05247398989332352</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08963557015280899</v>
+        <v>0.08877853582693487</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01456031084493163</v>
+        <v>0.03698289123510101</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06367006486579614</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01622671318756683</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.0904082905851608</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03117286474083492</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08967735267740071</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05215645222811005</v>
+        <v>0.02928905346520147</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08977352145566173</v>
+        <v>0.08992890967684092</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01456031084493163</v>
+        <v>0.05267161102571316</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0904082905851608</v>
+        <v>0.08954386803233948</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01442007266780512</v>
+        <v>0.03635297196937012</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06366979633733212</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01611988255351546</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09118101101751259</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03025297562231141</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09044382577720754</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.0514717273654422</v>
+        <v>0.02816437364804777</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09054081651083831</v>
+        <v>0.09069753283647203</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01442007266780512</v>
+        <v>0.05185644241275333</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09118101101751259</v>
+        <v>0.09030920023774409</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0140997755134812</v>
+        <v>0.03574141626489498</v>
       </c>
       <c r="G184" t="n">
+        <v>0.0636695278088681</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.016111821568124</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09195373144986441</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.02992990769213599</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09121029887701439</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05087805631553083</v>
+        <v>0.02786007656597023</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09130811156601491</v>
+        <v>0.09146615599610315</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0140997755134812</v>
+        <v>0.05172737491796098</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09195373144986441</v>
+        <v>0.0910745324431487</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01400160602379104</v>
+        <v>0.03514872491025517</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06366925928040408</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01590243039325126</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.0927264518822162</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.02910400913452865</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09197677197682123</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05017519054220287</v>
+        <v>0.02697873225401137</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09207540662119151</v>
+        <v>0.09223477915573426</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01400160602379104</v>
+        <v>0.05138329940485259</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0927264518822162</v>
+        <v>0.09183986464855332</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0138277508405658</v>
+        <v>0.03457539869395007</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06366899075194006</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01589160919075613</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.093499172314568</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.02887562813370928</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09274324507662808</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05026288150928526</v>
+        <v>0.02672291074721342</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0928427016763681</v>
+        <v>0.09300340231536539</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0138277508405658</v>
+        <v>0.0503231067369449</v>
       </c>
       <c r="O186" t="n">
-        <v>0.093499172314568</v>
+        <v>0.09260519685395793</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01358039660563665</v>
+        <v>0.03402193840450604</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06366872222347605</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01577925812249743</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09427189274691981</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.02844511287389795</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09350971817643491</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.04964088068060485</v>
+        <v>0.02589518208061878</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0936099967315447</v>
+        <v>0.0937720254749965</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01358039660563665</v>
+        <v>0.05004568777775481</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09427189274691981</v>
+        <v>0.09337052905936254</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01346160974686174</v>
+        <v>0.03348884483042669</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06366845369501202</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01556527735033404</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.0950446131792716</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.0280128115393144</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09427619127624176</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.0484089395199887</v>
+        <v>0.0253981162892698</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0943772917867213</v>
+        <v>0.09454064863462762</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01346160974686174</v>
+        <v>0.04964993339079898</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0950446131792716</v>
+        <v>0.09413586126476715</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01325876774133888</v>
+        <v>0.03297661876028478</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06366818516654801</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01554956703612478</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09581733361162341</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.02697907231417873</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09504266437604861</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.04796680949126358</v>
+        <v>0.02543428340820877</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0951445868418979</v>
+        <v>0.09530927179425874</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01325876774133888</v>
+        <v>0.04923473443959425</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09581733361162341</v>
+        <v>0.09490119347017176</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01326200961040952</v>
+        <v>0.03248371609610057</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06366791663808399</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01523202734172856</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09659005404397521</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.02694424338271084</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09580913747585544</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.04741424205825662</v>
+        <v>0.02450625347247815</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09591188189707449</v>
+        <v>0.09607789495388987</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01326200961040952</v>
+        <v>0.04889898178765711</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09659005404397521</v>
+        <v>0.09566652567557637</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01307095088547909</v>
+        <v>0.03199836830750431</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06366764810961999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01531255842900418</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09736277447632702</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.02619050633889672</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09657561057566229</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.04634660755521725</v>
+        <v>0.0241165965171202</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09667917695225108</v>
+        <v>0.09684651811352098</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01307095088547909</v>
+        <v>0.04794156629850455</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09736277447632702</v>
+        <v>0.09643185788098098</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01318520709795305</v>
+        <v>0.03151903129651878</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06366737958115595</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01509106045981054</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09813549490867882</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.02559569542962647</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09734208367546913</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.04604468595616829</v>
+        <v>0.02386788257717729</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09744647200742769</v>
+        <v>0.0976151412731521</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01318520709795305</v>
+        <v>0.04776137883565318</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09813549490867882</v>
+        <v>0.0971971900863856</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01310439377923685</v>
+        <v>0.0310462058517121</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06366711105269195</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01486608160706411</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09890821534103061</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.02516469519336614</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09810855677527598</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.04550857756686527</v>
+        <v>0.02394729277539323</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09821376706260428</v>
+        <v>0.09838376443278322</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01310439377923685</v>
+        <v>0.0464194534552525</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09890821534103061</v>
+        <v>0.0979625222917902</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01292812646073592</v>
+        <v>0.03058039276158965</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06366684252422793</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01473608540232886</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09968093577338243</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.02450256716178836</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09887502987508283</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.04444099247780553</v>
+        <v>0.02343611016216812</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09898106211778086</v>
+        <v>0.09915238759241433</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01292812646073592</v>
+        <v>0.04607155387452122</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09968093577338243</v>
+        <v>0.09872785449719482</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01295602067385572</v>
+        <v>0.03012209281467776</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06366657399576392</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01460138679892017</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1004536562057342</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.02371437286656586</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.09964150297488966</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.04344464077948651</v>
+        <v>0.02333391794973078</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09974835717295748</v>
+        <v>0.09992101075204546</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01295602067385572</v>
+        <v>0.04542398410861231</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1004536562057342</v>
+        <v>0.09949318670259942</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01278769195000171</v>
+        <v>0.02967180679948341</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06366630546729989</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01456230643979387</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.101226376638086</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.02260517383937133</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1004079760746965</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.04312223256240555</v>
+        <v>0.02254036255337874</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1005156522281341</v>
+        <v>0.1006896339116766</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01278769195000171</v>
+        <v>0.04458321333243365</v>
       </c>
       <c r="O196" t="n">
-        <v>0.101226376638086</v>
+        <v>0.100258518908004</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01272275582057934</v>
+        <v>0.02923003550457219</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06366603693883588</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01441916496790571</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1019990970704378</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.02218003161187748</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1011744491745034</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04197647791706</v>
+        <v>0.02245509038840965</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1012829472833107</v>
+        <v>0.1014582570713077</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01272275582057934</v>
+        <v>0.04315571072089291</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1019990970704378</v>
+        <v>0.1010238511134086</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01256082781699404</v>
+        <v>0.02879727971845066</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06366576841037186</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01417228302621155</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1027718175027896</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.02164400771575695</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1019409222743102</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04101008693394731</v>
+        <v>0.02217774787012106</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1020502423384873</v>
+        <v>0.1022268802309388</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01256082781699404</v>
+        <v>0.04184794544889786</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1027718175027896</v>
+        <v>0.1017891833188133</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01260152347065129</v>
+        <v>0.02837404022964519</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06366549988190784</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.0141219812576672</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1035445379351414</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.02060216368268253</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.102707395374117</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.04062576970356485</v>
+        <v>0.02170798141381053</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1028175373936639</v>
+        <v>0.1029955033905699</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01260152347065129</v>
+        <v>0.04076638669135646</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1035445379351414</v>
+        <v>0.1025545155242179</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01264445831295651</v>
+        <v>0.02796081782666442</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06366523135344382</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01396858030522843</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1043172583674932</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.01975956104432683</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1034738684739239</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.03922623631640998</v>
+        <v>0.02164543743477568</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1035848324488405</v>
+        <v>0.103764126550201</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01264445831295651</v>
+        <v>0.03941750362317659</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1043172583674932</v>
+        <v>0.1033198477296225</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01248924787531515</v>
+        <v>0.02755811329807066</v>
       </c>
       <c r="G201" t="n">
+        <v>0.0636649628249798</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01391240081185109</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.105089978799845</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.0189212613323626</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1042403415737307</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.03881419686298004</v>
+        <v>0.02138976234831405</v>
       </c>
       <c r="M201" t="n">
-        <v>0.104352127504017</v>
+        <v>0.1045327497098322</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01248924787531515</v>
+        <v>0.0380077654192657</v>
       </c>
       <c r="O201" t="n">
-        <v>0.105089978799845</v>
+        <v>0.1040851799350271</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01253550768913268</v>
+        <v>0.02716642743237213</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06366469429651579</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01365376342049095</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1058626992321968</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.01819232607846252</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1050068146735376</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.03749236143377249</v>
+        <v>0.02114060256972328</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1051194225591936</v>
+        <v>0.1053013728694633</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01253550768913268</v>
+        <v>0.0370436412545318</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1058626992321968</v>
+        <v>0.1048505121404317</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01248285328581453</v>
+        <v>0.02678626101809511</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06366442576805177</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01359298877410385</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1066354196645486</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.01797781681429927</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1057732877733444</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.03636344011928472</v>
+        <v>0.02099760451430085</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1058867176143702</v>
+        <v>0.1060699960290944</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01248285328581453</v>
+        <v>0.03563160030388268</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1066354196645486</v>
+        <v>0.1056158443458363</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01243090019676617</v>
+        <v>0.02641811484375028</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06366415723958775</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01343039751564556</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1074081400969004</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.01708279507154559</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1065397608731513</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.03573014301001398</v>
+        <v>0.02066041459734444</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1066540126695468</v>
+        <v>0.1068386191887255</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01243090019676617</v>
+        <v>0.03437811174222627</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1074081400969004</v>
+        <v>0.1063811765512409</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01227926395339302</v>
+        <v>0.02606248969789607</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06366388871112373</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01306631028807191</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1081808605292522</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.01621232238187409</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1073062339729581</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03499518019645792</v>
+        <v>0.0203286792341516</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1074213077247234</v>
+        <v>0.1076072423483567</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01227926395339302</v>
+        <v>0.03268964474447017</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1081808605292522</v>
+        <v>0.1071465087566455</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01212756008710058</v>
+        <v>0.02571988636904253</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06366362018265972</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01300104773433872</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1089535809616041</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.01597146027695756</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1080727070727649</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03396126176911363</v>
+        <v>0.02040204484001995</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1081886027799</v>
+        <v>0.1083758655079878</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01212756008710058</v>
+        <v>0.03147266848552221</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1089535809616041</v>
+        <v>0.1079118409620501</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01207540412929424</v>
+        <v>0.02539080564571602</v>
       </c>
       <c r="G207" t="n">
+        <v>0.0636633516541957</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01293493049740177</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1097263013939558</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.01496527028846861</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1088391801725718</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.03313109781847862</v>
+        <v>0.01988015783024699</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1089558978350766</v>
+        <v>0.1091444886676189</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01207540412929424</v>
+        <v>0.02983365214029032</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1097263013939558</v>
+        <v>0.1086771731674548</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01202241161137949</v>
+        <v>0.02507574831642954</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06366308312573168</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01266827922021688</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1104990218263076</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.01479881394808003</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1096056532723786</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03180739843505032</v>
+        <v>0.01986266462013037</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1097231928902532</v>
+        <v>0.10991311182725</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01202241161137949</v>
+        <v>0.02817906488368221</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1104990218263076</v>
+        <v>0.1094425053728594</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01206819806476176</v>
+        <v>0.02477521516973688</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06366281459726766</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01260141454573988</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1112717422586594</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.01417715278746445</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1103721263721855</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03099287370932602</v>
+        <v>0.01964921162496758</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1104904879454298</v>
+        <v>0.1106817349868811</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01206819806476176</v>
+        <v>0.02661537589060575</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1112717422586594</v>
+        <v>0.110207837578264</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01191237902084651</v>
+        <v>0.02448970699415039</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06366254606880366</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01243465711692654</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1120444626910112</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.01380534833829455</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1111385994719923</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.02979023373180328</v>
+        <v>0.01913944526005634</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1112577830006064</v>
+        <v>0.1114503581465122</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01191237902084651</v>
+        <v>0.02524905433596852</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1120444626910112</v>
+        <v>0.1109731697836686</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01185457001103919</v>
+        <v>0.02421972457819642</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06366227754033964</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01216832757673268</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.112817183123363</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01288846213224309</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1119050725717992</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.02920218859297924</v>
+        <v>0.01893301194069411</v>
       </c>
       <c r="M211" t="n">
-        <v>0.112025078055783</v>
+        <v>0.1122189813061434</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01185457001103919</v>
+        <v>0.0232865693946786</v>
       </c>
       <c r="O211" t="n">
-        <v>0.112817183123363</v>
+        <v>0.1117385019890732</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01179438656674524</v>
+        <v>0.02396576871039065</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06366200901187562</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01190274656811411</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1135899035557149</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01293155570098276</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.112671545671606</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.0282314483833514</v>
+        <v>0.01902955808217854</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1127923731109596</v>
+        <v>0.1129876044657745</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01179438656674524</v>
+        <v>0.02153439024164372</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1135899035557149</v>
+        <v>0.1125038341944778</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01193144421937011</v>
+        <v>0.02372834017928159</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0636617404834116</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01183823473402664</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1143626239880667</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.01272750093161173</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1134380187714128</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.02718072319341713</v>
+        <v>0.0189287300998072</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1135596681661362</v>
+        <v>0.1137562276254056</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01193144421937011</v>
+        <v>0.02039898605177154</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1143626239880667</v>
+        <v>0.1132691663998824</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01186535850031928</v>
+        <v>0.02350793977338418</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06366147195494758</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01177511271742608</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1151353444204184</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01213088768550646</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1142044918712197</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.02705272311367379</v>
+        <v>0.01853017440887764</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1143269632213128</v>
+        <v>0.1145248507850367</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01186535850031928</v>
+        <v>0.01868682599996996</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1151353444204184</v>
+        <v>0.114034498605287</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01169574494099816</v>
+        <v>0.02350793977338418</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06366147195494758</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01141370116126823</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1159080648527702</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.0118369874511273</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1149709649710265</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02605015823461887</v>
+        <v>0.01823353742468747</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1150942582764894</v>
+        <v>0.1152934739446678</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01169574494099816</v>
+        <v>0.01730437926114686</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1159080648527702</v>
+        <v>0.1147998308106916</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0116222190728122</v>
+        <v>0.02289622131399391</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06357625386021022</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.0113543207085089</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.116680785285122</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.01144592793042423</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1157374380708334</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02507573864674972</v>
+        <v>0.01833846556253427</v>
       </c>
       <c r="M216" t="n">
-        <v>0.115861553331666</v>
+        <v>0.1160620971042989</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0116222190728122</v>
+        <v>0.01545811501020999</v>
       </c>
       <c r="O216" t="n">
-        <v>0.116680785285122</v>
+        <v>0.1155651630160962</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01164439642716688</v>
+        <v>0.02229152022230614</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06349103576547287</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0111972920021039</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1174535057174739</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01155783682534736</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1165039111706402</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02433217444056351</v>
+        <v>0.01814460523771563</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1166288483868426</v>
+        <v>0.1168307202639301</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01164439642716688</v>
+        <v>0.01405450242206707</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1174535057174739</v>
+        <v>0.1163304952215009</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01136189253546762</v>
+        <v>0.02169420933722913</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0634058176707355</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01094293568500904</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1182262261498257</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.01087284183784681</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1172703842704471</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02341024383396978</v>
+        <v>0.01765160286552908</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1173961434420192</v>
+        <v>0.1175993434235612</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01136189253546762</v>
+        <v>0.01270001067162596</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1182262261498257</v>
+        <v>0.1170958274269055</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01147453653949902</v>
+        <v>0.02110466149767108</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06332059957599814</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01079157240018011</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1189989465821775</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01049107066987262</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1180368573702539</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02329166329343207</v>
+        <v>0.01785910486127226</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1181634384971958</v>
+        <v>0.1183679665831923</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01147453653949902</v>
+        <v>0.01180110893379449</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1189989465821775</v>
+        <v>0.1178611596323101</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0112842103048106</v>
+        <v>0.02052324954254003</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06323538148126077</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01074352279057293</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1197716670145293</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.0102126510233749</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1188033304700608</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02207627936278411</v>
+        <v>0.01716675764024272</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1189307335523724</v>
+        <v>0.1191365897428234</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0112842103048106</v>
+        <v>0.01026426638348044</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1197716670145293</v>
+        <v>0.1186264918377147</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0111914599072875</v>
+        <v>0.01995034631074434</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06315016338652342</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01059910749914333</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.120544387446881</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01043771060030366</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1195698035698676</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02136420835679853</v>
+        <v>0.01747420761773805</v>
       </c>
       <c r="M221" t="n">
-        <v>0.119698028607549</v>
+        <v>0.1199052129024546</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0111914599072875</v>
+        <v>0.009295952195591539</v>
       </c>
       <c r="O221" t="n">
-        <v>0.120544387446881</v>
+        <v>0.1193918240431193</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01099630600001573</v>
+        <v>0.01938632464119197</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06306494529178606</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01055864716884707</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1213171078792329</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01016637710260904</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1203362766696744</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02115556659024809</v>
+        <v>0.01718110120905586</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1204653236627256</v>
+        <v>0.1206738360620857</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01099630600001573</v>
+        <v>0.008602635545035708</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1213171078792329</v>
+        <v>0.1201571562485239</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01099876923608134</v>
+        <v>0.01883155737279127</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06297972719704871</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01022246244264</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1220898283115847</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.00959877823224109</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1211027497694813</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02025047037790528</v>
+        <v>0.01678708482949368</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1212326187179022</v>
+        <v>0.1214424592217168</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01099876923608134</v>
+        <v>0.007590785606720718</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1220898283115847</v>
+        <v>0.1209224884539285</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01079887026857035</v>
+        <v>0.01828641734445027</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06289450910231134</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0101908739634779</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1228625487439365</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.009335041691149903</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1218692228692881</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.01954903603454283</v>
+        <v>0.0163918048943491</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1219999137730788</v>
+        <v>0.1222110823813479</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01079887026857035</v>
+        <v>0.006466871555554365</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1228625487439365</v>
+        <v>0.1216878206593331</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01079662975056876</v>
+        <v>0.01775127739507727</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06280929100757399</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01006420237431659</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1236352691762883</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.008975295181285536</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.122635695969095</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.01845137987493334</v>
+        <v>0.01669490781891975</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1227672088282553</v>
+        <v>0.122979705540979</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01079662975056876</v>
+        <v>0.005337362566444348</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1236352691762883</v>
+        <v>0.1224531528647378</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01059206833516264</v>
+        <v>0.01722651036358029</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06272407291283662</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.009942768318111875</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1244079896086401</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.008919666404598126</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1234021690689018</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.01825761821384947</v>
+        <v>0.01629604001850313</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1235345038834319</v>
+        <v>0.1237483287006101</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01059206833516264</v>
+        <v>0.00440872781429863</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1244079896086401</v>
+        <v>0.1232184850701424</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01068520667543798</v>
+        <v>0.01671248908886767</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06263885481809928</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.009726892437819566</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1251807100409919</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.008668283063037657</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1241686421687087</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.0169678673660637</v>
+        <v>0.01609484790839691</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1243017989386085</v>
+        <v>0.1245169518602413</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01068520667543798</v>
+        <v>0.004287436474024964</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1251807100409919</v>
+        <v>0.123983817275547</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01037606542448084</v>
+        <v>0.01620958640984741</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06255363672336191</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.009816895376395469</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1259534304733437</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.008121272858554296</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1249351152685155</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.0166822436463489</v>
+        <v>0.01609097790389863</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1250690939937852</v>
+        <v>0.1252855750198724</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01037606542448084</v>
+        <v>0.003279957720531079</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1259534304733437</v>
+        <v>0.1247491494809516</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01046466523537722</v>
+        <v>0.01571817516542783</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06246841862862455</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.009513097776795383</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1267261509056955</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.008178763493098068</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1257015883683223</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.01610086336947764</v>
+        <v>0.01548407642030589</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1258363890489617</v>
+        <v>0.1260541981795035</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01046466523537722</v>
+        <v>0.003392760728724797</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1267261509056955</v>
+        <v>0.1255144816863562</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01025102676121314</v>
+        <v>0.01523862819451697</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06238320053388718</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.009415775935948091</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1274988713380473</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.007640882668619065</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1264680614681292</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.01562384285022256</v>
+        <v>0.01537382140835977</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1266036841041383</v>
+        <v>0.1268228213391346</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01025102676121314</v>
+        <v>0.002631588961561626</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1274988713380473</v>
+        <v>0.1262798138917608</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01023517065507466</v>
+        <v>0.01477131833602312</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06229798243914984</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.009421500361091885</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1282715917703991</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.007507758087067384</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.127234534567936</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.01465129840335611</v>
+        <v>0.01496260146735245</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1273709791593149</v>
+        <v>0.1275914444987657</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01023517065507466</v>
+        <v>0.002525028460625856</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1282715917703991</v>
+        <v>0.1270451460971654</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.009917117570047776</v>
+        <v>0.01431661842885434</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06221276434441247</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.009328008234521151</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1290443122027509</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.007279517450393097</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1280010076677429</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01378334634365125</v>
+        <v>0.01485208064407825</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1281382742144915</v>
+        <v>0.1283600676583968</v>
       </c>
       <c r="N232" t="n">
-        <v>0.009917117570047776</v>
+        <v>0.002422621045574114</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1290443122027509</v>
+        <v>0.12781047830257</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.009996888159218537</v>
+        <v>0.0138749013119189</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06212754624967511</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.009335361537122173</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1298170326351027</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.007356288460546284</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1287674807675497</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01352010298588041</v>
+        <v>0.01474226088219321</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1289055692696681</v>
+        <v>0.129128690818028</v>
       </c>
       <c r="N233" t="n">
-        <v>0.009996888159218537</v>
+        <v>0.002624490596609519</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1298170326351027</v>
+        <v>0.1285758105079746</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.009674503075672962</v>
+        <v>0.01344653982412487</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06204232815493775</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.009243622249781251</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1305897530674545</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.006838198819476948</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1295339538673566</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.01246168464481623</v>
+        <v>0.01473314412535331</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1296728643248447</v>
+        <v>0.1298973139776591</v>
       </c>
       <c r="N234" t="n">
-        <v>0.009674503075672962</v>
+        <v>0.0025307609939349</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1305897530674545</v>
+        <v>0.1293411427133793</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.009649982972497056</v>
+        <v>0.01303190680438052</v>
       </c>
       <c r="G235" t="n">
+        <v>0.0619571100602004</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.009052852353384683</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1313624734998063</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.006925376229135277</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1303004269671634</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.01160820763523146</v>
+        <v>0.01432473231721457</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1304401593800213</v>
+        <v>0.1306659371372902</v>
       </c>
       <c r="N235" t="n">
-        <v>0.009649982972497056</v>
+        <v>0.002141556117753296</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1313624734998063</v>
+        <v>0.1301064749187839</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.009423348502776895</v>
+        <v>0.01263137509159393</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06187189196546303</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.008963113828818765</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1321351939321581</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.006817948391471346</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1310669000669702</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01125978827189861</v>
+        <v>0.01411702740143311</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1312074544351979</v>
+        <v>0.1314345602969213</v>
       </c>
       <c r="N236" t="n">
-        <v>0.009423348502776895</v>
+        <v>0.001456999848267693</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1321351939321581</v>
+        <v>0.1308718071241885</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.009494620319598461</v>
+        <v>0.01224531752467336</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06178667387072568</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.008974468656969797</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1329079143645099</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.006116043008435129</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1318333731667771</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01051654286959042</v>
+        <v>0.0142100313216649</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1319747494903745</v>
+        <v>0.1322031834565525</v>
       </c>
       <c r="N237" t="n">
-        <v>0.009494620319598461</v>
+        <v>0.001477216065680964</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1329079143645099</v>
+        <v>0.1316371393295931</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009363819076047789</v>
+        <v>0.01187410694252689</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06170145577598831</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.008786978818724075</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1336806347968617</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.006319787781976782</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1325998462665839</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01007858774307946</v>
+        <v>0.01360374602156594</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1327420445455511</v>
+        <v>0.1329718066161836</v>
       </c>
       <c r="N238" t="n">
-        <v>0.009363819076047789</v>
+        <v>0.001802328650196194</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1336806347968617</v>
+        <v>0.1324024715349977</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.009030965425210924</v>
+        <v>0.01151811618406277</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06161623768125096</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.008700706294967886</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1344533552292135</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.005829310414046329</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1333663193663908</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.009046039207138423</v>
+        <v>0.01349817344479234</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1335093396007277</v>
+        <v>0.1337404297758147</v>
       </c>
       <c r="N239" t="n">
-        <v>0.009030965425210924</v>
+        <v>0.001232461482016389</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1344533552292135</v>
+        <v>0.1331678037404023</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.008996080020173866</v>
+        <v>0.01117619566264738</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06153101958651359</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.008715713066587541</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1352260756615653</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.005644738606593924</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1341327924661976</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.008819013576539858</v>
+        <v>0.01359331553500009</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1342766346559043</v>
+        <v>0.1345090529354458</v>
       </c>
       <c r="N240" t="n">
-        <v>0.008996080020173866</v>
+        <v>0.0007677384413443122</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1352260756615653</v>
+        <v>0.1339331359458069</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.008959183514022667</v>
+        <v>0.01083958366393884</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06144580149177624</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.008632061114469326</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1359987960939171</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.005766200061569637</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1348992655660045</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.007997627166056565</v>
+        <v>0.01308917423584521</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1350439297110809</v>
+        <v>0.1352776760950769</v>
       </c>
       <c r="N241" t="n">
-        <v>0.008959183514022667</v>
+        <v>0.001308283408383237</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1359987960939171</v>
+        <v>0.1346984681512115</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.008620296559843352</v>
+        <v>0.01050713060130352</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06136058339703888</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.008549812419499543</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1367715165262689</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.005593822480923494</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1356657386658113</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.007381996290460935</v>
+        <v>0.01288575149098375</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1358112247662575</v>
+        <v>0.136046299254708</v>
       </c>
       <c r="N242" t="n">
-        <v>0.008620296559843352</v>
+        <v>0.0006542202633358918</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1367715165262689</v>
+        <v>0.1354638003566161</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.008479439810721918</v>
+        <v>0.01017920931364969</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06127536530230152</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.008469028962564497</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1375442369586207</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.005227733566605608</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1364322117656181</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.006872237264525793</v>
+        <v>0.01258304924407172</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1365785198214341</v>
+        <v>0.1368149224143392</v>
       </c>
       <c r="N243" t="n">
-        <v>0.008479439810721918</v>
+        <v>0.0006056728864053396</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1375442369586207</v>
+        <v>0.1362291325620207</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008536633919744435</v>
+        <v>0.009856192639885422</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06119014720756416</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.008189772724550466</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1383169573909725</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.005268061020566012</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.137198684865425</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.006168466403023765</v>
+        <v>0.0122810694387652</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1373458148766107</v>
+        <v>0.1375835455739703</v>
       </c>
       <c r="N244" t="n">
-        <v>0.008536633919744435</v>
+        <v>0.0008627651577946538</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1383169573909725</v>
+        <v>0.1369944647674254</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008291899539996893</v>
+        <v>0.009538453418918971</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06110492911282681</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.008312105686343746</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1390896778233243</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.004814932544754819</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1379651579652318</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.005470800020727473</v>
+        <v>0.01237981401872015</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1381131099317873</v>
+        <v>0.1383521687336014</v>
       </c>
       <c r="N245" t="n">
-        <v>0.008291899539996893</v>
+        <v>0.0006256209577067406</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1390896778233243</v>
+        <v>0.13775979697283</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008245257324565325</v>
+        <v>0.009226364489658433</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06101971101808944</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.008236089828830652</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1398623982556761</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.004968475841122144</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1387316310650387</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0053793544324095</v>
+        <v>0.01237928492759266</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1388804049869639</v>
+        <v>0.1391207918932325</v>
       </c>
       <c r="N246" t="n">
-        <v>0.008245257324565325</v>
+        <v>0.0005943641663443966</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1398623982556761</v>
+        <v>0.1385251291782346</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.007896727926535785</v>
+        <v>0.008920298691012046</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06093449292335209</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.008161787132897481</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1406351186880279</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.004828818611618046</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1394981041648455</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.00439424595284249</v>
+        <v>0.01197948410903873</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1396477000421404</v>
+        <v>0.1398894150528636</v>
       </c>
       <c r="N247" t="n">
-        <v>0.007896727926535785</v>
+        <v>-0.0001308813360891281</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1406351186880279</v>
+        <v>0.1392904613836392</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.007746331998994271</v>
+        <v>0.008620628861887913</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06084927482861472</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.007889259579430513</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1414078391203797</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.004396088558192512</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1402645772646524</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.004015590896799148</v>
+        <v>0.0115804135067144</v>
       </c>
       <c r="M248" t="n">
-        <v>0.140414995097317</v>
+        <v>0.1406580382124948</v>
       </c>
       <c r="N248" t="n">
-        <v>0.007746331998994271</v>
+        <v>0.0002500083306089529</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1414078391203797</v>
+        <v>0.1400557935890438</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007694090195026822</v>
+        <v>0.008327727841194274</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06076405673387737</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.008018569149316063</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1421805595527315</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.00427041338279574</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1410310503644592</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.003043505579052086</v>
+        <v>0.01138207506427572</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1411822901524936</v>
+        <v>0.1414266613721259</v>
       </c>
       <c r="N249" t="n">
-        <v>0.007694090195026822</v>
+        <v>-6.284295335831636e-05</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1421805595527315</v>
+        <v>0.1408211257944484</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007640023167719466</v>
+        <v>0.008041968467839222</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06067883863914</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.007749777823440405</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1429532799850833</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.004451920787377772</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1417975234642661</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.002778106314373863</v>
+        <v>0.01158447072537871</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1419495852076703</v>
+        <v>0.142195284531757</v>
       </c>
       <c r="N250" t="n">
-        <v>0.007640023167719466</v>
+        <v>3.068869221206638e-05</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1429532799850833</v>
+        <v>0.141586457999853</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007284151570158215</v>
+        <v>0.007763723580731012</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06059362054440265</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.007682947582689857</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1437260004174351</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.004440738473888622</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1425639965640729</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.00231950941753728</v>
+        <v>0.01128760243367938</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1427168802628468</v>
+        <v>0.1429639076913881</v>
       </c>
       <c r="N251" t="n">
-        <v>0.007284151570158215</v>
+        <v>-0.0001692728524770037</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1437260004174351</v>
+        <v>0.1423517902052577</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007126496055429109</v>
+        <v>0.007493366018777731</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06050840244966529</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.007818140407950702</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1444987208497869</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.004136994144278483</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1433304696638797</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.00146783120331484</v>
+        <v>0.01119147213283375</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1434841753180234</v>
+        <v>0.1437325308510192</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007126496055429109</v>
+        <v>-0.0005626037072224699</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1444987208497869</v>
+        <v>0.1431171224106623</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006967077276618168</v>
+        <v>0.007231268620887625</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06042318435492793</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.007555418280109243</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1452714412821387</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.003740815500497346</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1440969427636866</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.001123187986479146</v>
+        <v>0.01049608176649791</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1442514703732</v>
+        <v>0.1445011540106504</v>
       </c>
       <c r="N253" t="n">
-        <v>0.006967077276618168</v>
+        <v>-0.0006491799918213748</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1452714412821387</v>
+        <v>0.1438824546160669</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006805915886811433</v>
+        <v>0.006977804225968789</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06033796626019056</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.007494843180051773</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1460441617144905</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.003752330244495339</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1448634158634934</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.0006856960818029667</v>
+        <v>0.01050143327832787</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1450187654283766</v>
+        <v>0.1452697771702815</v>
       </c>
       <c r="N254" t="n">
-        <v>0.006805915886811433</v>
+        <v>-0.0007288778260708118</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1460441617144905</v>
+        <v>0.1446477868214715</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006643032539094915</v>
+        <v>0.006733345672929471</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06025274816545321</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.007436477088664593</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1468168821468423</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.003571666078222485</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1456298889633003</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.0004554718040589711</v>
+        <v>0.01040752861197961</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1457860604835532</v>
+        <v>0.1460384003299126</v>
       </c>
       <c r="N255" t="n">
-        <v>0.006643032539094915</v>
+        <v>-0.001001573329767719</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1468168821468423</v>
+        <v>0.1454131190268761</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006478447886554647</v>
+        <v>0.00649826580067777</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06016753007071585</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.007380381986834002</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1475896025791941</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.003698950703628939</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1463963620631071</v>
-      </c>
       <c r="L256" t="n">
-        <v>-0.0001673685319804052</v>
+        <v>0.01011436971110924</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1465533555387298</v>
+        <v>0.1468070234895437</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006478447886554647</v>
+        <v>-0.0006671426227091437</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1475896025791941</v>
+        <v>0.1461784512322807</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006512182582276649</v>
+        <v>0.006272937448121907</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06008231197597849</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.007326619855446297</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1483623230115459</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.003634311822664688</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.147162835162914</v>
-      </c>
       <c r="L257" t="n">
-        <v>-0.0005827086115424152</v>
+        <v>0.01002195851937271</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1473206505939064</v>
+        <v>0.1475756466491748</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006512182582276649</v>
+        <v>-0.0005254618246921527</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1483623230115459</v>
+        <v>0.1469437834376853</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006244257279346958</v>
+        <v>0.00605773345417001</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05999709388124113</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.007275252675387756</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1491350434438977</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.003777877137279895</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1479293082627208</v>
-      </c>
       <c r="L258" t="n">
-        <v>-0.001690432119854368</v>
+        <v>0.009930296980426162</v>
       </c>
       <c r="M258" t="n">
-        <v>0.148087945649083</v>
+        <v>0.1483442698088059</v>
       </c>
       <c r="N258" t="n">
-        <v>0.006244257279346958</v>
+        <v>-0.001176407055513751</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1491350434438977</v>
+        <v>0.1477091156430899</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006174692630851589</v>
+        <v>0.005853026657730305</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05991187578650378</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.007426342427544697</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1499077638762495</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.003429774349424597</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1486957813625277</v>
-      </c>
       <c r="L259" t="n">
-        <v>-0.001990422742143699</v>
+        <v>0.009839387037925529</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1488552407042596</v>
+        <v>0.149112892968437</v>
       </c>
       <c r="N259" t="n">
-        <v>0.006174692630851589</v>
+        <v>-0.001019854434970935</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1499077638762495</v>
+        <v>0.1484744478484945</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005903509289876582</v>
+        <v>0.005659189897710894</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05982665769176641</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.007279951092803411</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1506804843086013</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.003290131161048843</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1494622544623345</v>
-      </c>
       <c r="L260" t="n">
-        <v>-0.002082564163637723</v>
+        <v>0.009649230635526862</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1496225357594362</v>
+        <v>0.1498815161280682</v>
       </c>
       <c r="N260" t="n">
-        <v>0.005903509289876582</v>
+        <v>-0.001055680082860777</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1506804843086013</v>
+        <v>0.1492397800538992</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005630727909507957</v>
+        <v>0.005476596013020016</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05974143959702906</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.007336140652050196</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1514532047409531</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.003759075274102769</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1502287275621413</v>
-      </c>
       <c r="L261" t="n">
-        <v>-0.002666740069563855</v>
+        <v>0.009159829716886198</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1503898308146128</v>
+        <v>0.1506501392876993</v>
       </c>
       <c r="N261" t="n">
-        <v>0.005630727909507957</v>
+        <v>-0.0005837601189802311</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1514532047409531</v>
+        <v>0.1500051122593037</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005456369142831742</v>
+        <v>0.005305617842565766</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05965622150229169</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.007094973086171345</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1522259251733049</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.003636734390536411</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1509952006619482</v>
-      </c>
       <c r="L262" t="n">
-        <v>-0.003142834145149404</v>
+        <v>0.008771186225659561</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1511571258697894</v>
+        <v>0.1514187624473304</v>
       </c>
       <c r="N262" t="n">
-        <v>0.005456369142831742</v>
+        <v>-0.0006039706631264241</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1522259251733049</v>
+        <v>0.1507704444647084</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005380453642933963</v>
+        <v>0.00514662822525639</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05957100340755433</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.007056510376053156</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1529986456056567</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.003423236212299896</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.151761673761755</v>
-      </c>
       <c r="L263" t="n">
-        <v>-0.003510730075621804</v>
+        <v>0.008783302105503016</v>
       </c>
       <c r="M263" t="n">
-        <v>0.151924420924966</v>
+        <v>0.1521873856069615</v>
       </c>
       <c r="N263" t="n">
-        <v>0.005380453642933963</v>
+        <v>-0.0009161878350963382</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1529986456056567</v>
+        <v>0.151535776670113</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005303002062900644</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05948578531281697</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.007120814502581924</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1537713660380085</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.003418708441343288</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1525281468615619</v>
-      </c>
       <c r="L264" t="n">
-        <v>-0.004270311546208327</v>
+        <v>0.00849617930007257</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1526917159801426</v>
+        <v>0.1529560087665927</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005303002062900644</v>
+        <v>-0.001020287754686933</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1537713660380085</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1523011088755176</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05947262741808013</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005640580086802412</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05947289594654414</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006277358833760203</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05947316447500815</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006910288664011319</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05947343300347218</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007539322000611144</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05947370153193619</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008164411266697799</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05947397006040021</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008785508885381765</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05947423858886423</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009402567279800302</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05947450711732825</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01001553887301016</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05947477564579227</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0106243760881488</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05947504417425628</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01122903134832669</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05947531270272029</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01182945707668034</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05947558123118432</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01242560569626799</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05947584975964833</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01301742963022634</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05947611828811235</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01360488130166589</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05947638681657636</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01418791313372237</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05947665534504039</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01476647754945554</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0594769238735044</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01534052697200136</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05947719240196842</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0159100138244703</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05947746093043244</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01647489052999733</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05947772945889646</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01703510951164377</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05947799798736048</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01759062319254479</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05947826651582449</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01814138399581088</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0594785350442885</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01868734434457614</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05947880357275253</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01922845666190361</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05947907210121654</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01976486764322639</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05947934062968056</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02029769534544817</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05947960915814457</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02082708646400125</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0594798776866086</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02135299342195002</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05948014621507261</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02187536864242808</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05948041474353662</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02239416454854593</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05948068327200064</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02290933356343638</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05948095180046466</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0234208281101651</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05948122032892868</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02392860061186505</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0594814888573927</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02443260349164672</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05948175738585671</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02493278917264226</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05948202591432074</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02542911007791866</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05948229444278475</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02592151863060822</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05948256297124876</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02640996725382143</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05948283149971278</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02689440837068979</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05948310002817681</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0273747944042816</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05948336855664082</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02785107777772851</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05948363708510483</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02832321091414103</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05948390561356885</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0287911462366499</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05948417414203287</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02925483616832486</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05948444267049689</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02971423313229687</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05948471119896091</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0301692895516764</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05948497972742492</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03061995784959348</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05948524825588895</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03106619044911935</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05948551678435296</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03150793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05948578531281697</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03150793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05947262741808013</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0320003753627362</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05955838256974552</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03248814856640257</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05964413772141092</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03297112731367051</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05972989287307631</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03344917953382723</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0598156480247417</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03392217315615986</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0599014031764071</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03438997610995562</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05998715832807249</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03485245632450168</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06007291347973789</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03530948172908523</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06015866863140328</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03576092025299346</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06024442378306867</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03620663982551353</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06033017893473407</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03664650837593265</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06041593408639946</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03708039383353801</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06050168923806485</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03750816412761679</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06058744438973025</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03792968718745612</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06067319954139564</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03834483094234326</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06075895469306104</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03875346332156536</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06084470984472643</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03915545225440963</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06093046499639182</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0395506656701632</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06101622014805722</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0399389714981133</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06110197529972261</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0403202376675471</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06118773045138801</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04069433210775179</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0612734856030534</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04106112274801454</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06135924075471879</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04142047751762257</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06144499590638419</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04177226434586302</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06153075105804958</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04211689045076709</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06161650620971498</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04245745949408596</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06170226136138037</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0427943786938508</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06178801651304576</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04312751597934877</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06187377166471116</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0434567392798671</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06195952681637655</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04378191652469295</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06204528196804195</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0441029156431135</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06213103711970733</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04441960456441593</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06221679227137273</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04473185121788745</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06230254742303813</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04503952353281522</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06238830257470352</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04534248943848644</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06247405772636892</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04564061686418829</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0625598128780343</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04593377373920794</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0626455680296997</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04622182799283261</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0627313231813651</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04650464755434944</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06281707833303049</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04678210035304566</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06290283348469589</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0470540543182084</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06298858863636128</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04732037737912489</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06307434378802668</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0475809374650823</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06316009893969206</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04783560250536781</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06324585409135745</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04808424042926861</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06333160924302285</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04832671916607188</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06341736439468824</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04856290664506481</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06350311954635364</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04879267079553458</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06358887469801904</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04901587954676839</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06367462984968443</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04034391969784559</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06367462984968443</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04912563303766995</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06542484445714809</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0492270470175081</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06717505906461174</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04932045100502327</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06892527367207539</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.0494061745189559</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07067548827953904</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04948454707804639</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0724257028870027</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04955589820103519</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07417591749446635</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04962055740666271</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07592613210193001</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04967885421366935</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07767634670939366</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04973111814079557</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07942656131685732</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04977767870678178</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08117677592432097</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0498188654303684</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08292699053178462</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04985500783029585</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08467720513924827</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04988643542530458</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08642741974671193</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04991347773413499</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0881776343541756</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04993646427552752</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08992784896163925</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04995572456822257</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09167806356910289</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0499715881309606</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09342827817656656</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04998438448248199</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09517849278403021</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04999444314152722</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09692870739149385</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05000209362683666</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0986789219989575</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05000766545715075</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1004291366064212</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05001148815120995</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1021793512138848</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05001389122775463</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1039295658213485</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05001520420552526</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1056797804288121</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05001575660326221</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1074299950362758</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05001587793970597</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1091802096437394</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04999309528987185</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1109304242512031</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0498828695702504</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1126806388586668</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04968736723992384</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1144308534661304</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04941338079398719</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1161810680735941</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04906770272753541</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1179312826810577</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04865712553566347</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1196814972885214</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04818844171346631</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.121431711895985</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04766844375603896</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1231819265034487</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04710392415847633</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1249321411109123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04650167541587344</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.126682355718376</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04586849002332524</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1284325703258396</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0452111604759267</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1301827849333033</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04453647926877279</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.131932999540767</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04385123889695849</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1336832141482306</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04316223185557877</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1354334287556943</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0424762506397286</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1371836433631579</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04180008774450296</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1389338579706215</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0411405356649968</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1406840725780852</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04050438689630512</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1424342871855489</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03989843393352287</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1441845017930125</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03932946927174501</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1459347164004762</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03880428540606655</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1476849310079398</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03832967483158244</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03791243004338764</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1511853602228672</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03752488484749758</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1529355748303308</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03712792129420935</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1546857894377945</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03672346196904344</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1564360040452581</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03631355302023417</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1581862186527218</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03590024059601588</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1599364332601854</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03548557084462291</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1616866478676491</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03507158991428956</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1634368624751127</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03466034395325016</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1651870770825764</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03425387910973908</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.16693729169004</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03385424153199058</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1686875062975037</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03346347736823906</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1704377209049673</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03308363276671877</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.172187935512431</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03271675387566411</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1739381501198947</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03236488684330938</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1756883647273583</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03203007781788891</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.177438579334822</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03171437294763703</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1791887939422856</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03141981838078803</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1809390085497493</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03114846026557631</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1826892231572129</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03090234475023616</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1844394377646766</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0306835179830019</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1861896523721402</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03049402611210787</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1879398669796039</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0303359152857884</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1896900815870675</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03021123165227781</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1914402961945312</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03012202135981043</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1931905108019948</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03007033055662058</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1949407254094585</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03005736811496443</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1966909400169221</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03005762121233459</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1984411546243858</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03005893138154071</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2001913692318495</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03006217847883867</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2019415838393131</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0300682423604843</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2036917984467768</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03007800288273349</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2054420130542404</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03009233990184207</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2071922276617041</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03011213327406591</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2089424422691677</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03013826285566085</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2106926568766314</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03017160850288277</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.212442871484095</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03021305007198752</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2141930860915587</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03026346741923094</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2159433006990223</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03032374040086892</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.217693515306486</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0303947488731573</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2194437299139497</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03047737269235193</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2211939445214133</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03057249171470867</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2229441591288769</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0306809857964834</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2246943737363406</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03080373479393196</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2264445883438043</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03094161856331021</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2281948029512679</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.031095516960874</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2299450175587316</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03126630984287919</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2316952321661953</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03145487706558164</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2334454467736589</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03166209848523721</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2351956613811226</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03188885395810176</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2369458759885862</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1077.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08334391969784559</v>
+        <v>0.06383055784136893</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03334391969784559</v>
+        <v>0.01383055784136892</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01371212984968442</v>
+        <v>0.009401486342168633</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>8.892865700822761e-05</v>
+        <v>0.001770747707216913</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006431780792897418</v>
+        <v>0.001629465803313664</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001928226626500433</v>
+        <v>0.003748035226794434</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007727204323518017</v>
+        <v>0.001636022404609299</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004999999999999977</v>
+        <v>0.01075721667280624</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008811728395061684</v>
+        <v>0.001640071885886653</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008821721476984623</v>
+        <v>0.02039276331329037</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007653322054046109</v>
+        <v>0.001940711308648134</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0003514799293115045</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001286356158579484</v>
+        <v>0.003133828780722877</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003700085562047047</v>
+        <v>0.006073965646978735</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001545440864703603</v>
+        <v>0.002890195320354048</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00790470683652636</v>
+        <v>0.01469637786943806</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001537246319262238</v>
+        <v>0.002506461100193886</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.02502990942714273</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001492810457516341</v>
+        <v>0.003272044809218598</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0007813017688276802</v>
+        <v>0.007102302280772174</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001929534237869225</v>
+        <v>0.004888397409940991</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005564754855528944</v>
+        <v>0.007803689564166549</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002318161297055405</v>
+        <v>0.004908067213827897</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01149852352355402</v>
+        <v>0.01888265373225526</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002305869478893357</v>
+        <v>0.00492021565765996</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0221106382181247</v>
+        <v>0.02930288227374672</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002295996616213833</v>
+        <v>0.004908067213827897</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.001372042127474611</v>
+        <v>0.01110091112470089</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002572712317158967</v>
+        <v>0.006517863213254655</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00677141255583525</v>
+        <v>0.008972939694068642</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003090881729407207</v>
+        <v>0.006544089618437196</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01463493609614785</v>
+        <v>0.02040989179141442</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003074492638524476</v>
+        <v>0.006560287543546614</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02832510744055972</v>
+        <v>0.03226942765762231</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003061328821618444</v>
+        <v>0.006544089618437196</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01253531512289152</v>
+        <v>0.003133828780722877</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.002117348957170168</v>
+        <v>0.01077085027751078</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003215890396448708</v>
+        <v>0.008147329016568318</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008</v>
+        <v>0.01012459952390347</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003806666666666667</v>
+        <v>0.008180112023046493</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01809781270800498</v>
+        <v>0.02239913401462415</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003843115798155594</v>
+        <v>0.008200359429433268</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03305558634222083</v>
+        <v>0.03469047379461432</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003826661027023055</v>
+        <v>0.008180112023046493</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.003010870209832206</v>
+        <v>0.01383055784136892</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003859068475738451</v>
+        <v>0.009401486342168633</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008755850312538553</v>
+        <v>0.01098522617690698</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00463632259411081</v>
+        <v>0.009816134427655793</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02097102151282254</v>
+        <v>0.02346072023392543</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004611738957786713</v>
+        <v>0.00984043131531992</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03710456682810714</v>
+        <v>0.03742694890056741</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004591993232427666</v>
+        <v>0.009816134427655793</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.004046253837378583</v>
+        <v>0.01532964484942673</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004502246555028192</v>
+        <v>0.01140626062319565</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009629100009832602</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005409043026462612</v>
+        <v>0.01070624999999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02323843066429757</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005380362117417832</v>
+        <v>0.01151209677419354</v>
       </c>
       <c r="N72" s="171" t="n">
         <v>0.03921685252555845</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005227082817949084</v>
+        <v>0.01070624999999999</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005217147791727175</v>
+        <v>0.01549024805342869</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005145424634317934</v>
+        <v>0.01303572642650931</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0103950048843527</v>
+        <v>0.01276473740178229</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006181763458814413</v>
+        <v>0.01308817923687439</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.0265897937905763</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006379334491462271</v>
+        <v>0.01312057508709323</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0407537260952085</v>
+        <v>0.04291968922340494</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006122657643236887</v>
+        <v>0.01308817923687439</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.006517200024795819</v>
+        <v>0.01659510123443029</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005788602713607675</v>
+        <v>0.01466519222982297</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01085893576802344</v>
+        <v>0.01355339157329506</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006954483891166215</v>
+        <v>0.01472420164148369</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02578178109817839</v>
+        <v>0.02883249954517947</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00691760843668007</v>
+        <v>0.01476064697297988</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04206577255219246</v>
+        <v>0.04579566807009855</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006887989848641499</v>
+        <v>0.01472420164148369</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007940058488502398</v>
+        <v>0.01764060118036288</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006431780792897417</v>
+        <v>0.01629465803313664</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.01442662787850447</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007790283882355921</v>
+        <v>0.01636022404609299</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02712325360141565</v>
+        <v>0.03060608598803072</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007686231596311189</v>
+        <v>0.01640071885886654</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0438383247742738</v>
+        <v>0.04885008091603432</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00765332205404611</v>
+        <v>0.01636022404609299</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009479371134764755</v>
+        <v>0.01862314467915789</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007074958872187159</v>
+        <v>0.0179241238364503</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01163844077213068</v>
+        <v>0.01537621375599127</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008499924755869819</v>
+        <v>0.01799624645070229</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02794151155349398</v>
+        <v>0.03218360811365431</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008454854755942307</v>
+        <v>0.01804079074475319</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04517163970329702</v>
+        <v>0.05184965437384254</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008418654259450721</v>
+        <v>0.01799624645070229</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01112878591550077</v>
+        <v>0.01853912851874669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007718136951476901</v>
+        <v>0.01955358963976396</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01214659528387315</v>
+        <v>0.01609391664433621</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00927264518822162</v>
+        <v>0.01963226885531159</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02883660050790554</v>
+        <v>0.03423812091657441</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009223477915573427</v>
+        <v>0.01968086263063984</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04706597428110648</v>
+        <v>0.05496111505615342</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009183986464855331</v>
+        <v>0.01963226885531159</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01288195078262828</v>
+        <v>0.01938494948706068</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008361315030766642</v>
+        <v>0.02118305544307763</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01265078179733681</v>
+        <v>0.01687150398211998</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01004536562057342</v>
+        <v>0.02126829125992089</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02960856601814235</v>
+        <v>0.03614267939131516</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009992101075204545</v>
+        <v>0.02132093451652649</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04862158544954687</v>
+        <v>0.05765118957559728</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009949318670259942</v>
+        <v>0.02126829125992089</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01473251368806516</v>
+        <v>0.02115700437203126</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009004493110056385</v>
+        <v>0.02281252124639129</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0130507637592058</v>
+        <v>0.01760074320792333</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01081808605292522</v>
+        <v>0.02290431366453018</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03075745363769652</v>
+        <v>0.03777033853240078</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01076072423483566</v>
+        <v>0.02296100640241315</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05013873015046233</v>
+        <v>0.06028660454480411</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01071465087566455</v>
+        <v>0.02290431366453018</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01667412258372927</v>
+        <v>0.02185168996158983</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009647671189346126</v>
+        <v>0.02444198704970495</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01344630461616438</v>
+        <v>0.01827340176032699</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01159080648527703</v>
+        <v>0.02454033606913948</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03198330892006013</v>
+        <v>0.03959415333435545</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01152934739446678</v>
+        <v>0.0246010782882998</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05101766532569746</v>
+        <v>0.06263408657640424</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01147998308106916</v>
+        <v>0.02454033606913948</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01870042542153848</v>
+        <v>0.02146540304366776</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01029084926863587</v>
+        <v>0.02607145285301862</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01363716781489671</v>
+        <v>0.0189812470779117</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01236352691762883</v>
+        <v>0.02617635847374878</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03268617741872532</v>
+        <v>0.04108717879170334</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0122979705540979</v>
+        <v>0.02624115017418645</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05265864791709657</v>
+        <v>0.06426036228302789</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01224531528647377</v>
+        <v>0.02617635847374878</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02080507015341063</v>
+        <v>0.02399454040619646</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01093402734792561</v>
+        <v>0.02770091865633228</v>
       </c>
       <c r="J82" t="n">
-        <v>0.014223116802087</v>
+        <v>0.01941604659925816</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01313624734998063</v>
+        <v>0.02781238087835808</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03346610468718411</v>
+        <v>0.04242246989896867</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01306659371372902</v>
+        <v>0.02788122206007311</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05426193486650421</v>
+        <v>0.06663215827730518</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01301064749187839</v>
+        <v>0.02781238087835808</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02298170473126358</v>
+        <v>0.02443549883710734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01157720542721535</v>
+        <v>0.02933038445964595</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01460391502441946</v>
+        <v>0.01976956776294712</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01390896778233243</v>
+        <v>0.02944840328296738</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03432313627892866</v>
+        <v>0.04337308165067558</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01383521687336014</v>
+        <v>0.02952129394595976</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05542778311576485</v>
+        <v>0.06761620117186645</v>
       </c>
       <c r="O83" t="n">
-        <v>0.013775979697283</v>
+        <v>0.02944840328296738</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02378923169307648</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01253531512289152</v>
+        <v>0.03095985026295961</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01477932592857831</v>
+        <v>0.02023357800755933</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01468168821468423</v>
+        <v>0.03108442568757668</v>
       </c>
       <c r="L84" t="n">
-        <v>0.035257317747451</v>
+        <v>0.04421206904134822</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01460384003299126</v>
+        <v>0.03116136583184641</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05605644960672285</v>
+        <v>0.06887921757934173</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01454131190268761</v>
+        <v>0.03108442568757668</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0281833392374078</v>
+        <v>0.02411519783811386</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01286356158579483</v>
+        <v>0.03258931606627327</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01534911296124768</v>
+        <v>0.02061721530747752</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01545440864703603</v>
+        <v>0.03272044809218597</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03616869464624328</v>
+        <v>0.04491556713481268</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01537246319262238</v>
+        <v>0.03280143771773307</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05734819128122259</v>
+        <v>0.06995150453142618</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01530664410809222</v>
+        <v>0.03272044809218597</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03334391969784559</v>
+        <v>0.02343109572551967</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01371212984968442</v>
+        <v>0.03421878186958693</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01571303956911183</v>
+        <v>0.02088622400172908</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01622712907938784</v>
+        <v>0.03435647049679528</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0366573125287975</v>
+        <v>0.04551928045361439</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0161410863522535</v>
+        <v>0.03444150960361972</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05880326508110867</v>
+        <v>0.07117204437293423</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01607197631349683</v>
+        <v>0.03435647049679528</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03399765868966609</v>
+        <v>0.02573479137891971</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01414991774437432</v>
+        <v>0.0358482476729006</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01597086919885493</v>
+        <v>0.02114631681366651</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01699984951173964</v>
+        <v>0.03599249290140458</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03762321694860585</v>
+        <v>0.04620493521071078</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01690970951188461</v>
+        <v>0.03608158148950637</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05982192794822538</v>
+        <v>0.07226207432733539</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01683730851890144</v>
+        <v>0.03599249290140458</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03489621082133912</v>
+        <v>0.02502415082193982</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01479309582366406</v>
+        <v>0.03747771347621427</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01642236529716118</v>
+        <v>0.02129570405102885</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01777256994409144</v>
+        <v>0.03762851530601388</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03816645345916034</v>
+        <v>0.04666854496707223</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01767833267151573</v>
+        <v>0.03772165337539303</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06130443682441722</v>
+        <v>0.07301547012033899</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01760264072430605</v>
+        <v>0.03762851530601388</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03572439432757098</v>
+        <v>0.02529704007820584</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0154362739029538</v>
+        <v>0.03910717927952793</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0166672913107148</v>
+        <v>0.02163259602155525</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01854529037644324</v>
+        <v>0.03926453771062317</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03908706761395314</v>
+        <v>0.0474061232836693</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01844695583114685</v>
+        <v>0.03936172526127968</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06215104865152876</v>
+        <v>0.07332610747765411</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01836797292971066</v>
+        <v>0.03926453771062317</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03648588287671575</v>
+        <v>0.02455132517134355</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01607945198224354</v>
+        <v>0.04073664508284159</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01710541068619997</v>
+        <v>0.02175520303298477</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01931801080879504</v>
+        <v>0.04090056011523247</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03988510496647629</v>
+        <v>0.04781368372147241</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01921557899077797</v>
+        <v>0.04100179714716633</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06266202037140423</v>
+        <v>0.07418786212499018</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01913330513511527</v>
+        <v>0.04090056011523247</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03718435013712762</v>
+        <v>0.02478487212497882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01672263006153328</v>
+        <v>0.04236611088615525</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01733648687030089</v>
+        <v>0.0220617353930566</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02009073124114684</v>
+        <v>0.04253658251984177</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04056061107022188</v>
+        <v>0.04828723984145208</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01998420215040909</v>
+        <v>0.04264186903305298</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06423760892588803</v>
+        <v>0.07499460978805639</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01989863734051988</v>
+        <v>0.04253658251984177</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0378234697771607</v>
+        <v>0.02699554696273744</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01736580814082303</v>
+        <v>0.04399557668946892</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01756028330970175</v>
+        <v>0.02215040340950979</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02086345167349865</v>
+        <v>0.04417260492445107</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04081363147868197</v>
+        <v>0.04872280520457878</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02075282531004021</v>
+        <v>0.04428194091893965</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0645780712568248</v>
+        <v>0.07544022619256202</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0206639695459245</v>
+        <v>0.04417260492445107</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03840691546516907</v>
+        <v>0.02718121570824525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01800898622011277</v>
+        <v>0.04562504249278258</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01787656345108678</v>
+        <v>0.02231941739008345</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02163617210585045</v>
+        <v>0.04580862732906037</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04154421174534872</v>
+        <v>0.04891639337182296</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02152144846967133</v>
+        <v>0.04592201280482629</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06598366430605895</v>
+        <v>0.07611858706421631</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02142930175132911</v>
+        <v>0.04580862732906037</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03893836086950692</v>
+        <v>0.0273397443851281</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01865216429940251</v>
+        <v>0.04725450829609625</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01828509074114015</v>
+        <v>0.02236698764251671</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02240889253820225</v>
+        <v>0.04744464973366967</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04225239742371423</v>
+        <v>0.04966401790415517</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02229007162930245</v>
+        <v>0.04756208469071295</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0664546450154348</v>
+        <v>0.0767235681287286</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02219463395673372</v>
+        <v>0.04744464973366967</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03942147965852832</v>
+        <v>0.02646899901701177</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01929534237869225</v>
+        <v>0.04888397409940991</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01858562862654606</v>
+        <v>0.02259132447454869</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02318161297055405</v>
+        <v>0.04908067213827896</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0428382340672705</v>
+        <v>0.04996169236254586</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02305869478893357</v>
+        <v>0.0492021565765996</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06749127032679675</v>
+        <v>0.07754904511180816</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02295996616213833</v>
+        <v>0.04908067213827896</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03985994550058744</v>
+        <v>0.02556684562752212</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01993852045798199</v>
+        <v>0.05051343990272358</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01887794055398871</v>
+        <v>0.02279063819391847</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02395433340290585</v>
+        <v>0.05071669454288827</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04330176722950962</v>
+        <v>0.05020543030796548</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02382731794856469</v>
+        <v>0.05084222846248626</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06809379718198943</v>
+        <v>0.07788889373916419</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02372529836754294</v>
+        <v>0.05071669454288827</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0402574320640384</v>
+        <v>0.02766111568273784</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02058169853727174</v>
+        <v>0.05214290570603724</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01916178997015233</v>
+        <v>0.02266313910836516</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02472705383525765</v>
+        <v>0.05235271694749757</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04404304246392382</v>
+        <v>0.05009124530138453</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02459594110819581</v>
+        <v>0.05248230034837291</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06906248252285718</v>
+        <v>0.07813698973650601</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02449063057294755</v>
+        <v>0.05235271694749757</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04061761301723528</v>
+        <v>0.02665977887892609</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02122487661656148</v>
+        <v>0.0537723715093509</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01933694032172109</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02549977426760945</v>
+        <v>0.05398873935210687</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04456210532400506</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02536456426782692</v>
+        <v>0.05412237223425956</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06959758329124444</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02525596277835216</v>
+        <v>0.05398873935210687</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04094416202853227</v>
+        <v>0.02565610429236041</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02186805469585122</v>
+        <v>0.05540183731266456</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01960315505537917</v>
+        <v>0.02272058533018297</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02627249469996126</v>
+        <v>0.05562476175671616</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04475900136324548</v>
+        <v>0.05017316067610289</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02613318742745804</v>
+        <v>0.05576244412014621</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07029935642899565</v>
+        <v>0.07833356901835609</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02602129498375677</v>
+        <v>0.05562476175671616</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04124075276628344</v>
+        <v>0.02663377325751867</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02251123277514096</v>
+        <v>0.05703130311597823</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01996019761781082</v>
+        <v>0.02291180459813889</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02704521513231306</v>
+        <v>0.05726078416132546</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04573377613513716</v>
+        <v>0.05026958079194438</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02690181058708916</v>
+        <v>0.05740251600603288</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07106805887795525</v>
+        <v>0.07780352161149928</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02678662718916138</v>
+        <v>0.05726078416132546</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04151105889884296</v>
+        <v>0.02759458533246285</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0231544108544307</v>
+        <v>0.05866076891929189</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02020783145570018</v>
+        <v>0.02268832329697953</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02781793556466486</v>
+        <v>0.05889680656593475</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04608647519317216</v>
+        <v>0.05043047033366405</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02767043374672028</v>
+        <v>0.05904258789191952</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07220394757996762</v>
+        <v>0.07832316928940142</v>
       </c>
       <c r="O101" t="n">
-        <v>0.027551959394566</v>
+        <v>0.05889680656593475</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04175875409456493</v>
+        <v>0.02653966518428262</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02379758893372044</v>
+        <v>0.06029023472260555</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0203458200157315</v>
+        <v>0.02285108464613828</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02859065599701667</v>
+        <v>0.06053282897054407</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04621714409084263</v>
+        <v>0.05055994625498339</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0284390569063514</v>
+        <v>0.06068265977780617</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07280727947687732</v>
+        <v>0.0781957397212279</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02831729159997061</v>
+        <v>0.06053282897054407</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04198751202180348</v>
+        <v>0.02747013748006762</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02444076701301019</v>
+        <v>0.06191970052591923</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02057392674458894</v>
+        <v>0.02270103186504845</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02936337642936846</v>
+        <v>0.06216885137515336</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0465258283816406</v>
+        <v>0.05006010952423345</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02920768006598252</v>
+        <v>0.06232273166369282</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07267831151052867</v>
+        <v>0.07742446057614427</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02908262380537521</v>
+        <v>0.06216885137515336</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04220100634891273</v>
+        <v>0.02538712688690752</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02508394509229993</v>
+        <v>0.06354916632923288</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02089191508895674</v>
+        <v>0.0227391081731434</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03013609686172026</v>
+        <v>0.06380487377976266</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04741257361905821</v>
+        <v>0.04983306110974539</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02997630322561364</v>
+        <v>0.06396280354957949</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07361730062276617</v>
+        <v>0.07711255952331608</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02984795601077982</v>
+        <v>0.06380487377976266</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04240291074424683</v>
+        <v>0.02529175807189198</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02572712317158967</v>
+        <v>0.06517863213254654</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02099954849551906</v>
+        <v>0.02246625678985649</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03090881729407207</v>
+        <v>0.06544089618437195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04767742535658753</v>
+        <v>0.04988090197985018</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03074492638524476</v>
+        <v>0.06560287543546614</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07412450375543422</v>
+        <v>0.07746326423190869</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03061328821618444</v>
+        <v>0.06544089618437195</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04259689887615987</v>
+        <v>0.02718515570211064</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02637030125087941</v>
+        <v>0.06680809793586021</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02129659041096013</v>
+        <v>0.02248342093462111</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03168153772642387</v>
+        <v>0.06707691858898125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04792042914772066</v>
+        <v>0.049605733102879</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03151354954487588</v>
+        <v>0.06724294732135279</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07490017785037734</v>
+        <v>0.07717980237108768</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03137862042158905</v>
+        <v>0.06707691858898125</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04278664441300603</v>
+        <v>0.02606844444465317</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02701347933016915</v>
+        <v>0.06843756373917387</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02158280428196412</v>
+        <v>0.02229154382687054</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03245425815877567</v>
+        <v>0.06871294099359056</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04824163054594965</v>
+        <v>0.04950965544716285</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03228217270450699</v>
+        <v>0.06888301920723944</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07524457984943989</v>
+        <v>0.07646540161001847</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03214395262699366</v>
+        <v>0.06871294099359056</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04297582102313938</v>
+        <v>0.02594274896660921</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0276566574094589</v>
+        <v>0.07006702954248754</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02155795355521523</v>
+        <v>0.02219156868603818</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03322697859112747</v>
+        <v>0.07034896339819985</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04874107510476666</v>
+        <v>0.04919476998103287</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03305079586413812</v>
+        <v>0.07052309109312609</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07525796669446633</v>
+        <v>0.07612328961786663</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03290928483239827</v>
+        <v>0.07034896339819985</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04316810237491404</v>
+        <v>0.02480919393506846</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02829983548874863</v>
+        <v>0.07169649534580121</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0219218016773977</v>
+        <v>0.02218443873155737</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03399969902347928</v>
+        <v>0.07198498580280915</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04861880837766369</v>
+        <v>0.04936317767282014</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03381941902376923</v>
+        <v>0.07216316297901275</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07564059532730111</v>
+        <v>0.07595669406379763</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03367461703780288</v>
+        <v>0.07198498580280915</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04336716213668419</v>
+        <v>0.02666890401712053</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02894301356803838</v>
+        <v>0.07332596114911487</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02207411209519568</v>
+        <v>0.02197109718286146</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03477241945583107</v>
+        <v>0.07362100820741845</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04877487591813293</v>
+        <v>0.04861697949085572</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03458804218340035</v>
+        <v>0.07380323486489941</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07649272268978863</v>
+        <v>0.07556884261697699</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03443994924320749</v>
+        <v>0.07362100820741845</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04357143635170468</v>
+        <v>0.02452300387985511</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02958619164732812</v>
+        <v>0.07495542695242853</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02201464825529338</v>
+        <v>0.02195248725938383</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03554513988818288</v>
+        <v>0.07525703061202775</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04910932327966638</v>
+        <v>0.04865827640347073</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03535666534303147</v>
+        <v>0.07544330675078606</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07671460572377337</v>
+        <v>0.0747629629465702</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0352052814486121</v>
+        <v>0.07525703061202775</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04377419951121861</v>
+        <v>0.02637261819036182</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03022936972661786</v>
+        <v>0.07658489275574219</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02234317360437503</v>
+        <v>0.02192955218055778</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03631786032053468</v>
+        <v>0.07689305301663706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04922219601575623</v>
+        <v>0.04828916937899622</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03612528850266259</v>
+        <v>0.07708337863667271</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07640650137109978</v>
+        <v>0.07444228272174269</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03597061365401671</v>
+        <v>0.07689305301663706</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04397527905606795</v>
+        <v>0.02421887161573036</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0308725478059076</v>
+        <v>0.07821435855905585</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02225945158912478</v>
+        <v>0.02160323516581671</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03709058075288648</v>
+        <v>0.07852907542124635</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04951353967989444</v>
+        <v>0.04781175938576329</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03689391166229371</v>
+        <v>0.07872345052255936</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0772686665736122</v>
+        <v>0.07461002961166002</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03673594585942132</v>
+        <v>0.07852907542124635</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04417459038012056</v>
+        <v>0.02406288882305035</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03151572588519734</v>
+        <v>0.07984382436236952</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02246324565622687</v>
+        <v>0.02147447943459395</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03786330118523829</v>
+        <v>0.08016509782585564</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04958339982557325</v>
+        <v>0.04762814739210303</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03766253482192482</v>
+        <v>0.08036352240844602</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07710135827315512</v>
+        <v>0.07366943128548764</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03750127806482594</v>
+        <v>0.08016509782585564</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0443720488772443</v>
+        <v>0.02590579447941148</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03215890396448708</v>
+        <v>0.08147329016568318</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02265431925236548</v>
+        <v>0.02134422820632285</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03863602161759008</v>
+        <v>0.08180112023046494</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05023182200628462</v>
+        <v>0.04744043436634648</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03843115798155595</v>
+        <v>0.08200359429433267</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07770483341157308</v>
+        <v>0.07332371541239108</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03826661027023055</v>
+        <v>0.08180112023046494</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04456756994130706</v>
+        <v>0.02574871325190338</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03280208204377683</v>
+        <v>0.08310275596899686</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02263243582422479</v>
+        <v>0.02121342470043677</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03940874204994189</v>
+        <v>0.08343714263507424</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05035885177552069</v>
+        <v>0.04735072127682477</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03919978114118707</v>
+        <v>0.08364366618021932</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07767934893071032</v>
+        <v>0.07307610966153594</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03903194247563516</v>
+        <v>0.08343714263507424</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04476106896617668</v>
+        <v>0.02559276980761571</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03344526012306657</v>
+        <v>0.0847322217723105</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02259735881848905</v>
+        <v>0.02118301213636907</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04018146248229369</v>
+        <v>0.08507316503968354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04996453468677356</v>
+        <v>0.04716110909186896</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03996840430081818</v>
+        <v>0.08528373806610597</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07752516177241153</v>
+        <v>0.07272984170208746</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03979727468103977</v>
+        <v>0.08507316503968354</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04495246134572103</v>
+        <v>0.02443653842179315</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03408843820235631</v>
+        <v>0.08636168757562417</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02274885168184242</v>
+        <v>0.02115393373355311</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04095418291464549</v>
+        <v>0.08670918744429285</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05024891629353534</v>
+        <v>0.04637369877981018</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0407370274604493</v>
+        <v>0.08692380995199263</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07784252887852094</v>
+        <v>0.07198813920321129</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04056260688644438</v>
+        <v>0.08670918744429285</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04514166247380801</v>
+        <v>0.02326066301787628</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03473161628164605</v>
+        <v>0.08799115337893784</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02268667786096912</v>
+        <v>0.02091888506085493</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04172690334699729</v>
+        <v>0.08834520984890214</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05051204214929808</v>
+        <v>0.04628460025544692</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04150565062008042</v>
+        <v>0.08856388183787929</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07763170719088314</v>
+        <v>0.07132600661635446</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04132793909184899</v>
+        <v>0.08834520984890214</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04532858774430544</v>
+        <v>0.02306387019585181</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0353747943609358</v>
+        <v>0.0896206191822515</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02066491036740659</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04249962377934909</v>
+        <v>0.08998123225351144</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05065395780755386</v>
+        <v>0.04625780780265862</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04227427377971154</v>
+        <v>0.09020395372376594</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07789295365134236</v>
+        <v>0.07099910974301171</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04209327129725361</v>
+        <v>0.08998123225351144</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04551315255108122</v>
+        <v>0.0228498242555351</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03601797244022554</v>
+        <v>0.09125008498556517</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02292038395327924</v>
+        <v>0.02069475056636368</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0432723442117009</v>
+        <v>0.09161725465812073</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.04589261914195544</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04304289693934266</v>
+        <v>0.09184402560965259</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07031682790740451</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04285860350265822</v>
+        <v>0.09161725465812073</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0456952722880032</v>
+        <v>0.02362218949674166</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03666115051951528</v>
+        <v>0.09287955078887883</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02271643093231372</v>
+        <v>0.020511478779388</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04404506464405269</v>
+        <v>0.09325327706273004</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05057506158118621</v>
+        <v>0.04509587947929983</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04381152009897377</v>
+        <v>0.09348409749553924</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07783162023380769</v>
+        <v>0.06968967724149439</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04362393570806283</v>
+        <v>0.09325327706273004</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04587486234893923</v>
+        <v>0.02338463021928686</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03730432859880502</v>
+        <v>0.09450901659219249</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0228001773707068</v>
+        <v>0.02021816812814137</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04481778507640449</v>
+        <v>0.09488929946733933</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05015924853706999</v>
+        <v>0.04477443402065415</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0445801432586049</v>
+        <v>0.0951241693814259</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07788946470841956</v>
+        <v>0.0688281738772426</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04438926791346744</v>
+        <v>0.09488929946733933</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04605183812775722</v>
+        <v>0.02414081072298616</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03794750667809476</v>
+        <v>0.09613848239550615</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02287218948617326</v>
+        <v>0.01991789173428557</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0455905055087563</v>
+        <v>0.09652532187194864</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05042832155117141</v>
+        <v>0.04413512797198074</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04534876641823601</v>
+        <v>0.09676424126731255</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07769492741990502</v>
+        <v>0.0683428339466105</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04515460011887205</v>
+        <v>0.09652532187194864</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04622611501832499</v>
+        <v>0.02389439530765498</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0385906847573845</v>
+        <v>0.09776794819881982</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02273300571488693</v>
+        <v>0.01971372271948246</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0463632259411081</v>
+        <v>0.09816134427655793</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05018272137433802</v>
+        <v>0.04378480653924205</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04611738957786713</v>
+        <v>0.0984043131531992</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0775504513090125</v>
+        <v>0.06764417358155944</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04591993232427666</v>
+        <v>0.09816134427655793</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04639760841451045</v>
+        <v>0.02264904827310879</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03923386283667425</v>
+        <v>0.09939741400213348</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02278316449302173</v>
+        <v>0.01950873420539381</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04713594637345991</v>
+        <v>0.09979736668116723</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05052288875741742</v>
+        <v>0.04323031492840049</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04688601273749825</v>
+        <v>0.1000443850390859</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07795847931649069</v>
+        <v>0.06694270891405069</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04668526452968127</v>
+        <v>0.09979736668116723</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04656623371018143</v>
+        <v>0.02140843391916301</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03987704091596398</v>
+        <v>0.1010268798054472</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0226232042567515</v>
+        <v>0.01940599931368145</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0479086668058117</v>
+        <v>0.1014333890857765</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05014926445125717</v>
+        <v>0.04327849834541836</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04765463589712937</v>
+        <v>0.1016844569249725</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07762145438308815</v>
+        <v>0.06644895607604567</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04745059673508588</v>
+        <v>0.1014333890857765</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0467319062992058</v>
+        <v>0.02217621654563307</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04052021899525373</v>
+        <v>0.1026563456087608</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02265366344225017</v>
+        <v>0.01910859116600717</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04868138723816351</v>
+        <v>0.1030694114903858</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0503622892067048</v>
+        <v>0.04273620199625816</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04842325905676049</v>
+        <v>0.1033245288108592</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07694181944955353</v>
+        <v>0.06607343119950571</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04821592894049049</v>
+        <v>0.1030694114903858</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04689454157545148</v>
+        <v>0.02295414196023733</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04116339707454347</v>
+        <v>0.1042858114120745</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02247508048569155</v>
+        <v>0.0191195828840328</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04945410767051531</v>
+        <v>0.1047054338949951</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0501624037746079</v>
+        <v>0.04191027108688219</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04919188221639161</v>
+        <v>0.1049646006967458</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07682201745663536</v>
+        <v>0.06512665041639204</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0489812611458951</v>
+        <v>0.1047054338949951</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04705405493278625</v>
+        <v>0.02171746798354872</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04180657515383322</v>
+        <v>0.1059152772153881</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02228799382324954</v>
+        <v>0.01873219906743502</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0502268281028671</v>
+        <v>0.1063414562996044</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05005004890581402</v>
+        <v>0.04200052462374113</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04996050537602273</v>
+        <v>0.1066046725826325</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07646449134508237</v>
+        <v>0.06418542850602971</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04974659335129971</v>
+        <v>0.1063414562996044</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04721036176507802</v>
+        <v>0.02046162264969136</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04244975323312296</v>
+        <v>0.1075447430187018</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02239294189109803</v>
+        <v>0.01872737357508217</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05099954853521891</v>
+        <v>0.1079774787042137</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04972566535117076</v>
+        <v>0.04115891984081579</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05072912853565385</v>
+        <v>0.1082447444685191</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07617168405564317</v>
+        <v>0.06338452169410719</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05051192555670432</v>
+        <v>0.1079774787042137</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04736337746619468</v>
+        <v>0.02219185140492451</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04309293131241269</v>
+        <v>0.1091742088220155</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02209046312541087</v>
+        <v>0.01840857087298517</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05177226896757071</v>
+        <v>0.109613501108823</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04968969386152564</v>
+        <v>0.04058304062679274</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05149775169528497</v>
+        <v>0.1098848163544058</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07564603852906621</v>
+        <v>0.06333578528144113</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05127725776210893</v>
+        <v>0.109613501108823</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04751301743000406</v>
+        <v>0.01991339969550743</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04373610939170244</v>
+        <v>0.1108036746253291</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02218109596236195</v>
+        <v>0.01818019013570321</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05254498939992252</v>
+        <v>0.1112495235134323</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04954257518772623</v>
+        <v>0.04048268589601239</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05226637485491609</v>
+        <v>0.1115248882402924</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07488999770610028</v>
+        <v>0.06185427311401492</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05204258996751355</v>
+        <v>0.1112495235134323</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04765919705037404</v>
+        <v>0.02163151296769934</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04437928747099218</v>
+        <v>0.1124331404286428</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02186537883812512</v>
+        <v>0.01784663053779542</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05331770983227432</v>
+        <v>0.1128855459180416</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04918475008062012</v>
+        <v>0.04006765456281522</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0530349980145472</v>
+        <v>0.1131649601261791</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07470600452749376</v>
+        <v>0.06125503903781199</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05280792217291816</v>
+        <v>0.1128855459180416</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04780183172117249</v>
+        <v>0.02135143666775954</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04502246555028192</v>
+        <v>0.1140626062319565</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02184385018887428</v>
+        <v>0.01761229125382097</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05409043026462612</v>
+        <v>0.1145215683226509</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04921665929105487</v>
+        <v>0.0390477455415417</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05380362117417833</v>
+        <v>0.1148050320120658</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07449650193399548</v>
+        <v>0.06045313689881571</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05357325437832277</v>
+        <v>0.1145215683226509</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04794083683626725</v>
+        <v>0.01907841624194728</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04566564362957166</v>
+        <v>0.1156920720352701</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02171704845078329</v>
+        <v>0.01758157145833905</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05486315069697791</v>
+        <v>0.1161575907272602</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04893874356987804</v>
+        <v>0.03873275774653234</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05457224433380944</v>
+        <v>0.1164451038979524</v>
       </c>
       <c r="N136" t="n">
-        <v>0.073963932866354</v>
+        <v>0.05976362054300938</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05433858658372738</v>
+        <v>0.1161575907272602</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04807612778952622</v>
+        <v>0.0198176971365218</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0463088217088614</v>
+        <v>0.1173215378385838</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02148551206002602</v>
+        <v>0.01725887032590875</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05563587112932972</v>
+        <v>0.1177936131318695</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04865144366793711</v>
+        <v>0.0381324900921276</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05534086749344056</v>
+        <v>0.118085175783839</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07291074026531785</v>
+        <v>0.05880154381637637</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05510391878913199</v>
+        <v>0.1177936131318695</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04820761997481726</v>
+        <v>0.02057452479774236</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04695199978815114</v>
+        <v>0.1189510036418975</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02154977945277636</v>
+        <v>0.01704858703108925</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05640859156168152</v>
+        <v>0.1194296355364788</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04885520033607979</v>
+        <v>0.03765674149266796</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05610949065307168</v>
+        <v>0.1197252476697257</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07233936707163574</v>
+        <v>0.05808196056490011</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0558692509945366</v>
+        <v>0.1194296355364788</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04833522878600822</v>
+        <v>0.02035414467186822</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04759517786744089</v>
+        <v>0.1205804694452111</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02121038906520817</v>
+        <v>0.01675512074843971</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05718131199403333</v>
+        <v>0.1210656579410881</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04845045432515357</v>
+        <v>0.03751531086249391</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0568781138127028</v>
+        <v>0.1213653195556123</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07225225622605613</v>
+        <v>0.05761992463456389</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05663458319994121</v>
+        <v>0.1210656579410881</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04845886961696698</v>
+        <v>0.01916180220515865</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04823835594673063</v>
+        <v>0.1222099352485248</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02106787933349534</v>
+        <v>0.01658287065251929</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05795403242638512</v>
+        <v>0.1227016803456974</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04813764638600604</v>
+        <v>0.03721799711594581</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05764673697233391</v>
+        <v>0.123005391441499</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07165185066932778</v>
+        <v>0.05743048987135119</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05739991540534582</v>
+        <v>0.1227016803456974</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04857845786156141</v>
+        <v>0.02000274284387286</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04888153402602037</v>
+        <v>0.1238394010518385</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02102278869381172</v>
+        <v>0.01643623591788712</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05872675285873693</v>
+        <v>0.1243377027503067</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04781721726948468</v>
+        <v>0.03637459916736427</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05841536013196504</v>
+        <v>0.1246454633273856</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0710405933421992</v>
+        <v>0.05662871012124521</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05816524761075043</v>
+        <v>0.1243377027503067</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04869390891365935</v>
+        <v>0.01788221203427016</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04952471210531011</v>
+        <v>0.1254688668551521</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02087565558233119</v>
+        <v>0.01651961571910239</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05949947329108873</v>
+        <v>0.125973725154916</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04758960772643717</v>
+        <v>0.03609491593108977</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05918398329159615</v>
+        <v>0.1262855352132723</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0698209271854191</v>
+        <v>0.05602963923022958</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05893057981615504</v>
+        <v>0.125973725154916</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04880513816712871</v>
+        <v>0.01980545522260978</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05016789018459986</v>
+        <v>0.1270983326584658</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02062701843522764</v>
+        <v>0.01633740923072423</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06027219372344052</v>
+        <v>0.1276097475595253</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04745525850771101</v>
+        <v>0.03638874632146269</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05995260645122728</v>
+        <v>0.127925607099159</v>
       </c>
       <c r="N143" t="n">
-        <v>0.069095295139736</v>
+        <v>0.05604833104428752</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05969591202155965</v>
+        <v>0.1276097475595253</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04891206101583731</v>
+        <v>0.01977771785515098</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0508110682638896</v>
+        <v>0.1287277984617794</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02057741568867494</v>
+        <v>0.01629401562731179</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06104491415579233</v>
+        <v>0.1292457699641346</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04731461036415377</v>
+        <v>0.03586588925282352</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06072122961085839</v>
+        <v>0.1295656789850456</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06886614014589848</v>
+        <v>0.05589983940940241</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06046124422696427</v>
+        <v>0.1292457699641346</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04901459285365305</v>
+        <v>0.01878139239298973</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05145424634317933</v>
+        <v>0.1303572642650931</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02032738577884695</v>
+        <v>0.01628904250351929</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06181763458814413</v>
+        <v>0.1308817923687439</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04726810404661302</v>
+        <v>0.03593445764171607</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06148985277048951</v>
+        <v>0.1312057508709323</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06793590514465525</v>
+        <v>0.05578282152601943</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06122657643236888</v>
+        <v>0.1308817923687439</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04911264907444376</v>
+        <v>0.018792642887872</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05209742442246908</v>
+        <v>0.1319867300684068</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02027746714191754</v>
+        <v>0.0163954438255336</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06259035502049594</v>
+        <v>0.1325178147733532</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04671618030593633</v>
+        <v>0.03614451507192007</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06225847593012063</v>
+        <v>0.1328458227568189</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06760703307675481</v>
+        <v>0.05610472666172106</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06199190863777349</v>
+        <v>0.1325178147733532</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04920614507207735</v>
+        <v>0.01981106670528548</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05274060250175882</v>
+        <v>0.1336161958717204</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02022819821406062</v>
+        <v>0.01640798992083914</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06336307545284774</v>
+        <v>0.1341538371779625</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04675927989297124</v>
+        <v>0.03606843562459869</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06302709908975175</v>
+        <v>0.1344858946427056</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06658196688294588</v>
+        <v>0.05614765903093771</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0627572408431781</v>
+        <v>0.1341538371779625</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04929499624042169</v>
+        <v>0.01983627841174979</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05338378058104856</v>
+        <v>0.1352456616750341</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02008011743145002</v>
+        <v>0.01622635753969177</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06413579588519953</v>
+        <v>0.1357898595825718</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04619784355856535</v>
+        <v>0.03610549927909573</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06379572224938287</v>
+        <v>0.1361259665285922</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06646314950397697</v>
+        <v>0.05601051248255035</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06352257304858271</v>
+        <v>0.1357898595825718</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04937911797334457</v>
+        <v>0.01986789257378453</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0540269586603383</v>
+        <v>0.1368751274783477</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01993376323025962</v>
+        <v>0.01625022343234742</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06490851631755135</v>
+        <v>0.1374258819871811</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04593231205356621</v>
+        <v>0.03635498601475484</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06456434540901398</v>
+        <v>0.1377660384144789</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06555302388059681</v>
+        <v>0.05599218086543944</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06428790525398732</v>
+        <v>0.1374258819871811</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04945842566471396</v>
+        <v>0.01790552375790937</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05467013673962805</v>
+        <v>0.1385045932816614</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01958967404666334</v>
+        <v>0.0164792643490619</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06568123674990314</v>
+        <v>0.1390619043917904</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04546312612882134</v>
+        <v>0.03631617581091973</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06533296856864511</v>
+        <v>0.1394061103003655</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06525403295355386</v>
+        <v>0.05629155802848612</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06505323745939193</v>
+        <v>0.1390619043917904</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04953283470839764</v>
+        <v>0.01894878653064387</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05531331481891779</v>
+        <v>0.1401340590849751</v>
       </c>
       <c r="J151" t="n">
-        <v>0.019448388316835</v>
+        <v>0.01651315704009111</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06645395718225494</v>
+        <v>0.1406979267963997</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04529072653517838</v>
+        <v>0.03648834864693409</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06610159172827623</v>
+        <v>0.1410461821862522</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06446861966359679</v>
+        <v>0.05590753782057095</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06581856966479654</v>
+        <v>0.1406979267963997</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04960226049826352</v>
+        <v>0.01899729545850767</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05595649289820753</v>
+        <v>0.1417635248882887</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01941044447694849</v>
+        <v>0.01655157825569092</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06722667761460675</v>
+        <v>0.142333949201009</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04521555402348484</v>
+        <v>0.03607078450214157</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06687021488790734</v>
+        <v>0.1426862540721388</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06399922695147425</v>
+        <v>0.05613901409057481</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06658390187020115</v>
+        <v>0.142333949201009</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04966661842817946</v>
+        <v>0.01805066510802041</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05659967097749727</v>
+        <v>0.1433929906916024</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01917638096317768</v>
+        <v>0.0165942047461172</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06799939804695855</v>
+        <v>0.1439699716056183</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04463804934458832</v>
+        <v>0.03646276335588597</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06763883804753845</v>
+        <v>0.1443263259580255</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06374829775793484</v>
+        <v>0.05658488068737838</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06734923407560577</v>
+        <v>0.1439699716056183</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04972582389201333</v>
+        <v>0.02010851004570169</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05724284905678701</v>
+        <v>0.1450224564949161</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01904673621169647</v>
+        <v>0.01654071326162582</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06877211847931035</v>
+        <v>0.1456059940102276</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04445865324933634</v>
+        <v>0.03656356518751086</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06840746120716958</v>
+        <v>0.1459663978439122</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06281827502372705</v>
+        <v>0.05634403145986255</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06811456628101037</v>
+        <v>0.1456059940102276</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04977979228363297</v>
+        <v>0.01817044483807112</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05788602713607675</v>
+        <v>0.1466519222982297</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01912204865867873</v>
+        <v>0.01649078055247266</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06954483891166215</v>
+        <v>0.1472420164148369</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04447780648857655</v>
+        <v>0.03637246997636004</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0691760843668007</v>
+        <v>0.1476064697297988</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06241160168959964</v>
+        <v>0.057115360256908</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06887989848641499</v>
+        <v>0.1472420164148369</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0498284389969063</v>
+        <v>0.02023608405164833</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0585292052153665</v>
+        <v>0.1482813881015434</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01900285674029831</v>
+        <v>0.0165440833689136</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07031755934401396</v>
+        <v>0.1488780388194462</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04389594981315637</v>
+        <v>0.03698875770177712</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06994470752643182</v>
+        <v>0.1492465416156855</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06203072069630122</v>
+        <v>0.05659776092739555</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06964523069181959</v>
+        <v>0.1488780388194462</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04987167942570113</v>
+        <v>0.02033201513582548</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05917238329465624</v>
+        <v>0.1499108539048571</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01878969889272906</v>
+        <v>0.01680661000176199</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07109027977636576</v>
+        <v>0.1505140612240555</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04391352397392351</v>
+        <v>0.03711446473973992</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07071333068606293</v>
+        <v>0.1508866135015721</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06147807498458024</v>
+        <v>0.05751172522640235</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07041056289722421</v>
+        <v>0.1505140612240555</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04990942896388535</v>
+        <v>0.02048944191805699</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05981556137394598</v>
+        <v>0.1515403197081707</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01858112216974218</v>
+        <v>0.01691673143680308</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07186300020871755</v>
+        <v>0.1521500836286648</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04331409848965287</v>
+        <v>0.03702803277446901</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07148195384569406</v>
+        <v>0.1525266853874588</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06124974804342842</v>
+        <v>0.05788855753898398</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07117589510262883</v>
+        <v>0.1521500836286648</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04994160300532682</v>
+        <v>0.01869703323057392</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06045873945323572</v>
+        <v>0.1531697855114844</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01867386852551001</v>
+        <v>0.0169729008808918</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07263572064106937</v>
+        <v>0.1537861060332741</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04317124354337443</v>
+        <v>0.03734960564654077</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07225057700532518</v>
+        <v>0.1541667572733454</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06043541164947397</v>
+        <v>0.05792296478448133</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07194122730803343</v>
+        <v>0.1537861060332741</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04996811694389343</v>
+        <v>0.01994315376688049</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06110191753252547</v>
+        <v>0.154799251314798</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0185677806453252</v>
+        <v>0.01716536020444399</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07340844107342116</v>
+        <v>0.1554221284378834</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04268709049115579</v>
+        <v>0.03785744767017313</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07301920016495629</v>
+        <v>0.1558068291592321</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06003379564928513</v>
+        <v>0.05868155493039606</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07270655951343805</v>
+        <v>0.1554221284378834</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04998888617345301</v>
+        <v>0.02121616822048078</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06174509561181521</v>
+        <v>0.1564287171181117</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01826275869104663</v>
+        <v>0.01748435127787548</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07418116150577296</v>
+        <v>0.1570581508424927</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04216420936803936</v>
+        <v>0.03842982315958401</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07378782332458741</v>
+        <v>0.1574469010451187</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05994379090637875</v>
+        <v>0.05983093594422967</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07347189171884265</v>
+        <v>0.1570581508424927</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05000382608787346</v>
+        <v>0.01950444128487897</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06238827369110495</v>
+        <v>0.1580581829214254</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01815870282453314</v>
+        <v>0.01772011597160213</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07495388193812476</v>
+        <v>0.158694173247102</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04210517020906748</v>
+        <v>0.03894499642899138</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07455644648421852</v>
+        <v>0.1590869729310054</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05956428828427135</v>
+        <v>0.05993771579348389</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07423722392424727</v>
+        <v>0.158694173247102</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05001285208102262</v>
+        <v>0.02179633765357922</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06303145177039468</v>
+        <v>0.159687648724739</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0182555132076436</v>
+        <v>0.01786289615603984</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07572660237047657</v>
+        <v>0.1603301956517113</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04141254304928249</v>
+        <v>0.03928123179261314</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07532506964384965</v>
+        <v>0.160727044816892</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05889417864647983</v>
+        <v>0.06086850244566017</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07500255612965187</v>
+        <v>0.1603301956517113</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05001587954676838</v>
+        <v>0.02208022202008569</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06367462984968443</v>
+        <v>0.1613171145280527</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01815309000223683</v>
+        <v>0.01800293370160441</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07649932280282837</v>
+        <v>0.1619662180563206</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04058889792372669</v>
+        <v>0.04001679356466717</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07609369280348077</v>
+        <v>0.1623671167027787</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05863235285652096</v>
+        <v>0.06198990386826009</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07576788833505649</v>
+        <v>0.1619662180563206</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05001587954676838</v>
+        <v>0.02034445907790253</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06367462984968443</v>
+        <v>0.1629465803313664</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01795133337017173</v>
+        <v>0.01843047047871174</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07727204323518017</v>
+        <v>0.1636022404609299</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04043680486744253</v>
+        <v>0.04052994605937141</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0768623159631119</v>
+        <v>0.1640071885886653</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0584777017779114</v>
+        <v>0.06306852802878538</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07653322054046109</v>
+        <v>0.1636022404609299</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04915040038377649</v>
+        <v>0.02157741352053387</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06367436132122041</v>
+        <v>0.16457604613468</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01795014347330712</v>
+        <v>0.01853574835777766</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07804476366753198</v>
+        <v>0.1652382628655392</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03955883391547227</v>
+        <v>0.04109895359094382</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07763093912274301</v>
+        <v>0.165647260474552</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05762911627416789</v>
+        <v>0.06357098289473756</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07729855274586571</v>
+        <v>0.1652382628655392</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04829477137711827</v>
+        <v>0.02078309114400878</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0636740927927564</v>
+        <v>0.1662055119379937</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01784942047350187</v>
+        <v>0.0186127137836144</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07881748409988378</v>
+        <v>0.1668742852701485</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0392575551028583</v>
+        <v>0.04150395247740715</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07839956228237413</v>
+        <v>0.1672873323604386</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05728548720880722</v>
+        <v>0.06407655337826912</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07806388495127031</v>
+        <v>0.1668742852701485</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04744949331528352</v>
+        <v>0.02098324753024562</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06367382426429237</v>
+        <v>0.1678349777413073</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01764906453261482</v>
+        <v>0.01898085562898205</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07959020453223557</v>
+        <v>0.1685103076747578</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03873553846464298</v>
+        <v>0.04167890125372184</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07916818544200525</v>
+        <v>0.1689274042463253</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05754570544534604</v>
+        <v>0.0649519298288937</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07882921715667493</v>
+        <v>0.1685103076747578</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04661506698687219</v>
+        <v>0.02117864446222711</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06367355573582836</v>
+        <v>0.169464443544621</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01764897581250484</v>
+        <v>0.0191449027841315</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08036292496458737</v>
+        <v>0.1701463300793671</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03809535403586861</v>
+        <v>0.0421445884183427</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07993680860163636</v>
+        <v>0.1705674761322119</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05710866184730107</v>
+        <v>0.06511329436999636</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07959454936207953</v>
+        <v>0.1701463300793671</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04579199318037365</v>
+        <v>0.02236965104689508</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06367328720736434</v>
+        <v>0.1710939093479347</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01754905447503077</v>
+        <v>0.01910516480630305</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08113564539693918</v>
+        <v>0.1717823524839764</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03703957185157761</v>
+        <v>0.04240170349264236</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08070543176126747</v>
+        <v>0.1722075480180986</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0564732472781892</v>
+        <v>0.06576170629735056</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08035988156748415</v>
+        <v>0.1717823524839764</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04498077268431423</v>
+        <v>0.02355663639119131</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06367301867890034</v>
+        <v>0.1727233751512483</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01724920068205149</v>
+        <v>0.01936195125273694</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08190836582929098</v>
+        <v>0.1734183748885857</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03667076194681229</v>
+        <v>0.04275093599799359</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0814740549208986</v>
+        <v>0.1738476199039853</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05623835260152704</v>
+        <v>0.06609822490673012</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08112521377288875</v>
+        <v>0.1734183748885857</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04418190628718585</v>
+        <v>0.02173996960205762</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0636727501504363</v>
+        <v>0.174352840954562</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01724931459542584</v>
+        <v>0.01941557168067345</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08268108626164278</v>
+        <v>0.175054397293195</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03589149435661501</v>
+        <v>0.04309297545576912</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08224267808052972</v>
+        <v>0.1754876917898719</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05560286868083142</v>
+        <v>0.06692390949390864</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08189054597829337</v>
+        <v>0.175054397293195</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04339589477758439</v>
+        <v>0.02392001978643579</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0636724816219723</v>
+        <v>0.1759823067578757</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01714929637701267</v>
+        <v>0.01956633564735283</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08345380669399459</v>
+        <v>0.1766904196978043</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03540433911602814</v>
+        <v>0.04342851138734169</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08301130124016085</v>
+        <v>0.1771277636757586</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05566568637961894</v>
+        <v>0.06723981935465967</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08265587818369799</v>
+        <v>0.1766904196978043</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0426232389440012</v>
+        <v>0.02209715605126766</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06367221309350828</v>
+        <v>0.1776117725611893</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01694904618867082</v>
+        <v>0.01991455271001537</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08422652712634637</v>
+        <v>0.1783264421024136</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03461186626009399</v>
+        <v>0.04375823331408393</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08377992439979196</v>
+        <v>0.1787678355616452</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05502569656140649</v>
+        <v>0.06764701378475707</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08342121038910259</v>
+        <v>0.1783264421024136</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04186443957496261</v>
+        <v>0.02427174750349501</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06367194456504426</v>
+        <v>0.179241238364503</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01704846419225919</v>
+        <v>0.02006053242590133</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08499924755869818</v>
+        <v>0.1799624645070229</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03351664582385494</v>
+        <v>0.04388283075736865</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08454854755942308</v>
+        <v>0.1804079074475319</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0550817900897107</v>
+        <v>0.0684465520799743</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08418654259450721</v>
+        <v>0.1799624645070229</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04111999745896294</v>
+        <v>0.02344416325005963</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06367167603658024</v>
+        <v>0.1808707041678167</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01694745054963659</v>
+        <v>0.02010458435225095</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08577196799104998</v>
+        <v>0.1815984869116322</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03312124784235329</v>
+        <v>0.04430299323856854</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0853171707190542</v>
+        <v>0.1820479793334185</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05433285782804825</v>
+        <v>0.06853949353608507</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08495187479991181</v>
+        <v>0.1815984869116322</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04039041338459336</v>
+        <v>0.02361477239790336</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06367140750811622</v>
+        <v>0.1825001699711303</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01674590542266188</v>
+        <v>0.02014701804630455</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08654468842340179</v>
+        <v>0.1832345093162415</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03252824235063145</v>
+        <v>0.04451941027905626</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08608579387868531</v>
+        <v>0.1836880512193052</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05407779063993601</v>
+        <v>0.06932689744886295</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08571720700531643</v>
+        <v>0.1832345093162415</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03967618814034751</v>
+        <v>0.02478616733421522</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06367113897965221</v>
+        <v>0.184129635774444</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01664372897319395</v>
+        <v>0.02028838948502516</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08731740885575359</v>
+        <v>0.1848705317208508</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03184019938373178</v>
+        <v>0.04473277140020462</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08685441703831644</v>
+        <v>0.1853281231051918</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05401547938889073</v>
+        <v>0.07011066635512719</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08648253921072104</v>
+        <v>0.1848705317208508</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03897782251475178</v>
+        <v>0.0229675693100297</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06367087045118819</v>
+        <v>0.1857591015777577</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01644082136309161</v>
+        <v>0.02043649993947201</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08809012928810539</v>
+        <v>0.1865065541254601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03105968897669659</v>
+        <v>0.04555652372968255</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08762304019794755</v>
+        <v>0.1869681949910785</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05324481493842903</v>
+        <v>0.07041749597504532</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08724787141612565</v>
+        <v>0.1865065541254601</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03829581729630319</v>
+        <v>0.02415451524397225</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06367060192272417</v>
+        <v>0.1873885673810713</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01643708275421375</v>
+        <v>0.02079105274325174</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0888628497204572</v>
+        <v>0.1881425765300694</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03018928116456823</v>
+        <v>0.0458970693091223</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08839166335757867</v>
+        <v>0.1886082668769651</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0527646881520677</v>
+        <v>0.07074637112494275</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08801320362153026</v>
+        <v>0.1881425765300694</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03763067327358749</v>
+        <v>0.02534066452978696</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06367033339426015</v>
+        <v>0.189018033184385</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0164324133084192</v>
+        <v>0.02094673024895145</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08963557015280899</v>
+        <v>0.1897785989346787</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0296315459823891</v>
+        <v>0.04594257055665421</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08916028651720979</v>
+        <v>0.1902483387628518</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05247398989332352</v>
+        <v>0.07147909497173849</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08877853582693487</v>
+        <v>0.1897785989346787</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03698289123510101</v>
+        <v>0.02351967656121805</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06367006486579614</v>
+        <v>0.1906474989876986</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01622671318756683</v>
+        <v>0.02099821480915817</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0904082905851608</v>
+        <v>0.191414621339288</v>
       </c>
       <c r="L182" t="n">
-        <v>0.02928905346520147</v>
+        <v>0.04648118271122337</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08992890967684092</v>
+        <v>0.1918884106487384</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05267161102571316</v>
+        <v>0.07149747068235102</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08954386803233948</v>
+        <v>0.191414621339288</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03635297196937012</v>
+        <v>0.02368521073200969</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06366979633733212</v>
+        <v>0.1922769647910123</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01611988255351546</v>
+        <v>0.02124018877645899</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09118101101751259</v>
+        <v>0.1930506437438973</v>
       </c>
       <c r="L183" t="n">
-        <v>0.02816437364804777</v>
+        <v>0.0464010610117748</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09069753283647203</v>
+        <v>0.1935284825346251</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05185644241275333</v>
+        <v>0.07248330142369919</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09030920023774409</v>
+        <v>0.1930506437438973</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03574141626489498</v>
+        <v>0.02583092643590602</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0636695278088681</v>
+        <v>0.193906430594326</v>
       </c>
       <c r="J184" t="n">
-        <v>0.016111821568124</v>
+        <v>0.02126733450344093</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09195373144986441</v>
+        <v>0.1946866661485066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.02786007656597023</v>
+        <v>0.04679036069725354</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09146615599610315</v>
+        <v>0.1951685544205118</v>
       </c>
       <c r="N184" t="n">
-        <v>0.05172737491796098</v>
+        <v>0.0730183903627018</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0910745324431487</v>
+        <v>0.1946866661485066</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03514872491025517</v>
+        <v>0.02595048306665128</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06366925928040408</v>
+        <v>0.1955358963976396</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01590243039325126</v>
+        <v>0.02147433434269108</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0927264518822162</v>
+        <v>0.1963226885531159</v>
       </c>
       <c r="L185" t="n">
-        <v>0.02697873225401137</v>
+        <v>0.04693723700660465</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09223477915573426</v>
+        <v>0.1968086263063984</v>
       </c>
       <c r="N185" t="n">
-        <v>0.05138329940485259</v>
+        <v>0.07308454066627745</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09183986464855332</v>
+        <v>0.1963226885531159</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03457539869395007</v>
+        <v>0.02403754008675753</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06366899075194006</v>
+        <v>0.1971653622009533</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01589160919075613</v>
+        <v>0.02145587064679649</v>
       </c>
       <c r="K186" t="n">
-        <v>0.093499172314568</v>
+        <v>0.1979587109577252</v>
       </c>
       <c r="L186" t="n">
-        <v>0.02672291074721342</v>
+        <v>0.04742984517877316</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09300340231536539</v>
+        <v>0.1984486981922851</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0503231067369449</v>
+        <v>0.07346355550134509</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09260519685395793</v>
+        <v>0.1979587109577252</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03402193840450604</v>
+        <v>0.02510557877027461</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06366872222347605</v>
+        <v>0.198794828004267</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01577925812249743</v>
+        <v>0.02151433354496962</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09427189274691981</v>
+        <v>0.1995947333623345</v>
       </c>
       <c r="L187" t="n">
-        <v>0.02589518208061878</v>
+        <v>0.04746516863824077</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0937720254749965</v>
+        <v>0.2000887700781717</v>
       </c>
       <c r="N187" t="n">
-        <v>0.05004568777775481</v>
+        <v>0.07366361381978759</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09337052905936254</v>
+        <v>0.1995947333623345</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03348884483042669</v>
+        <v>0.02517214868865172</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06366845369501202</v>
+        <v>0.2004242938075806</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01556527735033404</v>
+        <v>0.02167009503967857</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0950446131792716</v>
+        <v>0.2012307557669437</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0253981162892698</v>
+        <v>0.04768927733700445</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09454064863462762</v>
+        <v>0.2017288419640584</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04964993339079898</v>
+        <v>0.07395442801501073</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09413586126476715</v>
+        <v>0.2012307557669437</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03297661876028478</v>
+        <v>0.0262372265075998</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06366818516654801</v>
+        <v>0.2020537596108943</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01554956703612478</v>
+        <v>0.02162461613775565</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09581733361162341</v>
+        <v>0.2028667781715531</v>
       </c>
       <c r="L189" t="n">
-        <v>0.02543428340820877</v>
+        <v>0.04791063812354196</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09530927179425874</v>
+        <v>0.203368913849945</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04923473443959425</v>
+        <v>0.07424099760943353</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09490119347017176</v>
+        <v>0.2028667781715531</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03248371609610057</v>
+        <v>0.02430078889282987</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06366791663808399</v>
+        <v>0.2036832254142079</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01523202734172856</v>
+        <v>0.0217778772695388</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09659005404397521</v>
+        <v>0.2045028005761624</v>
       </c>
       <c r="L190" t="n">
-        <v>0.02450625347247815</v>
+        <v>0.04782920740752969</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09607789495388987</v>
+        <v>0.2050089857358317</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04889898178765711</v>
+        <v>0.07452325563624779</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09566652567557637</v>
+        <v>0.2045028005761624</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03199836830750431</v>
+        <v>0.02536281251005292</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06366764810961999</v>
+        <v>0.2053126912175216</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01531255842900418</v>
+        <v>0.02162985886536595</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09736277447632702</v>
+        <v>0.2061388229807717</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0241165965171202</v>
+        <v>0.0477449415986442</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09684651811352098</v>
+        <v>0.2066490576217183</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04794156629850455</v>
+        <v>0.07460113512864569</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09643185788098098</v>
+        <v>0.2061388229807717</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03151903129651878</v>
+        <v>0.02442327402497992</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06366737958115595</v>
+        <v>0.2069421570208353</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01509106045981054</v>
+        <v>0.02188054135557509</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09813549490867882</v>
+        <v>0.207774845385381</v>
       </c>
       <c r="L192" t="n">
-        <v>0.02386788257717729</v>
+        <v>0.0483577971065621</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0976151412731521</v>
+        <v>0.208289129507605</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04776137883565318</v>
+        <v>0.07447456911981892</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0971971900863856</v>
+        <v>0.207774845385381</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0310462058517121</v>
+        <v>0.02548215010332185</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06366711105269195</v>
+        <v>0.208571622824149</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01486608160706411</v>
+        <v>0.02182990517050416</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09890821534103061</v>
+        <v>0.2094108677899903</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02394729277539323</v>
+        <v>0.04806773034095974</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09838376443278322</v>
+        <v>0.2099292013934916</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0464194534552525</v>
+        <v>0.07494349064295958</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0979625222917902</v>
+        <v>0.2094108677899903</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03058039276158965</v>
+        <v>0.02653941741078972</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06366684252422793</v>
+        <v>0.2102010886274626</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01473608540232886</v>
+        <v>0.0217779307404911</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09968093577338243</v>
+        <v>0.2110468901945996</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02343611016216812</v>
+        <v>0.04857469771151379</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09915238759241433</v>
+        <v>0.2115692732793783</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04607155387452122</v>
+        <v>0.07470783273125936</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09872785449719482</v>
+        <v>0.2110468901945996</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03012209281467776</v>
+        <v>0.02659505261309451</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06366657399576392</v>
+        <v>0.2118305544307763</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01460138679892017</v>
+        <v>0.02192459849587389</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1004536562057342</v>
+        <v>0.2126829125992089</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02333391794973078</v>
+        <v>0.04847865562790069</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09992101075204546</v>
+        <v>0.213209345165265</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04542398410861231</v>
+        <v>0.07536752841791033</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09949318670259942</v>
+        <v>0.2126829125992089</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02967180679948341</v>
+        <v>0.02464903237594721</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06366630546729989</v>
+        <v>0.2134600202340899</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01456230643979387</v>
+        <v>0.02186988886699046</v>
       </c>
       <c r="K196" t="n">
-        <v>0.101226376638086</v>
+        <v>0.2143189350038182</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02254036255337874</v>
+        <v>0.04877956049979698</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1006896339116766</v>
+        <v>0.2148494170511516</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04458321333243365</v>
+        <v>0.07542251073610451</v>
       </c>
       <c r="O196" t="n">
-        <v>0.100258518908004</v>
+        <v>0.2143189350038182</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02923003550457219</v>
+        <v>0.02470133336505877</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06366603693883588</v>
+        <v>0.2150894860374036</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01441916496790571</v>
+        <v>0.02191378228417876</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1019990970704378</v>
+        <v>0.2159549574084275</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02245509038840965</v>
+        <v>0.04837736873687917</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014582570713077</v>
+        <v>0.2164894889370382</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04315571072089291</v>
+        <v>0.0755727127190336</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1010238511134086</v>
+        <v>0.2159549574084275</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02879727971845066</v>
+        <v>0.02675193224614024</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06366576841037186</v>
+        <v>0.2167189518407173</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01417228302621155</v>
+        <v>0.02205625917777673</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1027718175027896</v>
+        <v>0.2175909798130368</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02217774787012106</v>
+        <v>0.04897203674882381</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1022268802309388</v>
+        <v>0.2181295608229249</v>
       </c>
       <c r="N198" t="n">
-        <v>0.04184794544889786</v>
+        <v>0.07531806739988967</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1017891833188133</v>
+        <v>0.2175909798130368</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02837404022964519</v>
+        <v>0.02480080568490255</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06366549988190784</v>
+        <v>0.2183484176440309</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0141219812576672</v>
+        <v>0.02209729997812236</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1035445379351414</v>
+        <v>0.219227002217646</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02170798141381053</v>
+        <v>0.04856352094530741</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1029955033905699</v>
+        <v>0.2197696327088116</v>
       </c>
       <c r="N199" t="n">
-        <v>0.04076638669135646</v>
+        <v>0.07575850781186461</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1025545155242179</v>
+        <v>0.219227002217646</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02796081782666442</v>
+        <v>0.02684793034705671</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06366523135344382</v>
+        <v>0.2199778834473446</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01396858030522843</v>
+        <v>0.02213688511555358</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1043172583674932</v>
+        <v>0.2208630246222553</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02164543743477568</v>
+        <v>0.04885177773600646</v>
       </c>
       <c r="M200" t="n">
-        <v>0.103764126550201</v>
+        <v>0.2214097045946982</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03941750362317659</v>
+        <v>0.0760939669881503</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1033198477296225</v>
+        <v>0.2208630246222553</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02755811329807066</v>
+        <v>0.0258932828983137</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0636649628249798</v>
+        <v>0.2216073492506582</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01391240081185109</v>
+        <v>0.02207499502040834</v>
       </c>
       <c r="K201" t="n">
-        <v>0.105089978799845</v>
+        <v>0.2224990470268647</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02138976234831405</v>
+        <v>0.0487367635305975</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1045327497098322</v>
+        <v>0.2230497764805849</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0380077654192657</v>
+        <v>0.07592437796193868</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1040851799350271</v>
+        <v>0.2224990470268647</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02716642743237213</v>
+        <v>0.02493684000438452</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06366469429651579</v>
+        <v>0.2232368150539719</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01365376342049095</v>
+        <v>0.02211161012302459</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1058626992321968</v>
+        <v>0.224135069431474</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02114060256972328</v>
+        <v>0.04901843473875711</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1053013728694633</v>
+        <v>0.2246898483664715</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0370436412545318</v>
+        <v>0.0759496737664217</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1048505121404317</v>
+        <v>0.224135069431474</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02678626101809511</v>
+        <v>0.02597857833098015</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06366442576805177</v>
+        <v>0.2248662808572856</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01359298877410385</v>
+        <v>0.02214671085374029</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1066354196645486</v>
+        <v>0.2257710918360832</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02099760451430085</v>
+        <v>0.04909674777016171</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1060699960290944</v>
+        <v>0.2263299202523582</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03563160030388268</v>
+        <v>0.07636978743479123</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1056158443458363</v>
+        <v>0.2257710918360832</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02641811484375028</v>
+        <v>0.02701847454381158</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06366415723958775</v>
+        <v>0.2264957466605992</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01343039751564556</v>
+        <v>0.02228027764289341</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1074081400969004</v>
+        <v>0.2274071142406925</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02066041459734444</v>
+        <v>0.04947165903448783</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1068386191887255</v>
+        <v>0.2279699921382448</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03437811174222627</v>
+        <v>0.07598465200023918</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1063811765512409</v>
+        <v>0.2274071142406925</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02606248969789607</v>
+        <v>0.02505650530858977</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06366388871112373</v>
+        <v>0.2281252124639129</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01306631028807191</v>
+        <v>0.02231229092082186</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1081808605292522</v>
+        <v>0.2290431366453018</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0203286792341516</v>
+        <v>0.04924312494141206</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1076072423483567</v>
+        <v>0.2296100640241315</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03268964474447017</v>
+        <v>0.07639420049595746</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1071465087566455</v>
+        <v>0.2290431366453018</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02571988636904253</v>
+        <v>0.02509264729102575</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06366362018265972</v>
+        <v>0.2297546782672266</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01300104773433872</v>
+        <v>0.02224273111786364</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1089535809616041</v>
+        <v>0.2306791590499111</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02040204484001995</v>
+        <v>0.04931110190061089</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1083758655079878</v>
+        <v>0.2312501359100181</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03147266848552221</v>
+        <v>0.07679836595513817</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1079118409620501</v>
+        <v>0.2306791590499111</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02539080564571602</v>
+        <v>0.02612687715683047</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0636633516541957</v>
+        <v>0.2313841440705402</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01293493049740177</v>
+        <v>0.02237157866435667</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1097263013939558</v>
+        <v>0.2323151814545204</v>
       </c>
       <c r="L207" t="n">
-        <v>0.01988015783024699</v>
+        <v>0.0491755463217608</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1091444886676189</v>
+        <v>0.2328902077959048</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02983365214029032</v>
+        <v>0.07659708141097299</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1086771731674548</v>
+        <v>0.2323151814545204</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02507574831642954</v>
+        <v>0.02615917157171493</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06366308312573168</v>
+        <v>0.2330136098738539</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01266827922021688</v>
+        <v>0.02249881399063888</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1104990218263076</v>
+        <v>0.2339512038591297</v>
       </c>
       <c r="L208" t="n">
-        <v>0.01986266462013037</v>
+        <v>0.04953641461453834</v>
       </c>
       <c r="M208" t="n">
-        <v>0.10991311182725</v>
+        <v>0.2345302796817914</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02817906488368221</v>
+        <v>0.07679027989665405</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1094425053728594</v>
+        <v>0.2339512038591297</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02477521516973688</v>
+        <v>0.02518950720139013</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06366281459726766</v>
+        <v>0.2346430756771676</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01260141454573988</v>
+        <v>0.02232441752704828</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1112717422586594</v>
+        <v>0.235587226263739</v>
       </c>
       <c r="L209" t="n">
-        <v>0.01964921162496758</v>
+        <v>0.04949366318862006</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1106817349868811</v>
+        <v>0.2361703515676781</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02661537589060575</v>
+        <v>0.07707789444537305</v>
       </c>
       <c r="O209" t="n">
-        <v>0.110207837578264</v>
+        <v>0.235587226263739</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02448970699415039</v>
+        <v>0.02521786071156704</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06366254606880366</v>
+        <v>0.2362725414804812</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01243465711692654</v>
+        <v>0.02234836970392279</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1120444626910112</v>
+        <v>0.2372232486683483</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01913944526005634</v>
+        <v>0.04944724845368245</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1114503581465122</v>
+        <v>0.2378104234535648</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02524905433596852</v>
+        <v>0.07685985809032203</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1109731697836686</v>
+        <v>0.2372232486683483</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02421972457819642</v>
+        <v>0.02524420876795665</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06366227754033964</v>
+        <v>0.2379020072837949</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01216832757673268</v>
+        <v>0.02237065095160035</v>
       </c>
       <c r="K211" t="n">
-        <v>0.112817183123363</v>
+        <v>0.2388592710729576</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01893301194069411</v>
+        <v>0.04949712681940202</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1122189813061434</v>
+        <v>0.2394504953394514</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0232865693946786</v>
+        <v>0.07663610386469299</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1117385019890732</v>
+        <v>0.2388592710729576</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02396576871039065</v>
+        <v>0.02526852803626993</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06366200901187562</v>
+        <v>0.2395314730871085</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01190274656811411</v>
+        <v>0.02259124170041894</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1135899035557149</v>
+        <v>0.2404952934775669</v>
       </c>
       <c r="L212" t="n">
-        <v>0.01902955808217854</v>
+        <v>0.04954325469545531</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1129876044657745</v>
+        <v>0.241090567225338</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02153439024164372</v>
+        <v>0.07710656480167771</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1125038341944778</v>
+        <v>0.2404952934775669</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02372834017928159</v>
+        <v>0.02729079518221791</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0636617404834116</v>
+        <v>0.2411609388904222</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01183823473402664</v>
+        <v>0.02251012238071651</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1143626239880667</v>
+        <v>0.2421313158821763</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0189287300998072</v>
+        <v>0.04978558849151879</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1137562276254056</v>
+        <v>0.2427306391112247</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02039898605177154</v>
+        <v>0.07697117393446812</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1132691663998824</v>
+        <v>0.2421313158821763</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02350793977338418</v>
+        <v>0.02531098687151154</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06366147195494758</v>
+        <v>0.2427904046937359</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01177511271742608</v>
+        <v>0.02252727342283099</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1151353444204184</v>
+        <v>0.2437673382867855</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01853017440887764</v>
+        <v>0.04952408461726907</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1145248507850367</v>
+        <v>0.2443707109971114</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01868682599996996</v>
+        <v>0.07672986429625622</v>
       </c>
       <c r="O214" t="n">
-        <v>0.114034498605287</v>
+        <v>0.2437673382867855</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02350793977338418</v>
+        <v>0.02732907976986183</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06366147195494758</v>
+        <v>0.2444198704970496</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01141370116126823</v>
+        <v>0.02244267525710036</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1159080648527702</v>
+        <v>0.2454033606913948</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01823353742468747</v>
+        <v>0.0497586994823826</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1152934739446678</v>
+        <v>0.246010782882998</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01730437926114686</v>
+        <v>0.07708256892023385</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1147998308106916</v>
+        <v>0.2454033606913948</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02289622131399391</v>
+        <v>0.02534505054297975</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06357625386021022</v>
+        <v>0.2460493363003632</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0113543207085089</v>
+        <v>0.02245630831386254</v>
       </c>
       <c r="K216" t="n">
-        <v>0.116680785285122</v>
+        <v>0.2470393830960042</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01833846556253427</v>
+        <v>0.04978938949653591</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1160620971042989</v>
+        <v>0.2476508547688847</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01545811501020999</v>
+        <v>0.07702922083959302</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1155651630160962</v>
+        <v>0.2470393830960042</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02229152022230614</v>
+        <v>0.02635887585657629</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06349103576547287</v>
+        <v>0.2476788021036769</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0111972920021039</v>
+        <v>0.02246815302345551</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1174535057174739</v>
+        <v>0.2486754055006134</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01814460523771563</v>
+        <v>0.04961611106940556</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1168307202639301</v>
+        <v>0.2492909266547713</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01405450242206707</v>
+        <v>0.07736975308752553</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1163304952215009</v>
+        <v>0.2486754055006134</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02169420933722913</v>
+        <v>0.02537053237636243</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0634058176707355</v>
+        <v>0.2493082679069905</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01094293568500904</v>
+        <v>0.0225781898162172</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1182262261498257</v>
+        <v>0.2503114279052228</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01765160286552908</v>
+        <v>0.05013882061066802</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1175993434235612</v>
+        <v>0.250930998540658</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01270001067162596</v>
+        <v>0.07720409869722339</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1170958274269055</v>
+        <v>0.2503114279052228</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02110466149767108</v>
+        <v>0.02737999676804916</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06332059957599814</v>
+        <v>0.2509377337103042</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01079157240018011</v>
+        <v>0.02268639912248557</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1189989465821775</v>
+        <v>0.251947450309832</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01785910486127226</v>
+        <v>0.04995747452999982</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1183679665831923</v>
+        <v>0.2525710704265446</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01180110893379449</v>
+        <v>0.0770321907018785</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1178611596323101</v>
+        <v>0.251947450309832</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02052324954254003</v>
+        <v>0.02738724569734748</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06323538148126077</v>
+        <v>0.2525671995136179</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01074352279057293</v>
+        <v>0.02259276137259858</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1197716670145293</v>
+        <v>0.2535834727144413</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01716675764024272</v>
+        <v>0.04967202923707753</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1191365897428234</v>
+        <v>0.2542111423124313</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01026426638348044</v>
+        <v>0.07735396213468276</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1186264918377147</v>
+        <v>0.2535834727144413</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01995034631074434</v>
+        <v>0.02639225582996835</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06315016338652342</v>
+        <v>0.2541966653169315</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01059910749914333</v>
+        <v>0.02249725699689417</v>
       </c>
       <c r="K221" t="n">
-        <v>0.120544387446881</v>
+        <v>0.2552194951190506</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01747420761773805</v>
+        <v>0.04978244114157759</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1199052129024546</v>
+        <v>0.255851214198318</v>
       </c>
       <c r="N221" t="n">
-        <v>0.009295952195591539</v>
+        <v>0.0775693460288282</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1193918240431193</v>
+        <v>0.2552194951190506</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01938632464119197</v>
+        <v>0.02639500383162278</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06306494529178606</v>
+        <v>0.2558261311202452</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01055864716884707</v>
+        <v>0.02269986642571031</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1213171078792329</v>
+        <v>0.2568555175236599</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01718110120905586</v>
+        <v>0.04978866665317661</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1206738360620857</v>
+        <v>0.2574912860842046</v>
       </c>
       <c r="N222" t="n">
-        <v>0.008602635545035708</v>
+        <v>0.07717827541750655</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1201571562485239</v>
+        <v>0.2568555175236599</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01883155737279127</v>
+        <v>0.02639235758575555</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06297972719704871</v>
+        <v>0.2574555969235588</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01022246244264</v>
+        <v>0.0226000519812246</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1220898283115847</v>
+        <v>0.2584915399282692</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01678708482949368</v>
+        <v>0.04979059787902954</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1214424592217168</v>
+        <v>0.2591313579700912</v>
       </c>
       <c r="N223" t="n">
-        <v>0.007590785606720718</v>
+        <v>0.07707891038302017</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1209224884539285</v>
+        <v>0.2584915399282692</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01828641734445027</v>
+        <v>0.02733682097435139</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06289450910231134</v>
+        <v>0.2590850627268725</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0101908739634779</v>
+        <v>0.02256301850798215</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1228625487439365</v>
+        <v>0.2601275623328785</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0163918048943491</v>
+        <v>0.04972124656049975</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1222110823813479</v>
+        <v>0.2607714298559779</v>
       </c>
       <c r="N224" t="n">
-        <v>0.006466871555554365</v>
+        <v>0.07735218292655655</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1216878206593331</v>
+        <v>0.2601275623328785</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01775127739507727</v>
+        <v>0.02721788858100038</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06280929100757399</v>
+        <v>0.2607145285301862</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01006420237431659</v>
+        <v>0.02247205228036014</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1236352691762883</v>
+        <v>0.2617635847374878</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01669490781891975</v>
+        <v>0.04943071757972411</v>
       </c>
       <c r="M225" t="n">
-        <v>0.122979705540979</v>
+        <v>0.2624115017418646</v>
       </c>
       <c r="N225" t="n">
-        <v>0.005337362566444348</v>
+        <v>0.0768408991705028</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1224531528647378</v>
+        <v>0.2617635847374878</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01722651036358029</v>
+        <v>0.02604283471588796</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06272407291283662</v>
+        <v>0.2623439943334999</v>
       </c>
       <c r="J226" t="n">
-        <v>0.009942768318111875</v>
+        <v>0.02223325401099992</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1244079896086401</v>
+        <v>0.2633996071420971</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01629604001850313</v>
+        <v>0.04963259993158878</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1237483287006101</v>
+        <v>0.2640515736277512</v>
       </c>
       <c r="N226" t="n">
-        <v>0.00440872781429863</v>
+        <v>0.0766659355741256</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1232184850701424</v>
+        <v>0.2633996071420971</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01671248908886767</v>
+        <v>0.02581893368919957</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06263885481809928</v>
+        <v>0.2639734601368136</v>
       </c>
       <c r="J227" t="n">
-        <v>0.009726892437819566</v>
+        <v>0.02215272441254279</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1251807100409919</v>
+        <v>0.2650356295467064</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01609484790839691</v>
+        <v>0.04884048261098003</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1245169518602413</v>
+        <v>0.2656916455136378</v>
       </c>
       <c r="N227" t="n">
-        <v>0.004287436474024964</v>
+        <v>0.07614816859669166</v>
       </c>
       <c r="O227" t="n">
-        <v>0.123983817275547</v>
+        <v>0.2650356295467064</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01620958640984741</v>
+        <v>0.02555345981112066</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06255363672336191</v>
+        <v>0.2656029259401271</v>
       </c>
       <c r="J228" t="n">
-        <v>0.009816895376395469</v>
+        <v>0.02183656419763005</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1259534304733437</v>
+        <v>0.2666716519513157</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01609097790389863</v>
+        <v>0.04866795461278417</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1252855750198724</v>
+        <v>0.2673317173995245</v>
       </c>
       <c r="N228" t="n">
-        <v>0.003279957720531079</v>
+        <v>0.07510847469746762</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1247491494809516</v>
+        <v>0.2666716519513157</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01571817516542783</v>
+        <v>0.02525368739183666</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06246841862862455</v>
+        <v>0.2672323917434408</v>
       </c>
       <c r="J229" t="n">
-        <v>0.009513097776795383</v>
+        <v>0.02179087407890305</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1267261509056955</v>
+        <v>0.268307674355925</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01548407642030589</v>
+        <v>0.04792860493188741</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1260541981795035</v>
+        <v>0.2689717892854112</v>
       </c>
       <c r="N229" t="n">
-        <v>0.003392760728724797</v>
+        <v>0.07386773033572019</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1255144816863562</v>
+        <v>0.268307674355925</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01523862819451697</v>
+        <v>0.02392689074153301</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06238320053388718</v>
+        <v>0.2688618575467545</v>
       </c>
       <c r="J230" t="n">
-        <v>0.009415775935948091</v>
+        <v>0.02152175476900309</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1274988713380473</v>
+        <v>0.2699436967605343</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01537382140835977</v>
+        <v>0.04723602256317602</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1268228213391346</v>
+        <v>0.2706118611712978</v>
       </c>
       <c r="N230" t="n">
-        <v>0.002631588961561626</v>
+        <v>0.07294681197071601</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1262798138917608</v>
+        <v>0.2699436967605343</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01477131833602312</v>
+        <v>0.02358034417039516</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06229798243914984</v>
+        <v>0.2704913233500681</v>
       </c>
       <c r="J231" t="n">
-        <v>0.009421500361091885</v>
+        <v>0.02103530698057147</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1282715917703991</v>
+        <v>0.2715797191651436</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01496260146735245</v>
+        <v>0.04660379650153629</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1275914444987657</v>
+        <v>0.2722519330571845</v>
       </c>
       <c r="N231" t="n">
-        <v>0.002525028460625856</v>
+        <v>0.07256659606172178</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1270451460971654</v>
+        <v>0.2715797191651436</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01431661842885434</v>
+        <v>0.02422132198860853</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06221276434441247</v>
+        <v>0.2721207891533818</v>
       </c>
       <c r="J232" t="n">
-        <v>0.009328008234521151</v>
+        <v>0.02083763142624956</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1290443122027509</v>
+        <v>0.2732157415697529</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01485208064407825</v>
+        <v>0.0460455157418545</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1283600676583968</v>
+        <v>0.2738920049430711</v>
       </c>
       <c r="N232" t="n">
-        <v>0.002422621045574114</v>
+        <v>0.07154795906800415</v>
       </c>
       <c r="O232" t="n">
-        <v>0.12781047830257</v>
+        <v>0.2732157415697529</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0138749013119189</v>
+        <v>0.0228570985063586</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06212754624967511</v>
+        <v>0.2737502549566955</v>
       </c>
       <c r="J233" t="n">
-        <v>0.009335361537122173</v>
+        <v>0.0205348288186786</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1298170326351027</v>
+        <v>0.2748517639743622</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01474226088219321</v>
+        <v>0.04547476927901684</v>
       </c>
       <c r="M233" t="n">
-        <v>0.129128690818028</v>
+        <v>0.2755320768289578</v>
       </c>
       <c r="N233" t="n">
-        <v>0.002624490596609519</v>
+        <v>0.07031177744882972</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1285758105079746</v>
+        <v>0.2748517639743622</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01344653982412487</v>
+        <v>0.02449494803383077</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06204232815493775</v>
+        <v>0.2753797207600092</v>
       </c>
       <c r="J234" t="n">
-        <v>0.009243622249781251</v>
+        <v>0.02013299987049998</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1305897530674545</v>
+        <v>0.2764877863789715</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01473314412535331</v>
+        <v>0.04490514610790958</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1298973139776591</v>
+        <v>0.2771721487148444</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0025307609939349</v>
+        <v>0.06887892766346537</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1293411427133793</v>
+        <v>0.2764877863789715</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01303190680438052</v>
+        <v>0.02414214488121051</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0619571100602004</v>
+        <v>0.2770091865633228</v>
       </c>
       <c r="J235" t="n">
-        <v>0.009052852353384683</v>
+        <v>0.01983824529435498</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1313624734998063</v>
+        <v>0.2781238087835808</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01432473231721457</v>
+        <v>0.04435023522341897</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1306659371372902</v>
+        <v>0.2788122206007311</v>
       </c>
       <c r="N235" t="n">
-        <v>0.002141556117753296</v>
+        <v>0.06847028617117762</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1301064749187839</v>
+        <v>0.2781238087835808</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01263137509159393</v>
+        <v>0.02380596335868325</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06187189196546303</v>
+        <v>0.2786386523666365</v>
       </c>
       <c r="J236" t="n">
-        <v>0.008963113828818765</v>
+        <v>0.01965666580288493</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1321351939321581</v>
+        <v>0.2797598311881901</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01411702740143311</v>
+        <v>0.04332362562043129</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1314345602969213</v>
+        <v>0.2804522924866177</v>
       </c>
       <c r="N236" t="n">
-        <v>0.001456999848267693</v>
+        <v>0.06700672943123309</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1308718071241885</v>
+        <v>0.2797598311881901</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01224531752467336</v>
+        <v>0.02149367777643442</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06178667387072568</v>
+        <v>0.2802681181699502</v>
       </c>
       <c r="J237" t="n">
-        <v>0.008974468656969797</v>
+        <v>0.01949436210873114</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1329079143645099</v>
+        <v>0.2813958535927994</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0142100313216649</v>
+        <v>0.04263890629383285</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1322031834565525</v>
+        <v>0.2820923643725043</v>
       </c>
       <c r="N237" t="n">
-        <v>0.001477216065680964</v>
+        <v>0.06650913390289859</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1316371393295931</v>
+        <v>0.2813958535927994</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01187410694252689</v>
+        <v>0.02320561111645912</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06170145577598831</v>
+        <v>0.2818975839732638</v>
       </c>
       <c r="J238" t="n">
-        <v>0.008786978818724075</v>
+        <v>0.019053490199698</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1336806347968617</v>
+        <v>0.2830318759974087</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01360374602156594</v>
+        <v>0.04240303424708153</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1329718066161836</v>
+        <v>0.283732436258391</v>
       </c>
       <c r="N238" t="n">
-        <v>0.001802328650196194</v>
+        <v>0.06538487731304377</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1324024715349977</v>
+        <v>0.2830318759974087</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01151811618406277</v>
+        <v>0.02291897339834087</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06161623768125096</v>
+        <v>0.2835270497765774</v>
       </c>
       <c r="J239" t="n">
-        <v>0.008700706294967886</v>
+        <v>0.01891511205340472</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1344533552292135</v>
+        <v>0.284667898402018</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01349817344479234</v>
+        <v>0.04177480494974148</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1337404297758147</v>
+        <v>0.2853725081442777</v>
       </c>
       <c r="N239" t="n">
-        <v>0.001232461482016389</v>
+        <v>0.06506915430595539</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1331678037404023</v>
+        <v>0.284667898402018</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01117619566264738</v>
+        <v>0.02163124786778454</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06153101958651359</v>
+        <v>0.2851565155798911</v>
       </c>
       <c r="J240" t="n">
-        <v>0.008715713066587541</v>
+        <v>0.01867582670066566</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1352260756615653</v>
+        <v>0.2863039208066273</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01359331553500009</v>
+        <v>0.04144456187756382</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1345090529354458</v>
+        <v>0.2870125800301643</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0007677384413443122</v>
+        <v>0.06425032686508603</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1339331359458069</v>
+        <v>0.2863039208066273</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01083958366393884</v>
+        <v>0.02134241729167956</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06144580149177624</v>
+        <v>0.2867859813832048</v>
       </c>
       <c r="J241" t="n">
-        <v>0.008632061114469326</v>
+        <v>0.01833561968866632</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1359987960939171</v>
+        <v>0.2879399432112366</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01308917423584521</v>
+        <v>0.04061227283771573</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1352776760950769</v>
+        <v>0.288652651916051</v>
       </c>
       <c r="N241" t="n">
-        <v>0.001308283408383237</v>
+        <v>0.0629283455333296</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1346984681512115</v>
+        <v>0.2879399432112366</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01050713060130352</v>
+        <v>0.02105246443691532</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06136058339703888</v>
+        <v>0.2884154471865185</v>
       </c>
       <c r="J242" t="n">
-        <v>0.008549812419499543</v>
+        <v>0.01809447656459225</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1367715165262689</v>
+        <v>0.2895759656158459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01288575149098375</v>
+        <v>0.04017790563736445</v>
       </c>
       <c r="M242" t="n">
-        <v>0.136046299254708</v>
+        <v>0.2902927238019377</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0006542202633358918</v>
+        <v>0.06200316085357976</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1354638003566161</v>
+        <v>0.2895759656158459</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01017920931364969</v>
+        <v>0.02176137207038129</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06127536530230152</v>
+        <v>0.2900449129898321</v>
       </c>
       <c r="J243" t="n">
-        <v>0.008469028962564497</v>
+        <v>0.01785238287562897</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1375442369586207</v>
+        <v>0.2912119880204552</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01258304924407172</v>
+        <v>0.03964142808367713</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1368149224143392</v>
+        <v>0.2919327956878243</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0006056728864053396</v>
+        <v>0.06177472336873047</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1362291325620207</v>
+        <v>0.2912119880204552</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009856192639885422</v>
+        <v>0.02146912295896682</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06119014720756416</v>
+        <v>0.2916743787931458</v>
       </c>
       <c r="J244" t="n">
-        <v>0.008189772724550466</v>
+        <v>0.01780932416896197</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1383169573909725</v>
+        <v>0.2928480104250645</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0122810694387652</v>
+        <v>0.03920280798382092</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1375835455739703</v>
+        <v>0.293572867573711</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0008627651577946538</v>
+        <v>0.06024298362167546</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1369944647674254</v>
+        <v>0.2928480104250645</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009538453418918971</v>
+        <v>0.01917569986956133</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06110492911282681</v>
+        <v>0.2933038445964595</v>
       </c>
       <c r="J245" t="n">
-        <v>0.008312105686343746</v>
+        <v>0.01736528599177677</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1390896778233243</v>
+        <v>0.2944840328296738</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01237981401872015</v>
+        <v>0.03846201314496306</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1383521687336014</v>
+        <v>0.2952129394595976</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0006256209577067406</v>
+        <v>0.05990789215530867</v>
       </c>
       <c r="O245" t="n">
-        <v>0.13775979697283</v>
+        <v>0.2944840328296738</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009226364489658433</v>
+        <v>0.01888108556905427</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06101971101808944</v>
+        <v>0.2949333103997731</v>
       </c>
       <c r="J246" t="n">
-        <v>0.008236089828830652</v>
+        <v>0.01732025389125891</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1398623982556761</v>
+        <v>0.2961200552342831</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01237928492759266</v>
+        <v>0.03781901137427074</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1391207918932325</v>
+        <v>0.2968530113454843</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0005943641663443966</v>
+        <v>0.05906939951252377</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1385251291782346</v>
+        <v>0.2961200552342831</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008920298691012046</v>
+        <v>0.01858526282433505</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06093449292335209</v>
+        <v>0.2965627762030868</v>
       </c>
       <c r="J247" t="n">
-        <v>0.008161787132897481</v>
+        <v>0.01707421341459386</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1406351186880279</v>
+        <v>0.2977560776388924</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01197948410903873</v>
+        <v>0.03777377047891115</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1398894150528636</v>
+        <v>0.2984930832313709</v>
       </c>
       <c r="N247" t="n">
-        <v>-0.0001308813360891281</v>
+        <v>0.05822745623621473</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1392904613836392</v>
+        <v>0.2977560776388924</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008620628861887913</v>
+        <v>0.01928821440229306</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06084927482861472</v>
+        <v>0.2981922420064005</v>
       </c>
       <c r="J248" t="n">
-        <v>0.007889259579430513</v>
+        <v>0.01682715010896721</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1414078391203797</v>
+        <v>0.2993921000435017</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0115804135067144</v>
+        <v>0.03692625826605142</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1406580382124948</v>
+        <v>0.3001331551172576</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0002500083306089529</v>
+        <v>0.05748201286927523</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1400557935890438</v>
+        <v>0.2993921000435017</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008327727841194274</v>
+        <v>0.01998992306981771</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06076405673387737</v>
+        <v>0.2998217078097141</v>
       </c>
       <c r="J249" t="n">
-        <v>0.008018569149316063</v>
+        <v>0.01637904952156441</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1421805595527315</v>
+        <v>0.301028122448111</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01138207506427572</v>
+        <v>0.03657644254285883</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1414266613721259</v>
+        <v>0.3017732270031442</v>
       </c>
       <c r="N249" t="n">
-        <v>-6.284295335831636e-05</v>
+        <v>0.05623301995459923</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1408211257944484</v>
+        <v>0.301028122448111</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008041968467839222</v>
+        <v>0.01769037159379845</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06067883863914</v>
+        <v>0.3014511736130278</v>
       </c>
       <c r="J250" t="n">
-        <v>0.007749777823440405</v>
+        <v>0.01622989719957101</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1429532799850833</v>
+        <v>0.3026641448527203</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01158447072537871</v>
+        <v>0.03562429111650045</v>
       </c>
       <c r="M250" t="n">
-        <v>0.142195284531757</v>
+        <v>0.3034132988890309</v>
       </c>
       <c r="N250" t="n">
-        <v>3.068869221206638e-05</v>
+        <v>0.0552804280350806</v>
       </c>
       <c r="O250" t="n">
-        <v>0.141586457999853</v>
+        <v>0.3026641448527203</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007763723580731012</v>
+        <v>0.01738954274112467</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06059362054440265</v>
+        <v>0.3030806394163414</v>
       </c>
       <c r="J251" t="n">
-        <v>0.007682947582689857</v>
+        <v>0.01607967869017252</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1437260004174351</v>
+        <v>0.3043001672573296</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01128760243367938</v>
+        <v>0.0354697717941436</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1429639076913881</v>
+        <v>0.3050533707749176</v>
       </c>
       <c r="N251" t="n">
-        <v>-0.0001692728524770037</v>
+        <v>0.05452418765361294</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1423517902052577</v>
+        <v>0.3043001672573296</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007493366018777731</v>
+        <v>0.01708741927868579</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06050840244966529</v>
+        <v>0.3047101052196551</v>
       </c>
       <c r="J252" t="n">
-        <v>0.007818140407950702</v>
+        <v>0.01572837954055445</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1444987208497869</v>
+        <v>0.3059361896619389</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01119147213283375</v>
+        <v>0.03491285238295536</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1437325308510192</v>
+        <v>0.3066934426608042</v>
       </c>
       <c r="N252" t="n">
-        <v>-0.0005626037072224699</v>
+        <v>0.0534642493530903</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1431171224106623</v>
+        <v>0.3059361896619389</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007231268620887625</v>
+        <v>0.01678398397337121</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06042318435492793</v>
+        <v>0.3063395710229688</v>
       </c>
       <c r="J253" t="n">
-        <v>0.007555418280109243</v>
+        <v>0.01557598529790233</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1452714412821387</v>
+        <v>0.3075722120665482</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01049608176649791</v>
+        <v>0.03395350069010292</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1445011540106504</v>
+        <v>0.3083335145466908</v>
       </c>
       <c r="N253" t="n">
-        <v>-0.0006491799918213748</v>
+        <v>0.05300056367640632</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1438824546160669</v>
+        <v>0.3075722120665482</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006977804225968789</v>
+        <v>0.01747921959207035</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06033796626019056</v>
+        <v>0.3079690368262825</v>
       </c>
       <c r="J254" t="n">
-        <v>0.007494843180051773</v>
+        <v>0.01532248150940167</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1460441617144905</v>
+        <v>0.3092082344711575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01050143327832787</v>
+        <v>0.03369168452275353</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1452697771702815</v>
+        <v>0.3099735864325775</v>
       </c>
       <c r="N254" t="n">
-        <v>-0.0007288778260708118</v>
+        <v>0.05173308116645498</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1446477868214715</v>
+        <v>0.3092082344711575</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006733345672929471</v>
+        <v>0.01717310890167265</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06025274816545321</v>
+        <v>0.3095985026295961</v>
       </c>
       <c r="J255" t="n">
-        <v>0.007436477088664593</v>
+        <v>0.01496785372223799</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1468168821468423</v>
+        <v>0.3108442568757668</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01040752861197961</v>
+        <v>0.03302737168807438</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1460384003299126</v>
+        <v>0.3116136583184642</v>
       </c>
       <c r="N255" t="n">
-        <v>-0.001001573329767719</v>
+        <v>0.05116175236613002</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1454131190268761</v>
+        <v>0.3108442568757668</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00649826580067777</v>
+        <v>0.01586563466906749</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06016753007071585</v>
+        <v>0.3112279684329097</v>
       </c>
       <c r="J256" t="n">
-        <v>0.007380381986834002</v>
+        <v>0.01461208748359681</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1475896025791941</v>
+        <v>0.3124802792803761</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01011436971110924</v>
+        <v>0.03236052999323258</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1468070234895437</v>
+        <v>0.3132537302043508</v>
       </c>
       <c r="N256" t="n">
-        <v>-0.0006671426227091437</v>
+        <v>0.0505865278183254</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1461784512322807</v>
+        <v>0.3124802792803761</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006272937448121907</v>
+        <v>0.0175567796611443</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06008231197597849</v>
+        <v>0.3128574342362234</v>
       </c>
       <c r="J257" t="n">
-        <v>0.007326619855446297</v>
+        <v>0.01445516834066364</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1483623230115459</v>
+        <v>0.3141163016849854</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01002195851937271</v>
+        <v>0.03189112724539542</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1475756466491748</v>
+        <v>0.3148938020902374</v>
       </c>
       <c r="N257" t="n">
-        <v>-0.0005254618246921527</v>
+        <v>0.04910735806593475</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1469437834376853</v>
+        <v>0.3141163016849854</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.00605773345417001</v>
+        <v>0.01624652664479248</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05999709388124113</v>
+        <v>0.3144869000395371</v>
       </c>
       <c r="J258" t="n">
-        <v>0.007275252675387756</v>
+        <v>0.014097081840624</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1491350434438977</v>
+        <v>0.3157523240895947</v>
       </c>
       <c r="L258" t="n">
-        <v>0.009930296980426162</v>
+        <v>0.03151913125172998</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1483442698088059</v>
+        <v>0.3165338739761241</v>
       </c>
       <c r="N258" t="n">
-        <v>-0.001176407055513751</v>
+        <v>0.0485241936518519</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1477091156430899</v>
+        <v>0.3157523240895947</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005853026657730305</v>
+        <v>0.01693485838690147</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05991187578650378</v>
+        <v>0.3161163658428507</v>
       </c>
       <c r="J259" t="n">
-        <v>0.007426342427544697</v>
+        <v>0.0140378135306634</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1499077638762495</v>
+        <v>0.317388346494204</v>
       </c>
       <c r="L259" t="n">
-        <v>0.009839387037925529</v>
+        <v>0.03104450981940352</v>
       </c>
       <c r="M259" t="n">
-        <v>0.149112892968437</v>
+        <v>0.3181739458620108</v>
       </c>
       <c r="N259" t="n">
-        <v>-0.001019854434970935</v>
+        <v>0.04763698511897085</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1484744478484945</v>
+        <v>0.317388346494204</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005659189897710894</v>
+        <v>0.01662175765436066</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05982665769176641</v>
+        <v>0.3177458316461644</v>
       </c>
       <c r="J260" t="n">
-        <v>0.007279951092803411</v>
+        <v>0.01357734895796738</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1506804843086013</v>
+        <v>0.3190243688988133</v>
       </c>
       <c r="L260" t="n">
-        <v>0.009649230635526862</v>
+        <v>0.03006723075558318</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1498815161280682</v>
+        <v>0.3198140177478974</v>
       </c>
       <c r="N260" t="n">
-        <v>-0.001055680082860777</v>
+        <v>0.04694568301018531</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1492397800538992</v>
+        <v>0.3190243688988133</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005476596013020016</v>
+        <v>0.01630720721405947</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05974143959702906</v>
+        <v>0.3193752974494781</v>
       </c>
       <c r="J261" t="n">
-        <v>0.007336140652050196</v>
+        <v>0.01331567366972142</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1514532047409531</v>
+        <v>0.3206603913034226</v>
       </c>
       <c r="L261" t="n">
-        <v>0.009159829716886198</v>
+        <v>0.0296872618674362</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1506501392876993</v>
+        <v>0.3214540896337841</v>
       </c>
       <c r="N261" t="n">
-        <v>-0.0005837601189802311</v>
+        <v>0.04615023786838918</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1500051122593037</v>
+        <v>0.3206603913034226</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005305617842565766</v>
+        <v>0.01499118983288731</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05965622150229169</v>
+        <v>0.3210047632527918</v>
       </c>
       <c r="J262" t="n">
-        <v>0.007094973086171345</v>
+        <v>0.01305277321311106</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1522259251733049</v>
+        <v>0.3222964137080319</v>
       </c>
       <c r="L262" t="n">
-        <v>0.008771186225659561</v>
+        <v>0.02900457096212972</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1514187624473304</v>
+        <v>0.3230941615196707</v>
       </c>
       <c r="N262" t="n">
-        <v>-0.0006039706631264241</v>
+        <v>0.04535060023647614</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1507704444647084</v>
+        <v>0.3222964137080319</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00514662822525639</v>
+        <v>0.01467368827773361</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05957100340755433</v>
+        <v>0.3226342290561054</v>
       </c>
       <c r="J263" t="n">
-        <v>0.007056510376053156</v>
+        <v>0.01278863313532182</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1529986456056567</v>
+        <v>0.3239324361126412</v>
       </c>
       <c r="L263" t="n">
-        <v>0.008783302105503016</v>
+        <v>0.02861912584683099</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1521873856069615</v>
+        <v>0.3247342334055573</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.0009161878350963382</v>
+        <v>0.04424672065734014</v>
       </c>
       <c r="O263" t="n">
-        <v>0.151535776670113</v>
+        <v>0.3239324361126412</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01335468531548777</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05948578531281697</v>
+        <v>0.3242636948594191</v>
       </c>
       <c r="J264" t="n">
-        <v>0.007120814502581924</v>
+        <v>0.0125232389835392</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1537713660380085</v>
+        <v>0.3255684585172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.00849617930007257</v>
+        <v>0.02813089432870711</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1529560087665927</v>
+        <v>0.326374305291444</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.001020287754686933</v>
+        <v>0.04333854967387496</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1523011088755176</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05947262741808013</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005640580086802412</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05947289594654414</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006277358833760203</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05947316447500815</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006910288664011319</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05947343300347218</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007539322000611144</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05947370153193619</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008164411266697799</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05947397006040021</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008785508885381765</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05947423858886423</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009402567279800302</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05947450711732825</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01001553887301016</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05947477564579227</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.0106243760881488</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05947504417425628</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01122903134832669</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05947531270272029</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01182945707668034</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05947558123118432</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01242560569626799</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05947584975964833</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01301742963022634</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05947611828811235</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01360488130166589</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05947638681657636</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01418791313372237</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05947665534504039</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01476647754945554</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0594769238735044</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01534052697200136</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05947719240196842</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0159100138244703</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05947746093043244</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01647489052999733</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05947772945889646</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01703510951164377</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05947799798736048</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01759062319254479</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05947826651582449</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01814138399581088</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0594785350442885</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01868734434457614</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05947880357275253</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01922845666190361</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05947907210121654</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01976486764322639</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05947934062968056</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02029769534544817</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05947960915814457</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02082708646400125</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0594798776866086</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02135299342195002</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05948014621507261</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02187536864242808</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05948041474353662</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02239416454854593</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05948068327200064</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02290933356343638</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05948095180046466</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0234208281101651</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05948122032892868</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02392860061186505</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0594814888573927</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02443260349164672</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05948175738585671</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02493278917264226</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05948202591432074</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02542911007791866</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05948229444278475</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02592151863060822</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05948256297124876</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02640996725382143</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05948283149971278</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02689440837068979</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05948310002817681</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.0273747944042816</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05948336855664082</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02785107777772851</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05948363708510483</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02832321091414103</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05948390561356885</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.0287911462366499</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05948417414203287</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02925483616832486</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05948444267049689</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02971423313229687</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05948471119896091</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0301692895516764</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05948497972742492</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03061995784959348</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05948524825588895</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03106619044911935</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05948551678435296</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03150793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05948578531281697</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03150793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05947262741808013</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0320003753627362</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05955838256974552</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03248814856640257</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05964413772141092</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03297112731367051</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05972989287307631</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03344917953382723</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.0598156480247417</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03392217315615986</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.0599014031764071</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03438997610995562</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05998715832807249</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03485245632450168</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06007291347973789</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03530948172908523</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06015866863140328</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03576092025299346</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06024442378306867</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03620663982551353</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06033017893473407</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03664650837593265</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06041593408639946</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03708039383353801</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06050168923806485</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03750816412761679</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06058744438973025</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03792968718745612</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06067319954139564</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03834483094234326</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06075895469306104</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03875346332156536</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06084470984472643</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03915545225440963</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06093046499639182</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.0395506656701632</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06101622014805722</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.0399389714981133</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06110197529972261</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.0403202376675471</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06118773045138801</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04069433210775179</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.0612734856030534</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04106112274801454</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06135924075471879</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04142047751762257</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06144499590638419</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04177226434586302</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06153075105804958</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04211689045076709</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06161650620971498</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04245745949408596</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06170226136138037</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.0427943786938508</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06178801651304576</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04312751597934877</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06187377166471116</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0434567392798671</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06195952681637655</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04378191652469295</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06204528196804195</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.0441029156431135</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06213103711970733</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04441960456441593</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06221679227137273</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04473185121788745</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06230254742303813</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04503952353281522</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06238830257470352</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04534248943848644</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06247405772636892</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04564061686418829</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.0625598128780343</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04593377373920794</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0626455680296997</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04622182799283261</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0627313231813651</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04650464755434944</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06281707833303049</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04678210035304566</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06290283348469589</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0470540543182084</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06298858863636128</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04732037737912489</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06307434378802668</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.0475809374650823</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06316009893969206</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04783560250536781</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06324585409135745</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04808424042926861</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06333160924302285</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04832671916607188</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06341736439468824</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04856290664506481</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06350311954635364</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04879267079553458</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06358887469801904</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04901587954676839</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06367462984968443</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04034391969784559</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06367462984968443</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04912563303766995</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06542484445714809</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.0492270470175081</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06717505906461174</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04932045100502327</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06892527367207539</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.0494061745189559</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07067548827953904</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04948454707804639</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0724257028870027</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04955589820103519</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07417591749446635</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04962055740666271</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07592613210193001</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04967885421366935</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07767634670939366</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04973111814079557</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07942656131685732</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04977767870678178</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08117677592432097</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0498188654303684</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08292699053178462</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04985500783029585</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08467720513924827</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04988643542530458</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08642741974671193</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04991347773413499</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.0881776343541756</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04993646427552752</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08992784896163925</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04995572456822257</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09167806356910289</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0499715881309606</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09342827817656656</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04998438448248199</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09517849278403021</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04999444314152722</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09692870739149385</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05000209362683666</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.0986789219989575</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05000766545715075</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1004291366064212</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05001148815120995</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1021793512138848</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05001389122775463</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1039295658213485</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05001520420552526</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1056797804288121</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05001575660326221</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1074299950362758</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05001587793970597</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1091802096437394</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04999309528987185</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1109304242512031</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0498828695702504</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1126806388586668</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04968736723992384</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1144308534661304</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04941338079398719</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1161810680735941</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04906770272753541</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1179312826810577</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04865712553566347</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1196814972885214</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04818844171346631</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.121431711895985</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04766844375603896</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1231819265034487</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04710392415847633</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1249321411109123</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04650167541587344</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.126682355718376</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04586849002332524</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1284325703258396</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.0452111604759267</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1301827849333033</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04453647926877279</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.131932999540767</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04385123889695849</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1336832141482306</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04316223185557877</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1354334287556943</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0424762506397286</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1371836433631579</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04180008774450296</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1389338579706215</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.0411405356649968</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1406840725780852</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04050438689630512</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1424342871855489</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03989843393352287</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1441845017930125</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03932946927174501</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1459347164004762</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03880428540606655</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1476849310079398</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03832967483158244</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03791243004338764</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1511853602228672</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03752488484749758</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1529355748303308</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03712792129420935</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1546857894377945</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03672346196904344</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1564360040452581</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03631355302023417</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1581862186527218</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03590024059601588</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1599364332601854</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03548557084462291</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1616866478676491</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03507158991428956</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1634368624751127</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03466034395325016</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1651870770825764</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03425387910973908</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.16693729169004</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03385424153199058</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1686875062975037</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03346347736823906</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1704377209049673</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03308363276671877</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.172187935512431</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03271675387566411</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1739381501198947</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03236488684330938</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1756883647273583</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03203007781788891</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.177438579334822</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03171437294763703</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1791887939422856</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03141981838078803</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1809390085497493</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03114846026557631</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1826892231572129</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03090234475023616</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1844394377646766</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.0306835179830019</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1861896523721402</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03049402611210787</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1879398669796039</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.0303359152857884</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1896900815870675</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03021123165227781</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1914402961945312</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03012202135981043</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1931905108019948</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03007033055662058</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1949407254094585</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03005736811496443</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1966909400169221</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03005762121233459</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1984411546243858</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03005893138154071</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2001913692318495</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03006217847883867</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2019415838393131</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.0300682423604843</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2036917984467768</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03007800288273349</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2054420130542404</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03009233990184207</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2071922276617041</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03011213327406591</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2089424422691677</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03013826285566085</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2106926568766314</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03017160850288277</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.212442871484095</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03021305007198752</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2141930860915587</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03026346741923094</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2159433006990223</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03032374040086892</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.217693515306486</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.0303947488731573</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2194437299139497</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03047737269235193</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2211939445214133</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03057249171470867</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2229441591288769</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.0306809857964834</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2246943737363406</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03080373479393196</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2264445883438043</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03094161856331021</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2281948029512679</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.031095516960874</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2299450175587316</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03126630984287919</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2316952321661953</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03145487706558164</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2334454467736589</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03166209848523721</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2351956613811226</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03188885395810176</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2369458759885862</v>
-      </c>
-    </row>
+        <v>0.3255684585172505</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
